--- a/backend/app/internal/assets/pareto_input_template.xlsx
+++ b/backend/app/internal/assets/pareto_input_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelpesce/Desktop/testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A3F619-24A8-154C-AAC4-13ADC0388B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72A140F-D6FA-6A4F-9B12-F178A2D2AEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19480" tabRatio="953" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="273">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -453,12 +453,6 @@
     <t>List of all SWD Sites [-]</t>
   </si>
   <si>
-    <t>K01</t>
-  </si>
-  <si>
-    <t>K02</t>
-  </si>
-  <si>
     <t>List of all Freshwater Source Identifiers [-]</t>
   </si>
   <si>
@@ -471,9 +465,6 @@
     <t>List of all Storage Site Identifiers [-] | Note: These correspond with Clean Brine Treatment Facilities</t>
   </si>
   <si>
-    <t>S02</t>
-  </si>
-  <si>
     <t>List of all Treatment Site Identifiers [-]</t>
   </si>
   <si>
@@ -928,12 +919,6 @@
   </si>
   <si>
     <t>Table of Production Rate Forecasts by Pads [bbl/day]</t>
-  </si>
-  <si>
-    <t>S03</t>
-  </si>
-  <si>
-    <t>S04</t>
   </si>
   <si>
     <t>Network Nodes to Beneficial Reuse Piping Arcs [-]</t>
@@ -1509,7 +1494,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1731,11 +1716,10 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2696,7 +2680,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -2753,17 +2737,17 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
@@ -2771,17 +2755,17 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -2814,7 +2798,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -2861,7 +2845,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -2987,32 +2971,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3047,17 +3031,17 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
@@ -3065,12 +3049,12 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -3111,17 +3095,17 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
@@ -3129,12 +3113,12 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -3175,17 +3159,17 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
@@ -3193,12 +3177,12 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -3232,12 +3216,12 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -3288,12 +3272,12 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -3409,12 +3393,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B2" s="10"/>
     </row>
@@ -3447,12 +3431,12 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -3571,12 +3555,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B2" s="10"/>
     </row>
@@ -3645,12 +3629,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -3731,12 +3715,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -3815,12 +3799,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -3903,12 +3887,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -3991,12 +3975,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -4067,12 +4051,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -4116,12 +4100,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B2" s="10"/>
     </row>
@@ -4354,7 +4338,7 @@
         <v>73</v>
       </c>
       <c r="AZ8" s="29" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="BA8" s="29" t="s">
         <v>76</v>
@@ -4362,22 +4346,22 @@
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F9" s="43" t="s">
         <v>52</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H9" s="47"/>
       <c r="I9" s="43"/>
@@ -4402,7 +4386,7 @@
         <v>74</v>
       </c>
       <c r="AZ9" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="BA9" s="1" t="s">
         <v>74</v>
@@ -4410,13 +4394,13 @@
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B10" s="37" t="s">
         <v>84</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E10" s="50"/>
       <c r="F10" s="43"/>
@@ -4444,7 +4428,7 @@
         <v>78</v>
       </c>
       <c r="AZ10" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="BA10" s="1" t="s">
         <v>78</v>
@@ -4545,12 +4529,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B2" s="10"/>
     </row>
@@ -4588,12 +4572,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -4633,12 +4617,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B2" s="10"/>
     </row>
@@ -4668,12 +4652,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -4734,12 +4718,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -4781,12 +4765,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B2" s="10"/>
     </row>
@@ -4829,12 +4813,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B2" s="10"/>
     </row>
@@ -4871,12 +4855,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -4920,12 +4904,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -4956,12 +4940,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B2" s="10"/>
     </row>
@@ -5070,12 +5054,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -5108,12 +5092,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -5153,12 +5137,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -5198,12 +5182,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -5256,12 +5240,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>46</v>
@@ -5380,163 +5364,163 @@
     </row>
     <row r="2" spans="1:55" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="W2" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="X2" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="Z2" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="AA2" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="AB2" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AE2" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AF2" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AG2" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AH2" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AI2" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AK2" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AL2" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AM2" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="AK2" s="10" t="s">
+      <c r="AN2" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="AL2" s="10" t="s">
+      <c r="AO2" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="AM2" s="10" t="s">
+      <c r="AP2" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AQ2" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="AO2" s="10" t="s">
+      <c r="AR2" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="AP2" s="10" t="s">
+      <c r="AS2" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="AQ2" s="10" t="s">
+      <c r="AT2" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="AR2" s="10" t="s">
+      <c r="AU2" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="AS2" s="10" t="s">
+      <c r="AV2" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="AT2" s="10" t="s">
+      <c r="AW2" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="AU2" s="10" t="s">
+      <c r="AX2" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="AV2" s="10" t="s">
+      <c r="AY2" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="AW2" s="10" t="s">
+      <c r="AZ2" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="AX2" s="10" t="s">
+      <c r="BA2" s="10" t="s">
         <v>218</v>
-      </c>
-      <c r="AY2" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="AZ2" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="BA2" s="10" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:55" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -5583,163 +5567,163 @@
     </row>
     <row r="2" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="W2" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="X2" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="Z2" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="AA2" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="AB2" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AE2" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AF2" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AG2" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AH2" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AI2" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AK2" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AL2" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AM2" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="AK2" s="10" t="s">
+      <c r="AN2" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="AL2" s="10" t="s">
+      <c r="AO2" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="AM2" s="10" t="s">
+      <c r="AP2" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AQ2" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="AO2" s="10" t="s">
+      <c r="AR2" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="AP2" s="10" t="s">
+      <c r="AS2" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="AQ2" s="10" t="s">
+      <c r="AT2" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="AR2" s="10" t="s">
+      <c r="AU2" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="AS2" s="10" t="s">
+      <c r="AV2" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="AT2" s="10" t="s">
+      <c r="AW2" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="AU2" s="10" t="s">
+      <c r="AX2" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="AV2" s="10" t="s">
+      <c r="AY2" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="AW2" s="10" t="s">
+      <c r="AZ2" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="AX2" s="10" t="s">
+      <c r="BA2" s="10" t="s">
         <v>218</v>
-      </c>
-      <c r="AY2" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="AZ2" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="BA2" s="10" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -6006,163 +5990,163 @@
     </row>
     <row r="2" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="W2" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="X2" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="Z2" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="AA2" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="AB2" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AE2" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AF2" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AG2" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AH2" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AI2" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AK2" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AL2" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AM2" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="AK2" s="10" t="s">
+      <c r="AN2" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="AL2" s="10" t="s">
+      <c r="AO2" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="AM2" s="10" t="s">
+      <c r="AP2" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AQ2" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="AO2" s="10" t="s">
+      <c r="AR2" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="AP2" s="10" t="s">
+      <c r="AS2" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="AQ2" s="10" t="s">
+      <c r="AT2" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="AR2" s="10" t="s">
+      <c r="AU2" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="AS2" s="10" t="s">
+      <c r="AV2" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="AT2" s="10" t="s">
+      <c r="AW2" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="AU2" s="10" t="s">
+      <c r="AX2" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="AV2" s="10" t="s">
+      <c r="AY2" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="AW2" s="10" t="s">
+      <c r="AZ2" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="AX2" s="10" t="s">
+      <c r="BA2" s="10" t="s">
         <v>218</v>
-      </c>
-      <c r="AY2" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="AZ2" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="BA2" s="10" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.2">
@@ -6254,16 +6238,16 @@
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q1" s="1">
         <v>0.01</v>
@@ -6271,163 +6255,163 @@
     </row>
     <row r="2" spans="1:55" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="W2" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="X2" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="Z2" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="AA2" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="AB2" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AE2" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AF2" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AG2" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AH2" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AI2" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AK2" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AL2" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AM2" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="AK2" s="10" t="s">
+      <c r="AN2" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="AL2" s="10" t="s">
+      <c r="AO2" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="AM2" s="10" t="s">
+      <c r="AP2" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AQ2" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="AO2" s="10" t="s">
+      <c r="AR2" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="AP2" s="10" t="s">
+      <c r="AS2" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="AQ2" s="10" t="s">
+      <c r="AT2" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="AR2" s="10" t="s">
+      <c r="AU2" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="AS2" s="10" t="s">
+      <c r="AV2" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="AT2" s="10" t="s">
+      <c r="AW2" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="AU2" s="10" t="s">
+      <c r="AX2" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="AV2" s="10" t="s">
+      <c r="AY2" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="AW2" s="10" t="s">
+      <c r="AZ2" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="AX2" s="10" t="s">
+      <c r="BA2" s="10" t="s">
         <v>218</v>
-      </c>
-      <c r="AY2" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="AZ2" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="BA2" s="10" t="s">
-        <v>221</v>
       </c>
       <c r="BC2" s="1"/>
     </row>
@@ -7423,7 +7407,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -8066,12 +8050,12 @@
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -12069,7 +12053,7 @@
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>46</v>
@@ -12112,7 +12096,7 @@
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>46</v>
@@ -12159,27 +12143,27 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B3" s="62">
         <v>0</v>
@@ -12199,7 +12183,7 @@
     </row>
     <row r="4" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B4" s="38">
         <v>0</v>
@@ -12246,163 +12230,163 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="W2" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="X2" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="Z2" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="AA2" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="AB2" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AE2" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AF2" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AG2" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AH2" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AI2" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AK2" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AL2" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AM2" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="AK2" s="10" t="s">
+      <c r="AN2" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="AL2" s="10" t="s">
+      <c r="AO2" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="AM2" s="10" t="s">
+      <c r="AP2" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AQ2" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="AO2" s="10" t="s">
+      <c r="AR2" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="AP2" s="10" t="s">
+      <c r="AS2" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="AQ2" s="10" t="s">
+      <c r="AT2" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="AR2" s="10" t="s">
+      <c r="AU2" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="AS2" s="10" t="s">
+      <c r="AV2" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="AT2" s="10" t="s">
+      <c r="AW2" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="AU2" s="10" t="s">
+      <c r="AX2" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="AV2" s="10" t="s">
+      <c r="AY2" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="AW2" s="10" t="s">
+      <c r="AZ2" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="AX2" s="10" t="s">
+      <c r="BA2" s="10" t="s">
         <v>218</v>
-      </c>
-      <c r="AY2" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="AZ2" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="BA2" s="10" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.2">
@@ -12598,163 +12582,163 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="W2" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="X2" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="Z2" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="AA2" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="AB2" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AE2" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AF2" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AG2" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AH2" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AI2" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AK2" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AL2" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AM2" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="AK2" s="10" t="s">
+      <c r="AN2" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="AL2" s="10" t="s">
+      <c r="AO2" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="AM2" s="10" t="s">
+      <c r="AP2" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AQ2" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="AO2" s="10" t="s">
+      <c r="AR2" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="AP2" s="10" t="s">
+      <c r="AS2" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="AQ2" s="10" t="s">
+      <c r="AT2" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="AR2" s="10" t="s">
+      <c r="AU2" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="AS2" s="10" t="s">
+      <c r="AV2" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="AT2" s="10" t="s">
+      <c r="AW2" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="AU2" s="10" t="s">
+      <c r="AX2" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="AV2" s="10" t="s">
+      <c r="AY2" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="AW2" s="10" t="s">
+      <c r="AZ2" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="AX2" s="10" t="s">
+      <c r="BA2" s="10" t="s">
         <v>218</v>
-      </c>
-      <c r="AY2" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="AZ2" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="BA2" s="10" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.2">
@@ -12948,19 +12932,19 @@
         <v>Table of Freshwater Sourcing Availability [bbl/day]</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F1" s="1">
         <v>71428.571428571406</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I1" s="1">
         <v>42857.142857142899</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L1" s="1">
         <v>0.7</v>
@@ -12968,163 +12952,163 @@
     </row>
     <row r="2" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="W2" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="X2" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="Z2" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="AA2" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="AB2" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AE2" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AF2" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AG2" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AH2" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AI2" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AK2" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AL2" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AM2" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="AK2" s="10" t="s">
+      <c r="AN2" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="AL2" s="10" t="s">
+      <c r="AO2" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="AM2" s="10" t="s">
+      <c r="AP2" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AQ2" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="AO2" s="10" t="s">
+      <c r="AR2" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="AP2" s="10" t="s">
+      <c r="AS2" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="AQ2" s="10" t="s">
+      <c r="AT2" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="AR2" s="10" t="s">
+      <c r="AU2" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="AS2" s="10" t="s">
+      <c r="AV2" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="AT2" s="10" t="s">
+      <c r="AW2" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="AU2" s="10" t="s">
+      <c r="AX2" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="AV2" s="10" t="s">
+      <c r="AY2" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="AW2" s="10" t="s">
+      <c r="AZ2" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="AX2" s="10" t="s">
+      <c r="BA2" s="10" t="s">
         <v>218</v>
-      </c>
-      <c r="AY2" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="AZ2" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="BA2" s="10" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -13271,7 +13255,7 @@
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>46</v>
@@ -13310,7 +13294,7 @@
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>46</v>
@@ -13350,7 +13334,7 @@
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>46</v>
@@ -13475,163 +13459,163 @@
     </row>
     <row r="2" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="W2" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="X2" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="Z2" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="AA2" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="AB2" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AE2" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AF2" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AG2" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AH2" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AI2" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AK2" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AL2" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AM2" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="AK2" s="10" t="s">
+      <c r="AN2" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="AL2" s="10" t="s">
+      <c r="AO2" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="AM2" s="10" t="s">
+      <c r="AP2" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AQ2" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="AO2" s="10" t="s">
+      <c r="AR2" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="AP2" s="10" t="s">
+      <c r="AS2" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="AQ2" s="10" t="s">
+      <c r="AT2" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="AR2" s="10" t="s">
+      <c r="AU2" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="AS2" s="10" t="s">
+      <c r="AV2" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="AT2" s="10" t="s">
+      <c r="AW2" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="AU2" s="10" t="s">
+      <c r="AX2" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="AV2" s="10" t="s">
+      <c r="AY2" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="AW2" s="10" t="s">
+      <c r="AZ2" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="AX2" s="10" t="s">
+      <c r="BA2" s="10" t="s">
         <v>218</v>
-      </c>
-      <c r="AY2" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="AZ2" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="BA2" s="10" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -13645,7 +13629,7 @@
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.2">
       <c r="D9" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F9" s="9"/>
     </row>
@@ -13678,7 +13662,7 @@
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>46</v>
@@ -13723,10 +13707,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B2" s="72" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>46</v>
@@ -13734,10 +13718,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B3" s="70" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C3" s="28">
         <v>0.2</v>
@@ -13745,10 +13729,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B4" s="70" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C4" s="28">
         <v>0.2</v>
@@ -13756,10 +13740,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="70" t="s">
         <v>114</v>
-      </c>
-      <c r="B5" s="70" t="s">
-        <v>117</v>
       </c>
       <c r="C5" s="28">
         <v>0.3</v>
@@ -13767,10 +13751,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C6" s="28">
         <v>0.3</v>
@@ -13778,10 +13762,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C7" s="28">
         <v>0.5</v>
@@ -13789,10 +13773,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C8" s="28">
         <v>0.5</v>
@@ -13800,10 +13784,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B9" s="70" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C9" s="28">
         <v>1</v>
@@ -13811,10 +13795,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C10" s="28">
         <v>1</v>
@@ -13822,10 +13806,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C11" s="28">
         <v>0.7</v>
@@ -13833,10 +13817,10 @@
     </row>
     <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B12" s="73" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C12" s="8">
         <v>0.7</v>
@@ -13871,7 +13855,7 @@
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>46</v>
@@ -13910,7 +13894,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -14446,7 +14430,7 @@
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>46</v>
@@ -14487,7 +14471,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>46</v>
@@ -14544,40 +14528,40 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="95" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
+      <c r="A2" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="96"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="96"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="96"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="96"/>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14600,62 +14584,42 @@
     <col min="2" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),")]")</f>
         <v>Table of Disposal Capacity Expansion Cost [USD/(bbl/day)]</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>146</v>
-      </c>
     </row>
     <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="30">
-        <v>0</v>
-      </c>
-      <c r="C3" s="30">
-        <v>1000</v>
-      </c>
-      <c r="D3" s="30">
-        <v>1000</v>
-      </c>
-      <c r="E3" s="39">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="32">
-        <v>0</v>
-      </c>
-      <c r="C4" s="32">
-        <v>1000</v>
-      </c>
-      <c r="D4" s="32">
-        <v>1000</v>
-      </c>
-      <c r="E4" s="33">
-        <v>1000</v>
-      </c>
+      <c r="A3" s="10"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+    </row>
+    <row r="4" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -14671,9 +14635,7 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14689,7 +14651,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>46</v>
@@ -14697,7 +14659,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B3" s="31">
         <v>0</v>
@@ -14705,7 +14667,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B4" s="79">
         <v>7143</v>
@@ -14713,7 +14675,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B5" s="79">
         <v>14286</v>
@@ -14721,7 +14683,7 @@
     </row>
     <row r="6" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B6" s="78">
         <v>50000</v>
@@ -14788,9 +14750,7 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14798,79 +14758,49 @@
     <col min="2" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"]")</f>
         <v>Table of Storage Capacity Expansion Cost [USD/bbl]</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="30">
-        <v>2</v>
-      </c>
-      <c r="C3" s="30">
-        <v>2</v>
-      </c>
-      <c r="D3" s="30">
-        <v>2</v>
-      </c>
-      <c r="E3" s="39">
-        <v>2</v>
-      </c>
+      <c r="A3" s="10"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="B4" s="30">
-        <v>18</v>
-      </c>
-      <c r="C4" s="30">
-        <v>18</v>
-      </c>
-      <c r="D4" s="30">
-        <v>18</v>
-      </c>
-      <c r="E4" s="31">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="B5" s="32">
-        <v>21</v>
-      </c>
-      <c r="C5" s="32">
-        <v>21</v>
-      </c>
-      <c r="D5" s="32">
-        <v>21</v>
-      </c>
-      <c r="E5" s="33">
-        <v>21</v>
-      </c>
+      <c r="A4" s="10"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14903,7 +14833,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>46</v>
@@ -14911,7 +14841,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B3" s="31">
         <v>0</v>
@@ -14919,7 +14849,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B4" s="31">
         <v>50000</v>
@@ -14927,7 +14857,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B5" s="31">
         <v>100000</v>
@@ -14935,7 +14865,7 @@
     </row>
     <row r="6" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B6" s="33">
         <v>350000</v>
@@ -14973,30 +14903,30 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B2" s="68" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>138</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B3" s="67" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C3" s="30">
         <v>75</v>
@@ -15013,10 +14943,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B4" s="67" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C4" s="30">
         <v>75</v>
@@ -15033,10 +14963,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="67" t="s">
         <v>114</v>
-      </c>
-      <c r="B5" s="67" t="s">
-        <v>117</v>
       </c>
       <c r="C5" s="30">
         <v>100</v>
@@ -15053,10 +14983,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C6" s="30">
         <v>100</v>
@@ -15073,10 +15003,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C7" s="30">
         <v>1000</v>
@@ -15093,10 +15023,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B8" s="67" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C8" s="30">
         <v>1000</v>
@@ -15113,10 +15043,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B9" s="67" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C9" s="30">
         <v>500</v>
@@ -15133,10 +15063,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B10" s="67" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C10" s="30">
         <v>500</v>
@@ -15153,10 +15083,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B11" s="67" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C11" s="30">
         <v>800</v>
@@ -15173,10 +15103,10 @@
     </row>
     <row r="12" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B12" s="71" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C12" s="32">
         <v>800</v>
@@ -15224,24 +15154,24 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="24" t="s">
         <v>138</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B3" s="30">
         <v>0</v>
@@ -15258,7 +15188,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B4" s="30">
         <v>0</v>
@@ -15275,7 +15205,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B5" s="30">
         <v>0</v>
@@ -15292,7 +15222,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B6" s="30">
         <v>0</v>
@@ -15309,7 +15239,7 @@
     </row>
     <row r="7" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B7" s="32">
         <v>0</v>
@@ -15365,12 +15295,12 @@
         <v>45</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B3" s="33">
         <v>300000</v>
@@ -15407,7 +15337,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -15942,33 +15872,33 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B2" s="72" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="G2" s="24" t="s">
         <v>128</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B3" s="76" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C3" s="6">
         <v>30</v>
@@ -15988,10 +15918,10 @@
     </row>
     <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B4" s="77" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C4" s="7">
         <v>30</v>
@@ -16040,7 +15970,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>46</v>
@@ -16048,7 +15978,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B3" s="31">
         <v>0</v>
@@ -16056,7 +15986,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B4" s="31">
         <v>14285.714285714286</v>
@@ -16064,7 +15994,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B5" s="31">
         <v>35714.285714285717</v>
@@ -16072,7 +16002,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B6" s="31">
         <v>42857.142857142855</v>
@@ -16080,7 +16010,7 @@
     </row>
     <row r="7" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B7" s="33">
         <v>50000</v>
@@ -16117,7 +16047,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>46</v>
@@ -16125,7 +16055,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B3" s="31">
         <v>0</v>
@@ -16133,7 +16063,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B4" s="31">
         <v>4</v>
@@ -16141,7 +16071,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B5" s="31">
         <v>6</v>
@@ -16149,7 +16079,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B6" s="31">
         <v>8</v>
@@ -16157,7 +16087,7 @@
     </row>
     <row r="7" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B7" s="33">
         <v>12</v>
@@ -16176,9 +16106,7 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16189,15 +16117,15 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B2" s="72" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>46</v>
@@ -16205,10 +16133,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B3" s="70" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C3" s="28">
         <v>0.95</v>
@@ -16216,10 +16144,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B4" s="70" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C4" s="28">
         <v>0.95</v>
@@ -16227,10 +16155,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="70" t="s">
         <v>114</v>
-      </c>
-      <c r="B5" s="70" t="s">
-        <v>117</v>
       </c>
       <c r="C5" s="28">
         <v>0.95</v>
@@ -16238,10 +16166,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C6" s="28">
         <v>0.95</v>
@@ -16249,10 +16177,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C7" s="28">
         <v>0.5</v>
@@ -16260,10 +16188,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C8" s="28">
         <v>0.5</v>
@@ -16271,10 +16199,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B9" s="70" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C9" s="28">
         <v>0.5</v>
@@ -16282,10 +16210,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C10" s="28">
         <v>0.5</v>
@@ -16293,10 +16221,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C11" s="28">
         <v>0.5</v>
@@ -16304,10 +16232,10 @@
     </row>
     <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B12" s="73" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C12" s="8">
         <v>0.5</v>
@@ -16344,7 +16272,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -16383,26 +16311,26 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B2" s="72" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B3" s="70" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C3" s="28">
         <v>0</v>
@@ -16410,10 +16338,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B4" s="70" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C4" s="28">
         <v>0</v>
@@ -16421,10 +16349,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="70" t="s">
         <v>114</v>
-      </c>
-      <c r="B5" s="70" t="s">
-        <v>117</v>
       </c>
       <c r="C5" s="28">
         <v>0</v>
@@ -16432,10 +16360,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C6" s="28">
         <v>0</v>
@@ -16443,10 +16371,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C7" s="28">
         <v>0.99</v>
@@ -16454,10 +16382,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C8" s="28">
         <v>0.99</v>
@@ -16465,10 +16393,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B9" s="70" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C9" s="28">
         <v>0.99</v>
@@ -16476,10 +16404,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C10" s="28">
         <v>0.99</v>
@@ -16487,10 +16415,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C11" s="28">
         <v>0.99</v>
@@ -16498,10 +16426,10 @@
     </row>
     <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B12" s="73" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C12" s="75">
         <v>0.99</v>
@@ -16531,12 +16459,12 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>46</v>
@@ -16544,7 +16472,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="74" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B3" s="31">
         <v>0</v>
@@ -16552,7 +16480,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="74" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B4" s="31">
         <v>0</v>
@@ -16560,7 +16488,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="74" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B5" s="31">
         <v>1</v>
@@ -16568,7 +16496,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="74" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B6" s="31">
         <v>1</v>
@@ -16576,7 +16504,7 @@
     </row>
     <row r="7" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B7" s="33">
         <v>1</v>
@@ -16604,12 +16532,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>46</v>
@@ -16651,7 +16579,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>46</v>
@@ -16691,12 +16619,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>46</v>
@@ -16731,7 +16659,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -16739,12 +16667,12 @@
         <v>45</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B3" s="31">
         <v>110</v>
@@ -16752,7 +16680,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B4" s="37">
         <v>0.03</v>
@@ -16760,24 +16688,24 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B5" s="31">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B6" s="33">
         <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -16804,7 +16732,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -16812,12 +16740,12 @@
         <v>45</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B3" s="37">
         <v>0.08</v>
@@ -16825,7 +16753,7 @@
     </row>
     <row r="4" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B4" s="33">
         <v>20</v>
@@ -16866,10 +16794,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -16922,10 +16850,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -16971,10 +16899,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -17012,7 +16940,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -17057,30 +16985,30 @@
     </row>
     <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B2" s="68" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>138</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B3" s="67" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C3" s="30">
         <v>0</v>
@@ -17097,10 +17025,10 @@
     </row>
     <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="61" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B4" s="87" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C4" s="88">
         <v>0</v>
@@ -17117,10 +17045,10 @@
     </row>
     <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="67" t="s">
         <v>114</v>
-      </c>
-      <c r="B5" s="67" t="s">
-        <v>117</v>
       </c>
       <c r="C5" s="30">
         <v>0</v>
@@ -17137,10 +17065,10 @@
     </row>
     <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="61" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B6" s="87" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C6" s="88">
         <v>0</v>
@@ -17157,10 +17085,10 @@
     </row>
     <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C7" s="30">
         <v>0</v>
@@ -17178,10 +17106,10 @@
     </row>
     <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="61" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B8" s="87" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C8" s="88">
         <v>0</v>
@@ -17199,10 +17127,10 @@
     </row>
     <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B9" s="67" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C9" s="30">
         <v>0</v>
@@ -17220,10 +17148,10 @@
     </row>
     <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="61" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B10" s="87" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C10" s="88">
         <v>0</v>
@@ -17241,10 +17169,10 @@
     </row>
     <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B11" s="67" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C11" s="30">
         <v>0</v>
@@ -17262,10 +17190,10 @@
     </row>
     <row r="12" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B12" s="71" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C12" s="32">
         <v>0</v>
@@ -17296,7 +17224,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Expansion Lead Time [",VLOOKUP("decision period", Units!$A$2:$B$11, 2, FALSE),"s]")</f>
         <v>Table of Disposal Expansion Lead Time [weeks]</v>
@@ -17305,37 +17233,25 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>144</v>
+      <c r="A2" s="95" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="95" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="30">
-        <v>0</v>
-      </c>
-      <c r="C3" s="31">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="32">
-        <v>0</v>
-      </c>
-      <c r="C4" s="33">
-        <v>45</v>
-      </c>
+      <c r="A3" s="95"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17349,13 +17265,11 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Storage Expansion Lead Time [",VLOOKUP("decision period", Units!$A$2:$B$11, 2, FALSE),"s]")</f>
         <v>Table of Storage Expansion Lead Time [weeks]</v>
@@ -17364,72 +17278,42 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="64" t="s">
+      <c r="A2" s="95" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="95" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="95" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="30">
-        <v>0</v>
-      </c>
-      <c r="C3" s="30">
-        <v>88</v>
-      </c>
-      <c r="D3" s="30">
-        <v>89</v>
-      </c>
-      <c r="E3" s="31">
-        <v>90</v>
-      </c>
+      <c r="A3" s="95"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="B4" s="30">
-        <v>0</v>
-      </c>
-      <c r="C4" s="30">
-        <v>88</v>
-      </c>
-      <c r="D4" s="30">
-        <v>89</v>
-      </c>
-      <c r="E4" s="31">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="B5" s="32">
-        <v>0</v>
-      </c>
-      <c r="C5" s="32">
-        <v>88</v>
-      </c>
-      <c r="D5" s="32">
-        <v>89</v>
-      </c>
-      <c r="E5" s="33">
-        <v>90</v>
-      </c>
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="95"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17461,12 +17345,12 @@
         <v>45</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B3" s="89">
         <v>0.2</v>
@@ -17499,27 +17383,27 @@
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B2" s="72" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="24" t="s">
         <v>127</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B3" s="90" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C3" s="91">
         <v>0</v>
@@ -17533,10 +17417,10 @@
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C4" s="91">
         <v>0</v>
@@ -17550,10 +17434,10 @@
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B5" s="90" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C5" s="91">
         <v>0</v>
@@ -17567,10 +17451,10 @@
     </row>
     <row r="6" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B6" s="92" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C6" s="85">
         <v>0</v>

--- a/backend/app/internal/assets/pareto_input_template.xlsx
+++ b/backend/app/internal/assets/pareto_input_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelpesce/Desktop/testing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelpesce/Desktop/pareto-ui/backend/app/internal/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72A140F-D6FA-6A4F-9B12-F178A2D2AEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A9F4F4-B6AB-574E-9A84-707442EEF3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19480" tabRatio="953" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-35640" yWindow="500" windowWidth="34560" windowHeight="19420" tabRatio="953" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -110,6 +110,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="74" hidden="1">#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">TreatmentTechnologies!$A$1:$A$5</definedName>
     <definedName name="_xlnm.Extract" localSheetId="74">PipelineExpansionDistance!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -133,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="270">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -468,12 +469,6 @@
     <t>List of all Treatment Site Identifiers [-]</t>
   </si>
   <si>
-    <t>R01</t>
-  </si>
-  <si>
-    <t>R02</t>
-  </si>
-  <si>
     <t>CB</t>
   </si>
   <si>
@@ -868,9 +863,6 @@
   </si>
   <si>
     <t>MD</t>
-  </si>
-  <si>
-    <t>OARO</t>
   </si>
   <si>
     <t>Table of Removal Efficiency [%]. Note: The removal efficiency of a component can be estimated based on its concentration or its total load (flow times concentration). The default method for calculating removal efficacy is concentration-based. This configuration option is set prior to running the optimization. Refer to 'Water Treatment' in Model Library documentation.</t>
@@ -1068,7 +1060,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1223,28 +1215,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1391,76 +1361,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1494,7 +1394,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1551,9 +1451,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1569,18 +1466,16 @@
     <xf numFmtId="4" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1588,126 +1483,80 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1716,10 +1565,10 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2719,7 +2568,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2742,12 +2591,12 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
@@ -2755,20 +2604,19 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>245</v>
-      </c>
+      <c r="A6" s="9"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A5" xr:uid="{2C820352-28DB-4692-BCE8-9A9846CC4956}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2798,7 +2646,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -2845,7 +2693,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -2971,32 +2819,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3031,17 +2879,17 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
@@ -3049,12 +2897,12 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -3095,17 +2943,17 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
@@ -3113,12 +2961,12 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -3159,17 +3007,17 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
@@ -3177,12 +3025,12 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -3216,12 +3064,12 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -3272,12 +3120,12 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -3320,54 +3168,54 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C3" s="34"/>
+      <c r="C3" s="33"/>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C21" s="35"/>
-      <c r="F21" s="35"/>
+      <c r="C21" s="34"/>
+      <c r="F21" s="34"/>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C23" s="36"/>
+      <c r="C23" s="35"/>
     </row>
     <row r="24" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C24" s="36"/>
+      <c r="C24" s="35"/>
     </row>
     <row r="25" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C25" s="36"/>
+      <c r="C25" s="35"/>
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C26" s="36"/>
+      <c r="C26" s="35"/>
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C27" s="36"/>
+      <c r="C27" s="35"/>
     </row>
     <row r="28" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C28" s="36"/>
+      <c r="C28" s="35"/>
     </row>
     <row r="29" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C29" s="36"/>
+      <c r="C29" s="35"/>
     </row>
     <row r="30" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C30" s="36"/>
+      <c r="C30" s="35"/>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C31" s="36"/>
+      <c r="C31" s="35"/>
       <c r="M31" s="23"/>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C32" s="36"/>
+      <c r="C32" s="35"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="36"/>
+      <c r="C33" s="35"/>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="36"/>
+      <c r="C34" s="35"/>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="36"/>
+      <c r="C35" s="35"/>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="36"/>
+      <c r="C36" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3393,12 +3241,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" s="10"/>
     </row>
@@ -3431,12 +3279,12 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -3555,12 +3403,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B2" s="10"/>
     </row>
@@ -3629,12 +3477,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -3715,12 +3563,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -3799,12 +3647,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -3887,12 +3735,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -3975,12 +3823,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -4051,12 +3899,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -4100,12 +3948,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B2" s="10"/>
     </row>
@@ -4169,46 +4017,46 @@
       <c r="B2" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="54"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="42" t="s">
+      <c r="H3" s="43"/>
+      <c r="I3" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="J3" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="41" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4216,109 +4064,109 @@
       <c r="A4" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="46"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="44"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="41"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="45"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="42"/>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="47"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="45"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="42"/>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="G7" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="45"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="42"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="45"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="42"/>
       <c r="AT8" s="29" t="s">
         <v>49</v>
       </c>
@@ -4338,7 +4186,7 @@
         <v>73</v>
       </c>
       <c r="AZ8" s="29" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="BA8" s="29" t="s">
         <v>76</v>
@@ -4346,27 +4194,27 @@
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="40" t="s">
         <v>247</v>
       </c>
-      <c r="B9" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>249</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>248</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="43" t="s">
-        <v>250</v>
-      </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="45"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="42"/>
       <c r="AT9" s="1" t="s">
         <v>50</v>
       </c>
@@ -4386,7 +4234,7 @@
         <v>74</v>
       </c>
       <c r="AZ9" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="BA9" s="1" t="s">
         <v>74</v>
@@ -4394,21 +4242,21 @@
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="B10" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="47" t="s">
-        <v>253</v>
-      </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="45"/>
+      <c r="D10" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="E10" s="47"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="42"/>
       <c r="AT10" s="1" t="s">
         <v>54</v>
       </c>
@@ -4428,7 +4276,7 @@
         <v>78</v>
       </c>
       <c r="AZ10" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="BA10" s="1" t="s">
         <v>78</v>
@@ -4438,29 +4286,29 @@
       <c r="A11" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="57" t="s">
+      <c r="G11" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="H11" s="51"/>
-      <c r="I11" s="58" t="s">
+      <c r="H11" s="48"/>
+      <c r="I11" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="J11" s="56" t="s">
+      <c r="J11" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="K11" s="57" t="s">
+      <c r="K11" s="54" t="s">
         <v>83</v>
       </c>
       <c r="AU11" s="1" t="s">
@@ -4529,12 +4377,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B2" s="10"/>
     </row>
@@ -4572,12 +4420,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -4617,12 +4465,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B2" s="10"/>
     </row>
@@ -4652,12 +4500,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -4718,12 +4566,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -4765,12 +4613,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" s="10"/>
     </row>
@@ -4813,12 +4661,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B2" s="10"/>
     </row>
@@ -4855,12 +4703,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -4904,12 +4752,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -4940,12 +4788,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" s="10"/>
     </row>
@@ -5054,12 +4902,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -5092,12 +4940,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -5137,12 +4985,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -5182,12 +5030,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -5240,12 +5088,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>46</v>
@@ -5364,172 +5212,172 @@
     </row>
     <row r="2" spans="1:55" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="W2" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="X2" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="Z2" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="AA2" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="AB2" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AE2" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AF2" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AG2" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AH2" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AI2" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AK2" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AL2" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="AK2" s="10" t="s">
+      <c r="AM2" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="AL2" s="10" t="s">
+      <c r="AN2" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="AM2" s="10" t="s">
+      <c r="AO2" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AP2" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="AO2" s="10" t="s">
+      <c r="AQ2" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="AP2" s="10" t="s">
+      <c r="AR2" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="AQ2" s="10" t="s">
+      <c r="AS2" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="AR2" s="10" t="s">
+      <c r="AT2" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="AS2" s="10" t="s">
+      <c r="AU2" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="AT2" s="10" t="s">
+      <c r="AV2" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="AU2" s="10" t="s">
+      <c r="AW2" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="AV2" s="10" t="s">
+      <c r="AX2" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="AW2" s="10" t="s">
+      <c r="AY2" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="AX2" s="10" t="s">
+      <c r="AZ2" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="AY2" s="10" t="s">
+      <c r="BA2" s="10" t="s">
         <v>216</v>
-      </c>
-      <c r="AZ2" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="BA2" s="10" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:55" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
-      <c r="BB3" s="66"/>
-      <c r="BC3" s="66"/>
+      <c r="BB3" s="59"/>
+      <c r="BC3" s="59"/>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="B7" s="41"/>
+      <c r="B7" s="38"/>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.2">
       <c r="F8" s="9"/>
@@ -5567,394 +5415,394 @@
     </row>
     <row r="2" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="W2" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="X2" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="Z2" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="AA2" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="AB2" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AE2" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AF2" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AG2" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AH2" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AI2" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AK2" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AL2" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="AK2" s="10" t="s">
+      <c r="AM2" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="AL2" s="10" t="s">
+      <c r="AN2" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="AM2" s="10" t="s">
+      <c r="AO2" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AP2" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="AO2" s="10" t="s">
+      <c r="AQ2" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="AP2" s="10" t="s">
+      <c r="AR2" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="AQ2" s="10" t="s">
+      <c r="AS2" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="AR2" s="10" t="s">
+      <c r="AT2" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="AS2" s="10" t="s">
+      <c r="AU2" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="AT2" s="10" t="s">
+      <c r="AV2" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="AU2" s="10" t="s">
+      <c r="AW2" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="AV2" s="10" t="s">
+      <c r="AX2" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="AW2" s="10" t="s">
+      <c r="AY2" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="AX2" s="10" t="s">
+      <c r="AZ2" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="AY2" s="10" t="s">
+      <c r="BA2" s="10" t="s">
         <v>216</v>
-      </c>
-      <c r="AZ2" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="BA2" s="10" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="69"/>
-      <c r="AB3" s="69"/>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="69"/>
-      <c r="AG3" s="69"/>
-      <c r="AH3" s="69"/>
-      <c r="AI3" s="69"/>
-      <c r="AJ3" s="69"/>
-      <c r="AK3" s="69"/>
-      <c r="AL3" s="69"/>
-      <c r="AM3" s="69"/>
-      <c r="AN3" s="69"/>
-      <c r="AO3" s="69"/>
-      <c r="AP3" s="69"/>
-      <c r="AQ3" s="69"/>
-      <c r="AR3" s="69"/>
-      <c r="AS3" s="69"/>
-      <c r="AT3" s="69"/>
-      <c r="AU3" s="69"/>
-      <c r="AV3" s="69"/>
-      <c r="AW3" s="69"/>
-      <c r="AX3" s="69"/>
-      <c r="AY3" s="69"/>
-      <c r="AZ3" s="69"/>
-      <c r="BA3" s="69"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="60"/>
+      <c r="AL3" s="60"/>
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="60"/>
+      <c r="AO3" s="60"/>
+      <c r="AP3" s="60"/>
+      <c r="AQ3" s="60"/>
+      <c r="AR3" s="60"/>
+      <c r="AS3" s="60"/>
+      <c r="AT3" s="60"/>
+      <c r="AU3" s="60"/>
+      <c r="AV3" s="60"/>
+      <c r="AW3" s="60"/>
+      <c r="AX3" s="60"/>
+      <c r="AY3" s="60"/>
+      <c r="AZ3" s="60"/>
+      <c r="BA3" s="60"/>
     </row>
     <row r="4" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="69"/>
-      <c r="AA4" s="69"/>
-      <c r="AB4" s="69"/>
-      <c r="AC4" s="69"/>
-      <c r="AD4" s="69"/>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="69"/>
-      <c r="AG4" s="69"/>
-      <c r="AH4" s="69"/>
-      <c r="AI4" s="69"/>
-      <c r="AJ4" s="69"/>
-      <c r="AK4" s="69"/>
-      <c r="AL4" s="69"/>
-      <c r="AM4" s="69"/>
-      <c r="AN4" s="69"/>
-      <c r="AO4" s="69"/>
-      <c r="AP4" s="69"/>
-      <c r="AQ4" s="69"/>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="69"/>
-      <c r="AV4" s="69"/>
-      <c r="AW4" s="69"/>
-      <c r="AX4" s="69"/>
-      <c r="AY4" s="69"/>
-      <c r="AZ4" s="69"/>
-      <c r="BA4" s="69"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="60"/>
+      <c r="AL4" s="60"/>
+      <c r="AM4" s="60"/>
+      <c r="AN4" s="60"/>
+      <c r="AO4" s="60"/>
+      <c r="AP4" s="60"/>
+      <c r="AQ4" s="60"/>
+      <c r="AR4" s="60"/>
+      <c r="AS4" s="60"/>
+      <c r="AT4" s="60"/>
+      <c r="AU4" s="60"/>
+      <c r="AV4" s="60"/>
+      <c r="AW4" s="60"/>
+      <c r="AX4" s="60"/>
+      <c r="AY4" s="60"/>
+      <c r="AZ4" s="60"/>
+      <c r="BA4" s="60"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
-      <c r="X5" s="69"/>
-      <c r="Y5" s="69"/>
-      <c r="Z5" s="69"/>
-      <c r="AA5" s="69"/>
-      <c r="AB5" s="69"/>
-      <c r="AC5" s="69"/>
-      <c r="AD5" s="69"/>
-      <c r="AE5" s="69"/>
-      <c r="AF5" s="69"/>
-      <c r="AG5" s="69"/>
-      <c r="AH5" s="69"/>
-      <c r="AI5" s="69"/>
-      <c r="AJ5" s="69"/>
-      <c r="AK5" s="69"/>
-      <c r="AL5" s="69"/>
-      <c r="AM5" s="69"/>
-      <c r="AN5" s="69"/>
-      <c r="AO5" s="69"/>
-      <c r="AP5" s="69"/>
-      <c r="AQ5" s="69"/>
-      <c r="AR5" s="69"/>
-      <c r="AS5" s="69"/>
-      <c r="AT5" s="69"/>
-      <c r="AU5" s="69"/>
-      <c r="AV5" s="69"/>
-      <c r="AW5" s="69"/>
-      <c r="AX5" s="69"/>
-      <c r="AY5" s="69"/>
-      <c r="AZ5" s="69"/>
-      <c r="BA5" s="69"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
+      <c r="W5" s="60"/>
+      <c r="X5" s="60"/>
+      <c r="Y5" s="60"/>
+      <c r="Z5" s="60"/>
+      <c r="AA5" s="60"/>
+      <c r="AB5" s="60"/>
+      <c r="AC5" s="60"/>
+      <c r="AD5" s="60"/>
+      <c r="AE5" s="60"/>
+      <c r="AF5" s="60"/>
+      <c r="AG5" s="60"/>
+      <c r="AH5" s="60"/>
+      <c r="AI5" s="60"/>
+      <c r="AJ5" s="60"/>
+      <c r="AK5" s="60"/>
+      <c r="AL5" s="60"/>
+      <c r="AM5" s="60"/>
+      <c r="AN5" s="60"/>
+      <c r="AO5" s="60"/>
+      <c r="AP5" s="60"/>
+      <c r="AQ5" s="60"/>
+      <c r="AR5" s="60"/>
+      <c r="AS5" s="60"/>
+      <c r="AT5" s="60"/>
+      <c r="AU5" s="60"/>
+      <c r="AV5" s="60"/>
+      <c r="AW5" s="60"/>
+      <c r="AX5" s="60"/>
+      <c r="AY5" s="60"/>
+      <c r="AZ5" s="60"/>
+      <c r="BA5" s="60"/>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="69"/>
-      <c r="AA6" s="69"/>
-      <c r="AB6" s="69"/>
-      <c r="AC6" s="69"/>
-      <c r="AD6" s="69"/>
-      <c r="AE6" s="69"/>
-      <c r="AF6" s="69"/>
-      <c r="AG6" s="69"/>
-      <c r="AH6" s="69"/>
-      <c r="AI6" s="69"/>
-      <c r="AJ6" s="69"/>
-      <c r="AK6" s="69"/>
-      <c r="AL6" s="69"/>
-      <c r="AM6" s="69"/>
-      <c r="AN6" s="69"/>
-      <c r="AO6" s="69"/>
-      <c r="AP6" s="69"/>
-      <c r="AQ6" s="69"/>
-      <c r="AR6" s="69"/>
-      <c r="AS6" s="69"/>
-      <c r="AT6" s="69"/>
-      <c r="AU6" s="69"/>
-      <c r="AV6" s="69"/>
-      <c r="AW6" s="69"/>
-      <c r="AX6" s="69"/>
-      <c r="AY6" s="69"/>
-      <c r="AZ6" s="69"/>
-      <c r="BA6" s="69"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="60"/>
+      <c r="AB6" s="60"/>
+      <c r="AC6" s="60"/>
+      <c r="AD6" s="60"/>
+      <c r="AE6" s="60"/>
+      <c r="AF6" s="60"/>
+      <c r="AG6" s="60"/>
+      <c r="AH6" s="60"/>
+      <c r="AI6" s="60"/>
+      <c r="AJ6" s="60"/>
+      <c r="AK6" s="60"/>
+      <c r="AL6" s="60"/>
+      <c r="AM6" s="60"/>
+      <c r="AN6" s="60"/>
+      <c r="AO6" s="60"/>
+      <c r="AP6" s="60"/>
+      <c r="AQ6" s="60"/>
+      <c r="AR6" s="60"/>
+      <c r="AS6" s="60"/>
+      <c r="AT6" s="60"/>
+      <c r="AU6" s="60"/>
+      <c r="AV6" s="60"/>
+      <c r="AW6" s="60"/>
+      <c r="AX6" s="60"/>
+      <c r="AY6" s="60"/>
+      <c r="AZ6" s="60"/>
+      <c r="BA6" s="60"/>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="B7" s="40"/>
-      <c r="C7" s="41"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="B9" s="41"/>
+      <c r="B9" s="38"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="B10" s="41"/>
+      <c r="B10" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5990,163 +5838,163 @@
     </row>
     <row r="2" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="W2" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="X2" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="Z2" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="AA2" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="AB2" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AE2" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AF2" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AG2" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AH2" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AI2" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AK2" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AL2" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="AK2" s="10" t="s">
+      <c r="AM2" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="AL2" s="10" t="s">
+      <c r="AN2" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="AM2" s="10" t="s">
+      <c r="AO2" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AP2" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="AO2" s="10" t="s">
+      <c r="AQ2" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="AP2" s="10" t="s">
+      <c r="AR2" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="AQ2" s="10" t="s">
+      <c r="AS2" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="AR2" s="10" t="s">
+      <c r="AT2" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="AS2" s="10" t="s">
+      <c r="AU2" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="AT2" s="10" t="s">
+      <c r="AV2" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="AU2" s="10" t="s">
+      <c r="AW2" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="AV2" s="10" t="s">
+      <c r="AX2" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="AW2" s="10" t="s">
+      <c r="AY2" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="AX2" s="10" t="s">
+      <c r="AZ2" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="AY2" s="10" t="s">
+      <c r="BA2" s="10" t="s">
         <v>216</v>
-      </c>
-      <c r="AZ2" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="BA2" s="10" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.2">
@@ -6163,53 +6011,53 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="69"/>
-      <c r="AB3" s="69"/>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="69"/>
-      <c r="AG3" s="69"/>
-      <c r="AH3" s="69"/>
-      <c r="AI3" s="69"/>
-      <c r="AJ3" s="69"/>
-      <c r="AK3" s="69"/>
-      <c r="AL3" s="69"/>
-      <c r="AM3" s="69"/>
-      <c r="AN3" s="69"/>
-      <c r="AO3" s="69"/>
-      <c r="AP3" s="69"/>
-      <c r="AQ3" s="69"/>
-      <c r="AR3" s="69"/>
-      <c r="AS3" s="69"/>
-      <c r="AT3" s="69"/>
-      <c r="AU3" s="69"/>
-      <c r="AV3" s="69"/>
-      <c r="AW3" s="69"/>
-      <c r="AX3" s="69"/>
-      <c r="AY3" s="69"/>
-      <c r="AZ3" s="69"/>
-      <c r="BA3" s="69"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="60"/>
+      <c r="AL3" s="60"/>
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="60"/>
+      <c r="AO3" s="60"/>
+      <c r="AP3" s="60"/>
+      <c r="AQ3" s="60"/>
+      <c r="AR3" s="60"/>
+      <c r="AS3" s="60"/>
+      <c r="AT3" s="60"/>
+      <c r="AU3" s="60"/>
+      <c r="AV3" s="60"/>
+      <c r="AW3" s="60"/>
+      <c r="AX3" s="60"/>
+      <c r="AY3" s="60"/>
+      <c r="AZ3" s="60"/>
+      <c r="BA3" s="60"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="41"/>
+      <c r="B6" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6238,16 +6086,16 @@
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Q1" s="1">
         <v>0.01</v>
@@ -6255,951 +6103,951 @@
     </row>
     <row r="2" spans="1:55" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="W2" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="X2" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="Z2" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="AA2" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="AB2" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AE2" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AF2" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AG2" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AH2" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AI2" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AK2" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AL2" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="AK2" s="10" t="s">
+      <c r="AM2" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="AL2" s="10" t="s">
+      <c r="AN2" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="AM2" s="10" t="s">
+      <c r="AO2" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AP2" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="AO2" s="10" t="s">
+      <c r="AQ2" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="AP2" s="10" t="s">
+      <c r="AR2" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="AQ2" s="10" t="s">
+      <c r="AS2" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="AR2" s="10" t="s">
+      <c r="AT2" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="AS2" s="10" t="s">
+      <c r="AU2" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="AT2" s="10" t="s">
+      <c r="AV2" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="AU2" s="10" t="s">
+      <c r="AW2" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="AV2" s="10" t="s">
+      <c r="AX2" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="AW2" s="10" t="s">
+      <c r="AY2" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="AX2" s="10" t="s">
+      <c r="AZ2" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="AY2" s="10" t="s">
+      <c r="BA2" s="10" t="s">
         <v>216</v>
-      </c>
-      <c r="AZ2" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="BA2" s="10" t="s">
-        <v>218</v>
       </c>
       <c r="BC2" s="1"/>
     </row>
     <row r="3" spans="1:55" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="69"/>
-      <c r="AB3" s="69"/>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="69"/>
-      <c r="AG3" s="69"/>
-      <c r="AH3" s="69"/>
-      <c r="AI3" s="69"/>
-      <c r="AJ3" s="69"/>
-      <c r="AK3" s="69"/>
-      <c r="AL3" s="69"/>
-      <c r="AM3" s="69"/>
-      <c r="AN3" s="69"/>
-      <c r="AO3" s="69"/>
-      <c r="AP3" s="69"/>
-      <c r="AQ3" s="69"/>
-      <c r="AR3" s="69"/>
-      <c r="AS3" s="69"/>
-      <c r="AT3" s="69"/>
-      <c r="AU3" s="69"/>
-      <c r="AV3" s="69"/>
-      <c r="AW3" s="69"/>
-      <c r="AX3" s="69"/>
-      <c r="AY3" s="69"/>
-      <c r="AZ3" s="69"/>
-      <c r="BA3" s="69"/>
-      <c r="BB3" s="69"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="60"/>
+      <c r="AL3" s="60"/>
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="60"/>
+      <c r="AO3" s="60"/>
+      <c r="AP3" s="60"/>
+      <c r="AQ3" s="60"/>
+      <c r="AR3" s="60"/>
+      <c r="AS3" s="60"/>
+      <c r="AT3" s="60"/>
+      <c r="AU3" s="60"/>
+      <c r="AV3" s="60"/>
+      <c r="AW3" s="60"/>
+      <c r="AX3" s="60"/>
+      <c r="AY3" s="60"/>
+      <c r="AZ3" s="60"/>
+      <c r="BA3" s="60"/>
+      <c r="BB3" s="60"/>
       <c r="BC3" s="1"/>
     </row>
     <row r="4" spans="1:55" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="69"/>
-      <c r="AA4" s="69"/>
-      <c r="AB4" s="69"/>
-      <c r="AC4" s="69"/>
-      <c r="AD4" s="69"/>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="69"/>
-      <c r="AG4" s="69"/>
-      <c r="AH4" s="69"/>
-      <c r="AI4" s="69"/>
-      <c r="AJ4" s="69"/>
-      <c r="AK4" s="69"/>
-      <c r="AL4" s="69"/>
-      <c r="AM4" s="69"/>
-      <c r="AN4" s="69"/>
-      <c r="AO4" s="69"/>
-      <c r="AP4" s="69"/>
-      <c r="AQ4" s="69"/>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="69"/>
-      <c r="AV4" s="69"/>
-      <c r="AW4" s="69"/>
-      <c r="AX4" s="69"/>
-      <c r="AY4" s="69"/>
-      <c r="AZ4" s="69"/>
-      <c r="BA4" s="69"/>
-      <c r="BB4" s="69"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="60"/>
+      <c r="AL4" s="60"/>
+      <c r="AM4" s="60"/>
+      <c r="AN4" s="60"/>
+      <c r="AO4" s="60"/>
+      <c r="AP4" s="60"/>
+      <c r="AQ4" s="60"/>
+      <c r="AR4" s="60"/>
+      <c r="AS4" s="60"/>
+      <c r="AT4" s="60"/>
+      <c r="AU4" s="60"/>
+      <c r="AV4" s="60"/>
+      <c r="AW4" s="60"/>
+      <c r="AX4" s="60"/>
+      <c r="AY4" s="60"/>
+      <c r="AZ4" s="60"/>
+      <c r="BA4" s="60"/>
+      <c r="BB4" s="60"/>
       <c r="BC4" s="1"/>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
-      <c r="X5" s="69"/>
-      <c r="Y5" s="69"/>
-      <c r="Z5" s="69"/>
-      <c r="AA5" s="69"/>
-      <c r="AB5" s="69"/>
-      <c r="AC5" s="69"/>
-      <c r="AD5" s="69"/>
-      <c r="AE5" s="69"/>
-      <c r="AF5" s="69"/>
-      <c r="AG5" s="69"/>
-      <c r="AH5" s="69"/>
-      <c r="AI5" s="69"/>
-      <c r="AJ5" s="69"/>
-      <c r="AK5" s="69"/>
-      <c r="AL5" s="69"/>
-      <c r="AM5" s="69"/>
-      <c r="AN5" s="69"/>
-      <c r="AO5" s="69"/>
-      <c r="AP5" s="69"/>
-      <c r="AQ5" s="69"/>
-      <c r="AR5" s="69"/>
-      <c r="AS5" s="69"/>
-      <c r="AT5" s="69"/>
-      <c r="AU5" s="69"/>
-      <c r="AV5" s="69"/>
-      <c r="AW5" s="69"/>
-      <c r="AX5" s="69"/>
-      <c r="AY5" s="69"/>
-      <c r="AZ5" s="69"/>
-      <c r="BA5" s="69"/>
-      <c r="BB5" s="69"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
+      <c r="W5" s="60"/>
+      <c r="X5" s="60"/>
+      <c r="Y5" s="60"/>
+      <c r="Z5" s="60"/>
+      <c r="AA5" s="60"/>
+      <c r="AB5" s="60"/>
+      <c r="AC5" s="60"/>
+      <c r="AD5" s="60"/>
+      <c r="AE5" s="60"/>
+      <c r="AF5" s="60"/>
+      <c r="AG5" s="60"/>
+      <c r="AH5" s="60"/>
+      <c r="AI5" s="60"/>
+      <c r="AJ5" s="60"/>
+      <c r="AK5" s="60"/>
+      <c r="AL5" s="60"/>
+      <c r="AM5" s="60"/>
+      <c r="AN5" s="60"/>
+      <c r="AO5" s="60"/>
+      <c r="AP5" s="60"/>
+      <c r="AQ5" s="60"/>
+      <c r="AR5" s="60"/>
+      <c r="AS5" s="60"/>
+      <c r="AT5" s="60"/>
+      <c r="AU5" s="60"/>
+      <c r="AV5" s="60"/>
+      <c r="AW5" s="60"/>
+      <c r="AX5" s="60"/>
+      <c r="AY5" s="60"/>
+      <c r="AZ5" s="60"/>
+      <c r="BA5" s="60"/>
+      <c r="BB5" s="60"/>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="69"/>
-      <c r="AA6" s="69"/>
-      <c r="AB6" s="69"/>
-      <c r="AC6" s="69"/>
-      <c r="AD6" s="69"/>
-      <c r="AE6" s="69"/>
-      <c r="AF6" s="69"/>
-      <c r="AG6" s="69"/>
-      <c r="AH6" s="69"/>
-      <c r="AI6" s="69"/>
-      <c r="AJ6" s="69"/>
-      <c r="AK6" s="69"/>
-      <c r="AL6" s="69"/>
-      <c r="AM6" s="69"/>
-      <c r="AN6" s="69"/>
-      <c r="AO6" s="69"/>
-      <c r="AP6" s="69"/>
-      <c r="AQ6" s="69"/>
-      <c r="AR6" s="69"/>
-      <c r="AS6" s="69"/>
-      <c r="AT6" s="69"/>
-      <c r="AU6" s="69"/>
-      <c r="AV6" s="69"/>
-      <c r="AW6" s="69"/>
-      <c r="AX6" s="69"/>
-      <c r="AY6" s="69"/>
-      <c r="AZ6" s="69"/>
-      <c r="BA6" s="69"/>
-      <c r="BB6" s="69"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="60"/>
+      <c r="AB6" s="60"/>
+      <c r="AC6" s="60"/>
+      <c r="AD6" s="60"/>
+      <c r="AE6" s="60"/>
+      <c r="AF6" s="60"/>
+      <c r="AG6" s="60"/>
+      <c r="AH6" s="60"/>
+      <c r="AI6" s="60"/>
+      <c r="AJ6" s="60"/>
+      <c r="AK6" s="60"/>
+      <c r="AL6" s="60"/>
+      <c r="AM6" s="60"/>
+      <c r="AN6" s="60"/>
+      <c r="AO6" s="60"/>
+      <c r="AP6" s="60"/>
+      <c r="AQ6" s="60"/>
+      <c r="AR6" s="60"/>
+      <c r="AS6" s="60"/>
+      <c r="AT6" s="60"/>
+      <c r="AU6" s="60"/>
+      <c r="AV6" s="60"/>
+      <c r="AW6" s="60"/>
+      <c r="AX6" s="60"/>
+      <c r="AY6" s="60"/>
+      <c r="AZ6" s="60"/>
+      <c r="BA6" s="60"/>
+      <c r="BB6" s="60"/>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
-      <c r="S7" s="69"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="69"/>
-      <c r="V7" s="69"/>
-      <c r="W7" s="69"/>
-      <c r="X7" s="69"/>
-      <c r="Y7" s="69"/>
-      <c r="Z7" s="69"/>
-      <c r="AA7" s="69"/>
-      <c r="AB7" s="69"/>
-      <c r="AC7" s="69"/>
-      <c r="AD7" s="69"/>
-      <c r="AE7" s="69"/>
-      <c r="AF7" s="69"/>
-      <c r="AG7" s="69"/>
-      <c r="AH7" s="69"/>
-      <c r="AI7" s="69"/>
-      <c r="AJ7" s="69"/>
-      <c r="AK7" s="69"/>
-      <c r="AL7" s="69"/>
-      <c r="AM7" s="69"/>
-      <c r="AN7" s="69"/>
-      <c r="AO7" s="69"/>
-      <c r="AP7" s="69"/>
-      <c r="AQ7" s="69"/>
-      <c r="AR7" s="69"/>
-      <c r="AS7" s="69"/>
-      <c r="AT7" s="69"/>
-      <c r="AU7" s="69"/>
-      <c r="AV7" s="69"/>
-      <c r="AW7" s="69"/>
-      <c r="AX7" s="69"/>
-      <c r="AY7" s="69"/>
-      <c r="AZ7" s="69"/>
-      <c r="BA7" s="69"/>
-      <c r="BB7" s="69"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="60"/>
+      <c r="W7" s="60"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="60"/>
+      <c r="AB7" s="60"/>
+      <c r="AC7" s="60"/>
+      <c r="AD7" s="60"/>
+      <c r="AE7" s="60"/>
+      <c r="AF7" s="60"/>
+      <c r="AG7" s="60"/>
+      <c r="AH7" s="60"/>
+      <c r="AI7" s="60"/>
+      <c r="AJ7" s="60"/>
+      <c r="AK7" s="60"/>
+      <c r="AL7" s="60"/>
+      <c r="AM7" s="60"/>
+      <c r="AN7" s="60"/>
+      <c r="AO7" s="60"/>
+      <c r="AP7" s="60"/>
+      <c r="AQ7" s="60"/>
+      <c r="AR7" s="60"/>
+      <c r="AS7" s="60"/>
+      <c r="AT7" s="60"/>
+      <c r="AU7" s="60"/>
+      <c r="AV7" s="60"/>
+      <c r="AW7" s="60"/>
+      <c r="AX7" s="60"/>
+      <c r="AY7" s="60"/>
+      <c r="AZ7" s="60"/>
+      <c r="BA7" s="60"/>
+      <c r="BB7" s="60"/>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="69"/>
-      <c r="S8" s="69"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="69"/>
-      <c r="V8" s="69"/>
-      <c r="W8" s="69"/>
-      <c r="X8" s="69"/>
-      <c r="Y8" s="69"/>
-      <c r="Z8" s="69"/>
-      <c r="AA8" s="69"/>
-      <c r="AB8" s="69"/>
-      <c r="AC8" s="69"/>
-      <c r="AD8" s="69"/>
-      <c r="AE8" s="69"/>
-      <c r="AF8" s="69"/>
-      <c r="AG8" s="69"/>
-      <c r="AH8" s="69"/>
-      <c r="AI8" s="69"/>
-      <c r="AJ8" s="69"/>
-      <c r="AK8" s="69"/>
-      <c r="AL8" s="69"/>
-      <c r="AM8" s="69"/>
-      <c r="AN8" s="69"/>
-      <c r="AO8" s="69"/>
-      <c r="AP8" s="69"/>
-      <c r="AQ8" s="69"/>
-      <c r="AR8" s="69"/>
-      <c r="AS8" s="69"/>
-      <c r="AT8" s="69"/>
-      <c r="AU8" s="69"/>
-      <c r="AV8" s="69"/>
-      <c r="AW8" s="69"/>
-      <c r="AX8" s="69"/>
-      <c r="AY8" s="69"/>
-      <c r="AZ8" s="69"/>
-      <c r="BA8" s="69"/>
-      <c r="BB8" s="69"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="60"/>
+      <c r="V8" s="60"/>
+      <c r="W8" s="60"/>
+      <c r="X8" s="60"/>
+      <c r="Y8" s="60"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="60"/>
+      <c r="AB8" s="60"/>
+      <c r="AC8" s="60"/>
+      <c r="AD8" s="60"/>
+      <c r="AE8" s="60"/>
+      <c r="AF8" s="60"/>
+      <c r="AG8" s="60"/>
+      <c r="AH8" s="60"/>
+      <c r="AI8" s="60"/>
+      <c r="AJ8" s="60"/>
+      <c r="AK8" s="60"/>
+      <c r="AL8" s="60"/>
+      <c r="AM8" s="60"/>
+      <c r="AN8" s="60"/>
+      <c r="AO8" s="60"/>
+      <c r="AP8" s="60"/>
+      <c r="AQ8" s="60"/>
+      <c r="AR8" s="60"/>
+      <c r="AS8" s="60"/>
+      <c r="AT8" s="60"/>
+      <c r="AU8" s="60"/>
+      <c r="AV8" s="60"/>
+      <c r="AW8" s="60"/>
+      <c r="AX8" s="60"/>
+      <c r="AY8" s="60"/>
+      <c r="AZ8" s="60"/>
+      <c r="BA8" s="60"/>
+      <c r="BB8" s="60"/>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="69"/>
-      <c r="W9" s="69"/>
-      <c r="X9" s="69"/>
-      <c r="Y9" s="69"/>
-      <c r="Z9" s="69"/>
-      <c r="AA9" s="69"/>
-      <c r="AB9" s="69"/>
-      <c r="AC9" s="69"/>
-      <c r="AD9" s="69"/>
-      <c r="AE9" s="69"/>
-      <c r="AF9" s="69"/>
-      <c r="AG9" s="69"/>
-      <c r="AH9" s="69"/>
-      <c r="AI9" s="69"/>
-      <c r="AJ9" s="69"/>
-      <c r="AK9" s="69"/>
-      <c r="AL9" s="69"/>
-      <c r="AM9" s="69"/>
-      <c r="AN9" s="69"/>
-      <c r="AO9" s="69"/>
-      <c r="AP9" s="69"/>
-      <c r="AQ9" s="69"/>
-      <c r="AR9" s="69"/>
-      <c r="AS9" s="69"/>
-      <c r="AT9" s="69"/>
-      <c r="AU9" s="69"/>
-      <c r="AV9" s="69"/>
-      <c r="AW9" s="69"/>
-      <c r="AX9" s="69"/>
-      <c r="AY9" s="69"/>
-      <c r="AZ9" s="69"/>
-      <c r="BA9" s="69"/>
-      <c r="BB9" s="69"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="60"/>
+      <c r="AB9" s="60"/>
+      <c r="AC9" s="60"/>
+      <c r="AD9" s="60"/>
+      <c r="AE9" s="60"/>
+      <c r="AF9" s="60"/>
+      <c r="AG9" s="60"/>
+      <c r="AH9" s="60"/>
+      <c r="AI9" s="60"/>
+      <c r="AJ9" s="60"/>
+      <c r="AK9" s="60"/>
+      <c r="AL9" s="60"/>
+      <c r="AM9" s="60"/>
+      <c r="AN9" s="60"/>
+      <c r="AO9" s="60"/>
+      <c r="AP9" s="60"/>
+      <c r="AQ9" s="60"/>
+      <c r="AR9" s="60"/>
+      <c r="AS9" s="60"/>
+      <c r="AT9" s="60"/>
+      <c r="AU9" s="60"/>
+      <c r="AV9" s="60"/>
+      <c r="AW9" s="60"/>
+      <c r="AX9" s="60"/>
+      <c r="AY9" s="60"/>
+      <c r="AZ9" s="60"/>
+      <c r="BA9" s="60"/>
+      <c r="BB9" s="60"/>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="69"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="69"/>
-      <c r="X10" s="69"/>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="69"/>
-      <c r="AA10" s="69"/>
-      <c r="AB10" s="69"/>
-      <c r="AC10" s="69"/>
-      <c r="AD10" s="69"/>
-      <c r="AE10" s="69"/>
-      <c r="AF10" s="69"/>
-      <c r="AG10" s="69"/>
-      <c r="AH10" s="69"/>
-      <c r="AI10" s="69"/>
-      <c r="AJ10" s="69"/>
-      <c r="AK10" s="69"/>
-      <c r="AL10" s="69"/>
-      <c r="AM10" s="69"/>
-      <c r="AN10" s="69"/>
-      <c r="AO10" s="69"/>
-      <c r="AP10" s="69"/>
-      <c r="AQ10" s="69"/>
-      <c r="AR10" s="69"/>
-      <c r="AS10" s="69"/>
-      <c r="AT10" s="69"/>
-      <c r="AU10" s="69"/>
-      <c r="AV10" s="69"/>
-      <c r="AW10" s="69"/>
-      <c r="AX10" s="69"/>
-      <c r="AY10" s="69"/>
-      <c r="AZ10" s="69"/>
-      <c r="BA10" s="69"/>
-      <c r="BB10" s="69"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="60"/>
+      <c r="X10" s="60"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="60"/>
+      <c r="AB10" s="60"/>
+      <c r="AC10" s="60"/>
+      <c r="AD10" s="60"/>
+      <c r="AE10" s="60"/>
+      <c r="AF10" s="60"/>
+      <c r="AG10" s="60"/>
+      <c r="AH10" s="60"/>
+      <c r="AI10" s="60"/>
+      <c r="AJ10" s="60"/>
+      <c r="AK10" s="60"/>
+      <c r="AL10" s="60"/>
+      <c r="AM10" s="60"/>
+      <c r="AN10" s="60"/>
+      <c r="AO10" s="60"/>
+      <c r="AP10" s="60"/>
+      <c r="AQ10" s="60"/>
+      <c r="AR10" s="60"/>
+      <c r="AS10" s="60"/>
+      <c r="AT10" s="60"/>
+      <c r="AU10" s="60"/>
+      <c r="AV10" s="60"/>
+      <c r="AW10" s="60"/>
+      <c r="AX10" s="60"/>
+      <c r="AY10" s="60"/>
+      <c r="AZ10" s="60"/>
+      <c r="BA10" s="60"/>
+      <c r="BB10" s="60"/>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="69"/>
-      <c r="R11" s="69"/>
-      <c r="S11" s="69"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="69"/>
-      <c r="V11" s="69"/>
-      <c r="W11" s="69"/>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="69"/>
-      <c r="Z11" s="69"/>
-      <c r="AA11" s="69"/>
-      <c r="AB11" s="69"/>
-      <c r="AC11" s="69"/>
-      <c r="AD11" s="69"/>
-      <c r="AE11" s="69"/>
-      <c r="AF11" s="69"/>
-      <c r="AG11" s="69"/>
-      <c r="AH11" s="69"/>
-      <c r="AI11" s="69"/>
-      <c r="AJ11" s="69"/>
-      <c r="AK11" s="69"/>
-      <c r="AL11" s="69"/>
-      <c r="AM11" s="69"/>
-      <c r="AN11" s="69"/>
-      <c r="AO11" s="69"/>
-      <c r="AP11" s="69"/>
-      <c r="AQ11" s="69"/>
-      <c r="AR11" s="69"/>
-      <c r="AS11" s="69"/>
-      <c r="AT11" s="69"/>
-      <c r="AU11" s="69"/>
-      <c r="AV11" s="69"/>
-      <c r="AW11" s="69"/>
-      <c r="AX11" s="69"/>
-      <c r="AY11" s="69"/>
-      <c r="AZ11" s="69"/>
-      <c r="BA11" s="69"/>
-      <c r="BB11" s="69"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="60"/>
+      <c r="V11" s="60"/>
+      <c r="W11" s="60"/>
+      <c r="X11" s="60"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="60"/>
+      <c r="AA11" s="60"/>
+      <c r="AB11" s="60"/>
+      <c r="AC11" s="60"/>
+      <c r="AD11" s="60"/>
+      <c r="AE11" s="60"/>
+      <c r="AF11" s="60"/>
+      <c r="AG11" s="60"/>
+      <c r="AH11" s="60"/>
+      <c r="AI11" s="60"/>
+      <c r="AJ11" s="60"/>
+      <c r="AK11" s="60"/>
+      <c r="AL11" s="60"/>
+      <c r="AM11" s="60"/>
+      <c r="AN11" s="60"/>
+      <c r="AO11" s="60"/>
+      <c r="AP11" s="60"/>
+      <c r="AQ11" s="60"/>
+      <c r="AR11" s="60"/>
+      <c r="AS11" s="60"/>
+      <c r="AT11" s="60"/>
+      <c r="AU11" s="60"/>
+      <c r="AV11" s="60"/>
+      <c r="AW11" s="60"/>
+      <c r="AX11" s="60"/>
+      <c r="AY11" s="60"/>
+      <c r="AZ11" s="60"/>
+      <c r="BA11" s="60"/>
+      <c r="BB11" s="60"/>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="69"/>
-      <c r="S12" s="69"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="69"/>
-      <c r="V12" s="69"/>
-      <c r="W12" s="69"/>
-      <c r="X12" s="69"/>
-      <c r="Y12" s="69"/>
-      <c r="Z12" s="69"/>
-      <c r="AA12" s="69"/>
-      <c r="AB12" s="69"/>
-      <c r="AC12" s="69"/>
-      <c r="AD12" s="69"/>
-      <c r="AE12" s="69"/>
-      <c r="AF12" s="69"/>
-      <c r="AG12" s="69"/>
-      <c r="AH12" s="69"/>
-      <c r="AI12" s="69"/>
-      <c r="AJ12" s="69"/>
-      <c r="AK12" s="69"/>
-      <c r="AL12" s="69"/>
-      <c r="AM12" s="69"/>
-      <c r="AN12" s="69"/>
-      <c r="AO12" s="69"/>
-      <c r="AP12" s="69"/>
-      <c r="AQ12" s="69"/>
-      <c r="AR12" s="69"/>
-      <c r="AS12" s="69"/>
-      <c r="AT12" s="69"/>
-      <c r="AU12" s="69"/>
-      <c r="AV12" s="69"/>
-      <c r="AW12" s="69"/>
-      <c r="AX12" s="69"/>
-      <c r="AY12" s="69"/>
-      <c r="AZ12" s="69"/>
-      <c r="BA12" s="69"/>
-      <c r="BB12" s="69"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="60"/>
+      <c r="W12" s="60"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="60"/>
+      <c r="AB12" s="60"/>
+      <c r="AC12" s="60"/>
+      <c r="AD12" s="60"/>
+      <c r="AE12" s="60"/>
+      <c r="AF12" s="60"/>
+      <c r="AG12" s="60"/>
+      <c r="AH12" s="60"/>
+      <c r="AI12" s="60"/>
+      <c r="AJ12" s="60"/>
+      <c r="AK12" s="60"/>
+      <c r="AL12" s="60"/>
+      <c r="AM12" s="60"/>
+      <c r="AN12" s="60"/>
+      <c r="AO12" s="60"/>
+      <c r="AP12" s="60"/>
+      <c r="AQ12" s="60"/>
+      <c r="AR12" s="60"/>
+      <c r="AS12" s="60"/>
+      <c r="AT12" s="60"/>
+      <c r="AU12" s="60"/>
+      <c r="AV12" s="60"/>
+      <c r="AW12" s="60"/>
+      <c r="AX12" s="60"/>
+      <c r="AY12" s="60"/>
+      <c r="AZ12" s="60"/>
+      <c r="BA12" s="60"/>
+      <c r="BB12" s="60"/>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="69"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
-      <c r="W13" s="69"/>
-      <c r="X13" s="69"/>
-      <c r="Y13" s="69"/>
-      <c r="Z13" s="69"/>
-      <c r="AA13" s="69"/>
-      <c r="AB13" s="69"/>
-      <c r="AC13" s="69"/>
-      <c r="AD13" s="69"/>
-      <c r="AE13" s="69"/>
-      <c r="AF13" s="69"/>
-      <c r="AG13" s="69"/>
-      <c r="AH13" s="69"/>
-      <c r="AI13" s="69"/>
-      <c r="AJ13" s="69"/>
-      <c r="AK13" s="69"/>
-      <c r="AL13" s="69"/>
-      <c r="AM13" s="69"/>
-      <c r="AN13" s="69"/>
-      <c r="AO13" s="69"/>
-      <c r="AP13" s="69"/>
-      <c r="AQ13" s="69"/>
-      <c r="AR13" s="69"/>
-      <c r="AS13" s="69"/>
-      <c r="AT13" s="69"/>
-      <c r="AU13" s="69"/>
-      <c r="AV13" s="69"/>
-      <c r="AW13" s="69"/>
-      <c r="AX13" s="69"/>
-      <c r="AY13" s="69"/>
-      <c r="AZ13" s="69"/>
-      <c r="BA13" s="69"/>
-      <c r="BB13" s="69"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="60"/>
+      <c r="W13" s="60"/>
+      <c r="X13" s="60"/>
+      <c r="Y13" s="60"/>
+      <c r="Z13" s="60"/>
+      <c r="AA13" s="60"/>
+      <c r="AB13" s="60"/>
+      <c r="AC13" s="60"/>
+      <c r="AD13" s="60"/>
+      <c r="AE13" s="60"/>
+      <c r="AF13" s="60"/>
+      <c r="AG13" s="60"/>
+      <c r="AH13" s="60"/>
+      <c r="AI13" s="60"/>
+      <c r="AJ13" s="60"/>
+      <c r="AK13" s="60"/>
+      <c r="AL13" s="60"/>
+      <c r="AM13" s="60"/>
+      <c r="AN13" s="60"/>
+      <c r="AO13" s="60"/>
+      <c r="AP13" s="60"/>
+      <c r="AQ13" s="60"/>
+      <c r="AR13" s="60"/>
+      <c r="AS13" s="60"/>
+      <c r="AT13" s="60"/>
+      <c r="AU13" s="60"/>
+      <c r="AV13" s="60"/>
+      <c r="AW13" s="60"/>
+      <c r="AX13" s="60"/>
+      <c r="AY13" s="60"/>
+      <c r="AZ13" s="60"/>
+      <c r="BA13" s="60"/>
+      <c r="BB13" s="60"/>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="69"/>
-      <c r="R14" s="69"/>
-      <c r="S14" s="69"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="69"/>
-      <c r="V14" s="69"/>
-      <c r="W14" s="69"/>
-      <c r="X14" s="69"/>
-      <c r="Y14" s="69"/>
-      <c r="Z14" s="69"/>
-      <c r="AA14" s="69"/>
-      <c r="AB14" s="69"/>
-      <c r="AC14" s="69"/>
-      <c r="AD14" s="69"/>
-      <c r="AE14" s="69"/>
-      <c r="AF14" s="69"/>
-      <c r="AG14" s="69"/>
-      <c r="AH14" s="69"/>
-      <c r="AI14" s="69"/>
-      <c r="AJ14" s="69"/>
-      <c r="AK14" s="69"/>
-      <c r="AL14" s="69"/>
-      <c r="AM14" s="69"/>
-      <c r="AN14" s="69"/>
-      <c r="AO14" s="69"/>
-      <c r="AP14" s="69"/>
-      <c r="AQ14" s="69"/>
-      <c r="AR14" s="69"/>
-      <c r="AS14" s="69"/>
-      <c r="AT14" s="69"/>
-      <c r="AU14" s="69"/>
-      <c r="AV14" s="69"/>
-      <c r="AW14" s="69"/>
-      <c r="AX14" s="69"/>
-      <c r="AY14" s="69"/>
-      <c r="AZ14" s="69"/>
-      <c r="BA14" s="69"/>
-      <c r="BB14" s="69"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="60"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="60"/>
+      <c r="V14" s="60"/>
+      <c r="W14" s="60"/>
+      <c r="X14" s="60"/>
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="60"/>
+      <c r="AB14" s="60"/>
+      <c r="AC14" s="60"/>
+      <c r="AD14" s="60"/>
+      <c r="AE14" s="60"/>
+      <c r="AF14" s="60"/>
+      <c r="AG14" s="60"/>
+      <c r="AH14" s="60"/>
+      <c r="AI14" s="60"/>
+      <c r="AJ14" s="60"/>
+      <c r="AK14" s="60"/>
+      <c r="AL14" s="60"/>
+      <c r="AM14" s="60"/>
+      <c r="AN14" s="60"/>
+      <c r="AO14" s="60"/>
+      <c r="AP14" s="60"/>
+      <c r="AQ14" s="60"/>
+      <c r="AR14" s="60"/>
+      <c r="AS14" s="60"/>
+      <c r="AT14" s="60"/>
+      <c r="AU14" s="60"/>
+      <c r="AV14" s="60"/>
+      <c r="AW14" s="60"/>
+      <c r="AX14" s="60"/>
+      <c r="AY14" s="60"/>
+      <c r="AZ14" s="60"/>
+      <c r="BA14" s="60"/>
+      <c r="BB14" s="60"/>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="69"/>
-      <c r="R15" s="69"/>
-      <c r="S15" s="69"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="69"/>
-      <c r="V15" s="69"/>
-      <c r="W15" s="69"/>
-      <c r="X15" s="69"/>
-      <c r="Y15" s="69"/>
-      <c r="Z15" s="69"/>
-      <c r="AA15" s="69"/>
-      <c r="AB15" s="69"/>
-      <c r="AC15" s="69"/>
-      <c r="AD15" s="69"/>
-      <c r="AE15" s="69"/>
-      <c r="AF15" s="69"/>
-      <c r="AG15" s="69"/>
-      <c r="AH15" s="69"/>
-      <c r="AI15" s="69"/>
-      <c r="AJ15" s="69"/>
-      <c r="AK15" s="69"/>
-      <c r="AL15" s="69"/>
-      <c r="AM15" s="69"/>
-      <c r="AN15" s="69"/>
-      <c r="AO15" s="69"/>
-      <c r="AP15" s="69"/>
-      <c r="AQ15" s="69"/>
-      <c r="AR15" s="69"/>
-      <c r="AS15" s="69"/>
-      <c r="AT15" s="69"/>
-      <c r="AU15" s="69"/>
-      <c r="AV15" s="69"/>
-      <c r="AW15" s="69"/>
-      <c r="AX15" s="69"/>
-      <c r="AY15" s="69"/>
-      <c r="AZ15" s="69"/>
-      <c r="BA15" s="69"/>
-      <c r="BB15" s="69"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="60"/>
+      <c r="U15" s="60"/>
+      <c r="V15" s="60"/>
+      <c r="W15" s="60"/>
+      <c r="X15" s="60"/>
+      <c r="Y15" s="60"/>
+      <c r="Z15" s="60"/>
+      <c r="AA15" s="60"/>
+      <c r="AB15" s="60"/>
+      <c r="AC15" s="60"/>
+      <c r="AD15" s="60"/>
+      <c r="AE15" s="60"/>
+      <c r="AF15" s="60"/>
+      <c r="AG15" s="60"/>
+      <c r="AH15" s="60"/>
+      <c r="AI15" s="60"/>
+      <c r="AJ15" s="60"/>
+      <c r="AK15" s="60"/>
+      <c r="AL15" s="60"/>
+      <c r="AM15" s="60"/>
+      <c r="AN15" s="60"/>
+      <c r="AO15" s="60"/>
+      <c r="AP15" s="60"/>
+      <c r="AQ15" s="60"/>
+      <c r="AR15" s="60"/>
+      <c r="AS15" s="60"/>
+      <c r="AT15" s="60"/>
+      <c r="AU15" s="60"/>
+      <c r="AV15" s="60"/>
+      <c r="AW15" s="60"/>
+      <c r="AX15" s="60"/>
+      <c r="AY15" s="60"/>
+      <c r="AZ15" s="60"/>
+      <c r="BA15" s="60"/>
+      <c r="BB15" s="60"/>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="69"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="69"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="69"/>
-      <c r="Z16" s="69"/>
-      <c r="AA16" s="69"/>
-      <c r="AB16" s="69"/>
-      <c r="AC16" s="69"/>
-      <c r="AD16" s="69"/>
-      <c r="AE16" s="69"/>
-      <c r="AF16" s="69"/>
-      <c r="AG16" s="69"/>
-      <c r="AH16" s="69"/>
-      <c r="AI16" s="69"/>
-      <c r="AJ16" s="69"/>
-      <c r="AK16" s="69"/>
-      <c r="AL16" s="69"/>
-      <c r="AM16" s="69"/>
-      <c r="AN16" s="69"/>
-      <c r="AO16" s="69"/>
-      <c r="AP16" s="69"/>
-      <c r="AQ16" s="69"/>
-      <c r="AR16" s="69"/>
-      <c r="AS16" s="69"/>
-      <c r="AT16" s="69"/>
-      <c r="AU16" s="69"/>
-      <c r="AV16" s="69"/>
-      <c r="AW16" s="69"/>
-      <c r="AX16" s="69"/>
-      <c r="AY16" s="69"/>
-      <c r="AZ16" s="69"/>
-      <c r="BA16" s="69"/>
-      <c r="BB16" s="69"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="60"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="60"/>
+      <c r="V16" s="60"/>
+      <c r="W16" s="60"/>
+      <c r="X16" s="60"/>
+      <c r="Y16" s="60"/>
+      <c r="Z16" s="60"/>
+      <c r="AA16" s="60"/>
+      <c r="AB16" s="60"/>
+      <c r="AC16" s="60"/>
+      <c r="AD16" s="60"/>
+      <c r="AE16" s="60"/>
+      <c r="AF16" s="60"/>
+      <c r="AG16" s="60"/>
+      <c r="AH16" s="60"/>
+      <c r="AI16" s="60"/>
+      <c r="AJ16" s="60"/>
+      <c r="AK16" s="60"/>
+      <c r="AL16" s="60"/>
+      <c r="AM16" s="60"/>
+      <c r="AN16" s="60"/>
+      <c r="AO16" s="60"/>
+      <c r="AP16" s="60"/>
+      <c r="AQ16" s="60"/>
+      <c r="AR16" s="60"/>
+      <c r="AS16" s="60"/>
+      <c r="AT16" s="60"/>
+      <c r="AU16" s="60"/>
+      <c r="AV16" s="60"/>
+      <c r="AW16" s="60"/>
+      <c r="AX16" s="60"/>
+      <c r="AY16" s="60"/>
+      <c r="AZ16" s="60"/>
+      <c r="BA16" s="60"/>
+      <c r="BB16" s="60"/>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
@@ -7215,47 +7063,47 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="69"/>
-      <c r="R17" s="69"/>
-      <c r="S17" s="69"/>
-      <c r="T17" s="69"/>
-      <c r="U17" s="69"/>
-      <c r="V17" s="69"/>
-      <c r="W17" s="69"/>
-      <c r="X17" s="69"/>
-      <c r="Y17" s="69"/>
-      <c r="Z17" s="69"/>
-      <c r="AA17" s="69"/>
-      <c r="AB17" s="69"/>
-      <c r="AC17" s="69"/>
-      <c r="AD17" s="69"/>
-      <c r="AE17" s="69"/>
-      <c r="AF17" s="69"/>
-      <c r="AG17" s="69"/>
-      <c r="AH17" s="69"/>
-      <c r="AI17" s="69"/>
-      <c r="AJ17" s="69"/>
-      <c r="AK17" s="69"/>
-      <c r="AL17" s="69"/>
-      <c r="AM17" s="69"/>
-      <c r="AN17" s="69"/>
-      <c r="AO17" s="69"/>
-      <c r="AP17" s="69"/>
-      <c r="AQ17" s="69"/>
-      <c r="AR17" s="69"/>
-      <c r="AS17" s="69"/>
-      <c r="AT17" s="69"/>
-      <c r="AU17" s="69"/>
-      <c r="AV17" s="69"/>
-      <c r="AW17" s="69"/>
-      <c r="AX17" s="69"/>
-      <c r="AY17" s="69"/>
-      <c r="AZ17" s="69"/>
-      <c r="BA17" s="69"/>
-      <c r="BB17" s="69"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="60"/>
+      <c r="U17" s="60"/>
+      <c r="V17" s="60"/>
+      <c r="W17" s="60"/>
+      <c r="X17" s="60"/>
+      <c r="Y17" s="60"/>
+      <c r="Z17" s="60"/>
+      <c r="AA17" s="60"/>
+      <c r="AB17" s="60"/>
+      <c r="AC17" s="60"/>
+      <c r="AD17" s="60"/>
+      <c r="AE17" s="60"/>
+      <c r="AF17" s="60"/>
+      <c r="AG17" s="60"/>
+      <c r="AH17" s="60"/>
+      <c r="AI17" s="60"/>
+      <c r="AJ17" s="60"/>
+      <c r="AK17" s="60"/>
+      <c r="AL17" s="60"/>
+      <c r="AM17" s="60"/>
+      <c r="AN17" s="60"/>
+      <c r="AO17" s="60"/>
+      <c r="AP17" s="60"/>
+      <c r="AQ17" s="60"/>
+      <c r="AR17" s="60"/>
+      <c r="AS17" s="60"/>
+      <c r="AT17" s="60"/>
+      <c r="AU17" s="60"/>
+      <c r="AV17" s="60"/>
+      <c r="AW17" s="60"/>
+      <c r="AX17" s="60"/>
+      <c r="AY17" s="60"/>
+      <c r="AZ17" s="60"/>
+      <c r="BA17" s="60"/>
+      <c r="BB17" s="60"/>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
@@ -7271,47 +7119,47 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="69"/>
-      <c r="X18" s="69"/>
-      <c r="Y18" s="69"/>
-      <c r="Z18" s="69"/>
-      <c r="AA18" s="69"/>
-      <c r="AB18" s="69"/>
-      <c r="AC18" s="69"/>
-      <c r="AD18" s="69"/>
-      <c r="AE18" s="69"/>
-      <c r="AF18" s="69"/>
-      <c r="AG18" s="69"/>
-      <c r="AH18" s="69"/>
-      <c r="AI18" s="69"/>
-      <c r="AJ18" s="69"/>
-      <c r="AK18" s="69"/>
-      <c r="AL18" s="69"/>
-      <c r="AM18" s="69"/>
-      <c r="AN18" s="69"/>
-      <c r="AO18" s="69"/>
-      <c r="AP18" s="69"/>
-      <c r="AQ18" s="69"/>
-      <c r="AR18" s="69"/>
-      <c r="AS18" s="69"/>
-      <c r="AT18" s="69"/>
-      <c r="AU18" s="69"/>
-      <c r="AV18" s="69"/>
-      <c r="AW18" s="69"/>
-      <c r="AX18" s="69"/>
-      <c r="AY18" s="69"/>
-      <c r="AZ18" s="69"/>
-      <c r="BA18" s="69"/>
-      <c r="BB18" s="69"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="60"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="60"/>
+      <c r="V18" s="60"/>
+      <c r="W18" s="60"/>
+      <c r="X18" s="60"/>
+      <c r="Y18" s="60"/>
+      <c r="Z18" s="60"/>
+      <c r="AA18" s="60"/>
+      <c r="AB18" s="60"/>
+      <c r="AC18" s="60"/>
+      <c r="AD18" s="60"/>
+      <c r="AE18" s="60"/>
+      <c r="AF18" s="60"/>
+      <c r="AG18" s="60"/>
+      <c r="AH18" s="60"/>
+      <c r="AI18" s="60"/>
+      <c r="AJ18" s="60"/>
+      <c r="AK18" s="60"/>
+      <c r="AL18" s="60"/>
+      <c r="AM18" s="60"/>
+      <c r="AN18" s="60"/>
+      <c r="AO18" s="60"/>
+      <c r="AP18" s="60"/>
+      <c r="AQ18" s="60"/>
+      <c r="AR18" s="60"/>
+      <c r="AS18" s="60"/>
+      <c r="AT18" s="60"/>
+      <c r="AU18" s="60"/>
+      <c r="AV18" s="60"/>
+      <c r="AW18" s="60"/>
+      <c r="AX18" s="60"/>
+      <c r="AY18" s="60"/>
+      <c r="AZ18" s="60"/>
+      <c r="BA18" s="60"/>
+      <c r="BB18" s="60"/>
     </row>
     <row r="19" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
@@ -7327,57 +7175,57 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="69"/>
-      <c r="Q19" s="69"/>
-      <c r="R19" s="69"/>
-      <c r="S19" s="69"/>
-      <c r="T19" s="69"/>
-      <c r="U19" s="69"/>
-      <c r="V19" s="69"/>
-      <c r="W19" s="69"/>
-      <c r="X19" s="69"/>
-      <c r="Y19" s="69"/>
-      <c r="Z19" s="69"/>
-      <c r="AA19" s="69"/>
-      <c r="AB19" s="69"/>
-      <c r="AC19" s="69"/>
-      <c r="AD19" s="69"/>
-      <c r="AE19" s="69"/>
-      <c r="AF19" s="69"/>
-      <c r="AG19" s="69"/>
-      <c r="AH19" s="69"/>
-      <c r="AI19" s="69"/>
-      <c r="AJ19" s="69"/>
-      <c r="AK19" s="69"/>
-      <c r="AL19" s="69"/>
-      <c r="AM19" s="69"/>
-      <c r="AN19" s="69"/>
-      <c r="AO19" s="69"/>
-      <c r="AP19" s="69"/>
-      <c r="AQ19" s="69"/>
-      <c r="AR19" s="69"/>
-      <c r="AS19" s="69"/>
-      <c r="AT19" s="69"/>
-      <c r="AU19" s="69"/>
-      <c r="AV19" s="69"/>
-      <c r="AW19" s="69"/>
-      <c r="AX19" s="69"/>
-      <c r="AY19" s="69"/>
-      <c r="AZ19" s="69"/>
-      <c r="BA19" s="69"/>
-      <c r="BB19" s="69"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="60"/>
+      <c r="V19" s="60"/>
+      <c r="W19" s="60"/>
+      <c r="X19" s="60"/>
+      <c r="Y19" s="60"/>
+      <c r="Z19" s="60"/>
+      <c r="AA19" s="60"/>
+      <c r="AB19" s="60"/>
+      <c r="AC19" s="60"/>
+      <c r="AD19" s="60"/>
+      <c r="AE19" s="60"/>
+      <c r="AF19" s="60"/>
+      <c r="AG19" s="60"/>
+      <c r="AH19" s="60"/>
+      <c r="AI19" s="60"/>
+      <c r="AJ19" s="60"/>
+      <c r="AK19" s="60"/>
+      <c r="AL19" s="60"/>
+      <c r="AM19" s="60"/>
+      <c r="AN19" s="60"/>
+      <c r="AO19" s="60"/>
+      <c r="AP19" s="60"/>
+      <c r="AQ19" s="60"/>
+      <c r="AR19" s="60"/>
+      <c r="AS19" s="60"/>
+      <c r="AT19" s="60"/>
+      <c r="AU19" s="60"/>
+      <c r="AV19" s="60"/>
+      <c r="AW19" s="60"/>
+      <c r="AX19" s="60"/>
+      <c r="AY19" s="60"/>
+      <c r="AZ19" s="60"/>
+      <c r="BA19" s="60"/>
+      <c r="BB19" s="60"/>
     </row>
     <row r="20" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="B20" s="40"/>
-      <c r="C20" s="41"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
     </row>
     <row r="22" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="B22" s="41"/>
+      <c r="B22" s="38"/>
     </row>
     <row r="23" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="B23" s="41"/>
+      <c r="B23" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7407,7 +7255,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -8050,12 +7898,12 @@
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -8074,50 +7922,50 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80"/>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80"/>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80"/>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
-      <c r="AW2" s="80"/>
-      <c r="AX2" s="80"/>
-      <c r="AY2" s="80"/>
-      <c r="AZ2" s="80"/>
-      <c r="BA2" s="80"/>
-      <c r="BB2" s="80"/>
-      <c r="BC2" s="80"/>
-      <c r="BD2" s="80"/>
-      <c r="BE2" s="80"/>
-      <c r="BF2" s="80"/>
-      <c r="BG2" s="80"/>
-      <c r="BH2" s="80"/>
-      <c r="BI2" s="80"/>
-      <c r="BJ2" s="80"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="67"/>
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="67"/>
+      <c r="AO2" s="67"/>
+      <c r="AP2" s="67"/>
+      <c r="AQ2" s="67"/>
+      <c r="AR2" s="67"/>
+      <c r="AS2" s="67"/>
+      <c r="AT2" s="67"/>
+      <c r="AU2" s="67"/>
+      <c r="AV2" s="67"/>
+      <c r="AW2" s="67"/>
+      <c r="AX2" s="67"/>
+      <c r="AY2" s="67"/>
+      <c r="AZ2" s="67"/>
+      <c r="BA2" s="67"/>
+      <c r="BB2" s="67"/>
+      <c r="BC2" s="67"/>
+      <c r="BD2" s="67"/>
+      <c r="BE2" s="67"/>
+      <c r="BF2" s="67"/>
+      <c r="BG2" s="67"/>
+      <c r="BH2" s="67"/>
+      <c r="BI2" s="67"/>
+      <c r="BJ2" s="67"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
@@ -9464,7 +9312,7 @@
       <c r="BJ23" s="5"/>
     </row>
     <row r="24" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A24" s="81"/>
+      <c r="A24" s="68"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -9528,7 +9376,7 @@
       <c r="BJ24" s="5"/>
     </row>
     <row r="25" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A25" s="81"/>
+      <c r="A25" s="68"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -9592,7 +9440,7 @@
       <c r="BJ25" s="5"/>
     </row>
     <row r="26" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A26" s="81"/>
+      <c r="A26" s="68"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -9656,7 +9504,7 @@
       <c r="BJ26" s="5"/>
     </row>
     <row r="27" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A27" s="81"/>
+      <c r="A27" s="68"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -9720,7 +9568,7 @@
       <c r="BJ27" s="5"/>
     </row>
     <row r="28" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A28" s="81"/>
+      <c r="A28" s="68"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -9784,7 +9632,7 @@
       <c r="BJ28" s="5"/>
     </row>
     <row r="29" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A29" s="81"/>
+      <c r="A29" s="68"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -9848,7 +9696,7 @@
       <c r="BJ29" s="5"/>
     </row>
     <row r="30" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A30" s="81"/>
+      <c r="A30" s="68"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -9912,7 +9760,7 @@
       <c r="BJ30" s="5"/>
     </row>
     <row r="31" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A31" s="81"/>
+      <c r="A31" s="68"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -9976,7 +9824,7 @@
       <c r="BJ31" s="5"/>
     </row>
     <row r="32" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A32" s="81"/>
+      <c r="A32" s="68"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -10040,7 +9888,7 @@
       <c r="BJ32" s="5"/>
     </row>
     <row r="33" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A33" s="81"/>
+      <c r="A33" s="68"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -10104,7 +9952,7 @@
       <c r="BJ33" s="5"/>
     </row>
     <row r="34" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A34" s="81"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -10168,7 +10016,7 @@
       <c r="BJ34" s="5"/>
     </row>
     <row r="35" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A35" s="81"/>
+      <c r="A35" s="68"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -10232,7 +10080,7 @@
       <c r="BJ35" s="5"/>
     </row>
     <row r="36" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A36" s="81"/>
+      <c r="A36" s="68"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -10296,7 +10144,7 @@
       <c r="BJ36" s="5"/>
     </row>
     <row r="37" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A37" s="81"/>
+      <c r="A37" s="68"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -10360,7 +10208,7 @@
       <c r="BJ37" s="5"/>
     </row>
     <row r="38" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A38" s="81"/>
+      <c r="A38" s="68"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -10424,7 +10272,7 @@
       <c r="BJ38" s="5"/>
     </row>
     <row r="39" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A39" s="81"/>
+      <c r="A39" s="68"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -10488,7 +10336,7 @@
       <c r="BJ39" s="5"/>
     </row>
     <row r="40" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A40" s="81"/>
+      <c r="A40" s="68"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -10552,7 +10400,7 @@
       <c r="BJ40" s="5"/>
     </row>
     <row r="41" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A41" s="81"/>
+      <c r="A41" s="68"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -10616,7 +10464,7 @@
       <c r="BJ41" s="5"/>
     </row>
     <row r="42" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A42" s="81"/>
+      <c r="A42" s="68"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -10680,7 +10528,7 @@
       <c r="BJ42" s="5"/>
     </row>
     <row r="43" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A43" s="81"/>
+      <c r="A43" s="68"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -10744,7 +10592,7 @@
       <c r="BJ43" s="5"/>
     </row>
     <row r="44" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A44" s="81"/>
+      <c r="A44" s="68"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -10808,7 +10656,7 @@
       <c r="BJ44" s="5"/>
     </row>
     <row r="45" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A45" s="81"/>
+      <c r="A45" s="68"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -10872,7 +10720,7 @@
       <c r="BJ45" s="5"/>
     </row>
     <row r="46" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A46" s="81"/>
+      <c r="A46" s="68"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -10936,7 +10784,7 @@
       <c r="BJ46" s="5"/>
     </row>
     <row r="47" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A47" s="81"/>
+      <c r="A47" s="68"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -11000,7 +10848,7 @@
       <c r="BJ47" s="5"/>
     </row>
     <row r="48" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A48" s="81"/>
+      <c r="A48" s="68"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -11064,7 +10912,7 @@
       <c r="BJ48" s="5"/>
     </row>
     <row r="49" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A49" s="81"/>
+      <c r="A49" s="68"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -11128,7 +10976,7 @@
       <c r="BJ49" s="5"/>
     </row>
     <row r="50" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A50" s="81"/>
+      <c r="A50" s="68"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -11192,7 +11040,7 @@
       <c r="BJ50" s="5"/>
     </row>
     <row r="51" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A51" s="81"/>
+      <c r="A51" s="68"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -11256,7 +11104,7 @@
       <c r="BJ51" s="5"/>
     </row>
     <row r="52" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A52" s="81"/>
+      <c r="A52" s="68"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -11320,7 +11168,7 @@
       <c r="BJ52" s="5"/>
     </row>
     <row r="53" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A53" s="81"/>
+      <c r="A53" s="68"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -11384,7 +11232,7 @@
       <c r="BJ53" s="5"/>
     </row>
     <row r="54" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A54" s="81"/>
+      <c r="A54" s="68"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -11448,7 +11296,7 @@
       <c r="BJ54" s="5"/>
     </row>
     <row r="55" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A55" s="81"/>
+      <c r="A55" s="68"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -11512,7 +11360,7 @@
       <c r="BJ55" s="5"/>
     </row>
     <row r="56" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A56" s="81"/>
+      <c r="A56" s="68"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -11576,7 +11424,7 @@
       <c r="BJ56" s="5"/>
     </row>
     <row r="57" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A57" s="81"/>
+      <c r="A57" s="68"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -11640,7 +11488,7 @@
       <c r="BJ57" s="5"/>
     </row>
     <row r="58" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A58" s="81"/>
+      <c r="A58" s="68"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -11704,7 +11552,7 @@
       <c r="BJ58" s="5"/>
     </row>
     <row r="59" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A59" s="81"/>
+      <c r="A59" s="68"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -11768,7 +11616,7 @@
       <c r="BJ59" s="5"/>
     </row>
     <row r="60" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A60" s="81"/>
+      <c r="A60" s="68"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -11832,7 +11680,7 @@
       <c r="BJ60" s="5"/>
     </row>
     <row r="61" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A61" s="81"/>
+      <c r="A61" s="68"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -11896,7 +11744,7 @@
       <c r="BJ61" s="5"/>
     </row>
     <row r="62" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A62" s="81"/>
+      <c r="A62" s="68"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -11960,7 +11808,7 @@
       <c r="BJ62" s="5"/>
     </row>
     <row r="63" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A63" s="81"/>
+      <c r="A63" s="68"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -12053,7 +11901,7 @@
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>46</v>
@@ -12061,11 +11909,11 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
-      <c r="B3" s="69"/>
+      <c r="B3" s="60"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
-      <c r="B4" s="69"/>
+      <c r="B4" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12096,7 +11944,7 @@
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>46</v>
@@ -12104,15 +11952,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
-      <c r="B3" s="69"/>
+      <c r="B3" s="60"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
-      <c r="B4" s="69"/>
+      <c r="B4" s="60"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
-      <c r="B5" s="69"/>
+      <c r="B5" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12135,71 +11983,45 @@
     <col min="2" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Treatment Capacity [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
         <v>Table of Initial Treatment Capacity [bbl/day]</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>245</v>
-      </c>
+      <c r="A2" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="62">
-        <v>0</v>
-      </c>
-      <c r="C3" s="63">
-        <v>0</v>
-      </c>
-      <c r="D3" s="63">
-        <v>0</v>
-      </c>
-      <c r="E3" s="63">
-        <v>0</v>
-      </c>
-      <c r="F3" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="38">
-        <v>0</v>
-      </c>
-      <c r="C4" s="32">
-        <v>0</v>
-      </c>
-      <c r="D4" s="32">
-        <v>0</v>
-      </c>
-      <c r="E4" s="32">
-        <v>0</v>
-      </c>
-      <c r="F4" s="33">
-        <v>0</v>
-      </c>
+      <c r="A3" s="10"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12230,329 +12052,329 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="W2" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="X2" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="Z2" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="AA2" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="AB2" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AE2" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AF2" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AG2" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AH2" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AI2" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AK2" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AL2" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="AK2" s="10" t="s">
+      <c r="AM2" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="AL2" s="10" t="s">
+      <c r="AN2" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="AM2" s="10" t="s">
+      <c r="AO2" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AP2" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="AO2" s="10" t="s">
+      <c r="AQ2" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="AP2" s="10" t="s">
+      <c r="AR2" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="AQ2" s="10" t="s">
+      <c r="AS2" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="AR2" s="10" t="s">
+      <c r="AT2" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="AS2" s="10" t="s">
+      <c r="AU2" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="AT2" s="10" t="s">
+      <c r="AV2" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="AU2" s="10" t="s">
+      <c r="AW2" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="AV2" s="10" t="s">
+      <c r="AX2" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="AW2" s="10" t="s">
+      <c r="AY2" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="AX2" s="10" t="s">
+      <c r="AZ2" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="AY2" s="10" t="s">
+      <c r="BA2" s="10" t="s">
         <v>216</v>
-      </c>
-      <c r="AZ2" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="BA2" s="10" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="69"/>
-      <c r="AB3" s="69"/>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="69"/>
-      <c r="AG3" s="69"/>
-      <c r="AH3" s="69"/>
-      <c r="AI3" s="69"/>
-      <c r="AJ3" s="69"/>
-      <c r="AK3" s="69"/>
-      <c r="AL3" s="69"/>
-      <c r="AM3" s="69"/>
-      <c r="AN3" s="69"/>
-      <c r="AO3" s="69"/>
-      <c r="AP3" s="69"/>
-      <c r="AQ3" s="69"/>
-      <c r="AR3" s="69"/>
-      <c r="AS3" s="69"/>
-      <c r="AT3" s="69"/>
-      <c r="AU3" s="69"/>
-      <c r="AV3" s="69"/>
-      <c r="AW3" s="69"/>
-      <c r="AX3" s="69"/>
-      <c r="AY3" s="69"/>
-      <c r="AZ3" s="69"/>
-      <c r="BA3" s="69"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="60"/>
+      <c r="AL3" s="60"/>
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="60"/>
+      <c r="AO3" s="60"/>
+      <c r="AP3" s="60"/>
+      <c r="AQ3" s="60"/>
+      <c r="AR3" s="60"/>
+      <c r="AS3" s="60"/>
+      <c r="AT3" s="60"/>
+      <c r="AU3" s="60"/>
+      <c r="AV3" s="60"/>
+      <c r="AW3" s="60"/>
+      <c r="AX3" s="60"/>
+      <c r="AY3" s="60"/>
+      <c r="AZ3" s="60"/>
+      <c r="BA3" s="60"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="69"/>
-      <c r="AA4" s="69"/>
-      <c r="AB4" s="69"/>
-      <c r="AC4" s="69"/>
-      <c r="AD4" s="69"/>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="69"/>
-      <c r="AG4" s="69"/>
-      <c r="AH4" s="69"/>
-      <c r="AI4" s="69"/>
-      <c r="AJ4" s="69"/>
-      <c r="AK4" s="69"/>
-      <c r="AL4" s="69"/>
-      <c r="AM4" s="69"/>
-      <c r="AN4" s="69"/>
-      <c r="AO4" s="69"/>
-      <c r="AP4" s="69"/>
-      <c r="AQ4" s="69"/>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="69"/>
-      <c r="AV4" s="69"/>
-      <c r="AW4" s="69"/>
-      <c r="AX4" s="69"/>
-      <c r="AY4" s="69"/>
-      <c r="AZ4" s="69"/>
-      <c r="BA4" s="69"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="60"/>
+      <c r="AL4" s="60"/>
+      <c r="AM4" s="60"/>
+      <c r="AN4" s="60"/>
+      <c r="AO4" s="60"/>
+      <c r="AP4" s="60"/>
+      <c r="AQ4" s="60"/>
+      <c r="AR4" s="60"/>
+      <c r="AS4" s="60"/>
+      <c r="AT4" s="60"/>
+      <c r="AU4" s="60"/>
+      <c r="AV4" s="60"/>
+      <c r="AW4" s="60"/>
+      <c r="AX4" s="60"/>
+      <c r="AY4" s="60"/>
+      <c r="AZ4" s="60"/>
+      <c r="BA4" s="60"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
-      <c r="X5" s="69"/>
-      <c r="Y5" s="69"/>
-      <c r="Z5" s="69"/>
-      <c r="AA5" s="69"/>
-      <c r="AB5" s="69"/>
-      <c r="AC5" s="69"/>
-      <c r="AD5" s="69"/>
-      <c r="AE5" s="69"/>
-      <c r="AF5" s="69"/>
-      <c r="AG5" s="69"/>
-      <c r="AH5" s="69"/>
-      <c r="AI5" s="69"/>
-      <c r="AJ5" s="69"/>
-      <c r="AK5" s="69"/>
-      <c r="AL5" s="69"/>
-      <c r="AM5" s="69"/>
-      <c r="AN5" s="69"/>
-      <c r="AO5" s="69"/>
-      <c r="AP5" s="69"/>
-      <c r="AQ5" s="69"/>
-      <c r="AR5" s="69"/>
-      <c r="AS5" s="69"/>
-      <c r="AT5" s="69"/>
-      <c r="AU5" s="69"/>
-      <c r="AV5" s="69"/>
-      <c r="AW5" s="69"/>
-      <c r="AX5" s="69"/>
-      <c r="AY5" s="69"/>
-      <c r="AZ5" s="69"/>
-      <c r="BA5" s="69"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
+      <c r="W5" s="60"/>
+      <c r="X5" s="60"/>
+      <c r="Y5" s="60"/>
+      <c r="Z5" s="60"/>
+      <c r="AA5" s="60"/>
+      <c r="AB5" s="60"/>
+      <c r="AC5" s="60"/>
+      <c r="AD5" s="60"/>
+      <c r="AE5" s="60"/>
+      <c r="AF5" s="60"/>
+      <c r="AG5" s="60"/>
+      <c r="AH5" s="60"/>
+      <c r="AI5" s="60"/>
+      <c r="AJ5" s="60"/>
+      <c r="AK5" s="60"/>
+      <c r="AL5" s="60"/>
+      <c r="AM5" s="60"/>
+      <c r="AN5" s="60"/>
+      <c r="AO5" s="60"/>
+      <c r="AP5" s="60"/>
+      <c r="AQ5" s="60"/>
+      <c r="AR5" s="60"/>
+      <c r="AS5" s="60"/>
+      <c r="AT5" s="60"/>
+      <c r="AU5" s="60"/>
+      <c r="AV5" s="60"/>
+      <c r="AW5" s="60"/>
+      <c r="AX5" s="60"/>
+      <c r="AY5" s="60"/>
+      <c r="AZ5" s="60"/>
+      <c r="BA5" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12582,329 +12404,329 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="W2" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="X2" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="Z2" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="AA2" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="AB2" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AE2" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AF2" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AG2" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AH2" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AI2" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AK2" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AL2" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="AK2" s="10" t="s">
+      <c r="AM2" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="AL2" s="10" t="s">
+      <c r="AN2" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="AM2" s="10" t="s">
+      <c r="AO2" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AP2" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="AO2" s="10" t="s">
+      <c r="AQ2" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="AP2" s="10" t="s">
+      <c r="AR2" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="AQ2" s="10" t="s">
+      <c r="AS2" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="AR2" s="10" t="s">
+      <c r="AT2" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="AS2" s="10" t="s">
+      <c r="AU2" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="AT2" s="10" t="s">
+      <c r="AV2" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="AU2" s="10" t="s">
+      <c r="AW2" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="AV2" s="10" t="s">
+      <c r="AX2" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="AW2" s="10" t="s">
+      <c r="AY2" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="AX2" s="10" t="s">
+      <c r="AZ2" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="AY2" s="10" t="s">
+      <c r="BA2" s="10" t="s">
         <v>216</v>
-      </c>
-      <c r="AZ2" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="BA2" s="10" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="69"/>
-      <c r="AB3" s="69"/>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="69"/>
-      <c r="AG3" s="69"/>
-      <c r="AH3" s="69"/>
-      <c r="AI3" s="69"/>
-      <c r="AJ3" s="69"/>
-      <c r="AK3" s="69"/>
-      <c r="AL3" s="69"/>
-      <c r="AM3" s="69"/>
-      <c r="AN3" s="69"/>
-      <c r="AO3" s="69"/>
-      <c r="AP3" s="69"/>
-      <c r="AQ3" s="69"/>
-      <c r="AR3" s="69"/>
-      <c r="AS3" s="69"/>
-      <c r="AT3" s="69"/>
-      <c r="AU3" s="69"/>
-      <c r="AV3" s="69"/>
-      <c r="AW3" s="69"/>
-      <c r="AX3" s="69"/>
-      <c r="AY3" s="69"/>
-      <c r="AZ3" s="69"/>
-      <c r="BA3" s="69"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="60"/>
+      <c r="AL3" s="60"/>
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="60"/>
+      <c r="AO3" s="60"/>
+      <c r="AP3" s="60"/>
+      <c r="AQ3" s="60"/>
+      <c r="AR3" s="60"/>
+      <c r="AS3" s="60"/>
+      <c r="AT3" s="60"/>
+      <c r="AU3" s="60"/>
+      <c r="AV3" s="60"/>
+      <c r="AW3" s="60"/>
+      <c r="AX3" s="60"/>
+      <c r="AY3" s="60"/>
+      <c r="AZ3" s="60"/>
+      <c r="BA3" s="60"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="69"/>
-      <c r="AA4" s="69"/>
-      <c r="AB4" s="69"/>
-      <c r="AC4" s="69"/>
-      <c r="AD4" s="69"/>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="69"/>
-      <c r="AG4" s="69"/>
-      <c r="AH4" s="69"/>
-      <c r="AI4" s="69"/>
-      <c r="AJ4" s="69"/>
-      <c r="AK4" s="69"/>
-      <c r="AL4" s="69"/>
-      <c r="AM4" s="69"/>
-      <c r="AN4" s="69"/>
-      <c r="AO4" s="69"/>
-      <c r="AP4" s="69"/>
-      <c r="AQ4" s="69"/>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="69"/>
-      <c r="AV4" s="69"/>
-      <c r="AW4" s="69"/>
-      <c r="AX4" s="69"/>
-      <c r="AY4" s="69"/>
-      <c r="AZ4" s="69"/>
-      <c r="BA4" s="69"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="60"/>
+      <c r="AL4" s="60"/>
+      <c r="AM4" s="60"/>
+      <c r="AN4" s="60"/>
+      <c r="AO4" s="60"/>
+      <c r="AP4" s="60"/>
+      <c r="AQ4" s="60"/>
+      <c r="AR4" s="60"/>
+      <c r="AS4" s="60"/>
+      <c r="AT4" s="60"/>
+      <c r="AU4" s="60"/>
+      <c r="AV4" s="60"/>
+      <c r="AW4" s="60"/>
+      <c r="AX4" s="60"/>
+      <c r="AY4" s="60"/>
+      <c r="AZ4" s="60"/>
+      <c r="BA4" s="60"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
-      <c r="X5" s="69"/>
-      <c r="Y5" s="69"/>
-      <c r="Z5" s="69"/>
-      <c r="AA5" s="69"/>
-      <c r="AB5" s="69"/>
-      <c r="AC5" s="69"/>
-      <c r="AD5" s="69"/>
-      <c r="AE5" s="69"/>
-      <c r="AF5" s="69"/>
-      <c r="AG5" s="69"/>
-      <c r="AH5" s="69"/>
-      <c r="AI5" s="69"/>
-      <c r="AJ5" s="69"/>
-      <c r="AK5" s="69"/>
-      <c r="AL5" s="69"/>
-      <c r="AM5" s="69"/>
-      <c r="AN5" s="69"/>
-      <c r="AO5" s="69"/>
-      <c r="AP5" s="69"/>
-      <c r="AQ5" s="69"/>
-      <c r="AR5" s="69"/>
-      <c r="AS5" s="69"/>
-      <c r="AT5" s="69"/>
-      <c r="AU5" s="69"/>
-      <c r="AV5" s="69"/>
-      <c r="AW5" s="69"/>
-      <c r="AX5" s="69"/>
-      <c r="AY5" s="69"/>
-      <c r="AZ5" s="69"/>
-      <c r="BA5" s="69"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
+      <c r="W5" s="60"/>
+      <c r="X5" s="60"/>
+      <c r="Y5" s="60"/>
+      <c r="Z5" s="60"/>
+      <c r="AA5" s="60"/>
+      <c r="AB5" s="60"/>
+      <c r="AC5" s="60"/>
+      <c r="AD5" s="60"/>
+      <c r="AE5" s="60"/>
+      <c r="AF5" s="60"/>
+      <c r="AG5" s="60"/>
+      <c r="AH5" s="60"/>
+      <c r="AI5" s="60"/>
+      <c r="AJ5" s="60"/>
+      <c r="AK5" s="60"/>
+      <c r="AL5" s="60"/>
+      <c r="AM5" s="60"/>
+      <c r="AN5" s="60"/>
+      <c r="AO5" s="60"/>
+      <c r="AP5" s="60"/>
+      <c r="AQ5" s="60"/>
+      <c r="AR5" s="60"/>
+      <c r="AS5" s="60"/>
+      <c r="AT5" s="60"/>
+      <c r="AU5" s="60"/>
+      <c r="AV5" s="60"/>
+      <c r="AW5" s="60"/>
+      <c r="AX5" s="60"/>
+      <c r="AY5" s="60"/>
+      <c r="AZ5" s="60"/>
+      <c r="BA5" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12944,7 +12766,7 @@
         <v>42857.142857142899</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L1" s="1">
         <v>0.7</v>
@@ -12952,274 +12774,274 @@
     </row>
     <row r="2" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="W2" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="X2" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="Z2" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="AA2" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="AB2" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AE2" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AF2" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AG2" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AH2" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AI2" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AK2" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AL2" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="AK2" s="10" t="s">
+      <c r="AM2" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="AL2" s="10" t="s">
+      <c r="AN2" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="AM2" s="10" t="s">
+      <c r="AO2" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AP2" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="AO2" s="10" t="s">
+      <c r="AQ2" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="AP2" s="10" t="s">
+      <c r="AR2" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="AQ2" s="10" t="s">
+      <c r="AS2" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="AR2" s="10" t="s">
+      <c r="AT2" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="AS2" s="10" t="s">
+      <c r="AU2" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="AT2" s="10" t="s">
+      <c r="AV2" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="AU2" s="10" t="s">
+      <c r="AW2" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="AV2" s="10" t="s">
+      <c r="AX2" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="AW2" s="10" t="s">
+      <c r="AY2" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="AX2" s="10" t="s">
+      <c r="AZ2" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="AY2" s="10" t="s">
+      <c r="BA2" s="10" t="s">
         <v>216</v>
-      </c>
-      <c r="AZ2" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="BA2" s="10" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="69"/>
-      <c r="AB3" s="69"/>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="69"/>
-      <c r="AG3" s="69"/>
-      <c r="AH3" s="69"/>
-      <c r="AI3" s="69"/>
-      <c r="AJ3" s="69"/>
-      <c r="AK3" s="69"/>
-      <c r="AL3" s="69"/>
-      <c r="AM3" s="69"/>
-      <c r="AN3" s="69"/>
-      <c r="AO3" s="69"/>
-      <c r="AP3" s="69"/>
-      <c r="AQ3" s="69"/>
-      <c r="AR3" s="69"/>
-      <c r="AS3" s="69"/>
-      <c r="AT3" s="69"/>
-      <c r="AU3" s="69"/>
-      <c r="AV3" s="69"/>
-      <c r="AW3" s="69"/>
-      <c r="AX3" s="69"/>
-      <c r="AY3" s="69"/>
-      <c r="AZ3" s="69"/>
-      <c r="BA3" s="69"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="60"/>
+      <c r="AL3" s="60"/>
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="60"/>
+      <c r="AO3" s="60"/>
+      <c r="AP3" s="60"/>
+      <c r="AQ3" s="60"/>
+      <c r="AR3" s="60"/>
+      <c r="AS3" s="60"/>
+      <c r="AT3" s="60"/>
+      <c r="AU3" s="60"/>
+      <c r="AV3" s="60"/>
+      <c r="AW3" s="60"/>
+      <c r="AX3" s="60"/>
+      <c r="AY3" s="60"/>
+      <c r="AZ3" s="60"/>
+      <c r="BA3" s="60"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="69"/>
-      <c r="AA4" s="69"/>
-      <c r="AB4" s="69"/>
-      <c r="AC4" s="69"/>
-      <c r="AD4" s="69"/>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="69"/>
-      <c r="AG4" s="69"/>
-      <c r="AH4" s="69"/>
-      <c r="AI4" s="69"/>
-      <c r="AJ4" s="69"/>
-      <c r="AK4" s="69"/>
-      <c r="AL4" s="69"/>
-      <c r="AM4" s="69"/>
-      <c r="AN4" s="69"/>
-      <c r="AO4" s="69"/>
-      <c r="AP4" s="69"/>
-      <c r="AQ4" s="69"/>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="69"/>
-      <c r="AV4" s="69"/>
-      <c r="AW4" s="69"/>
-      <c r="AX4" s="69"/>
-      <c r="AY4" s="69"/>
-      <c r="AZ4" s="69"/>
-      <c r="BA4" s="69"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="60"/>
+      <c r="AL4" s="60"/>
+      <c r="AM4" s="60"/>
+      <c r="AN4" s="60"/>
+      <c r="AO4" s="60"/>
+      <c r="AP4" s="60"/>
+      <c r="AQ4" s="60"/>
+      <c r="AR4" s="60"/>
+      <c r="AS4" s="60"/>
+      <c r="AT4" s="60"/>
+      <c r="AU4" s="60"/>
+      <c r="AV4" s="60"/>
+      <c r="AW4" s="60"/>
+      <c r="AX4" s="60"/>
+      <c r="AY4" s="60"/>
+      <c r="AZ4" s="60"/>
+      <c r="BA4" s="60"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.2">
       <c r="F15" s="9"/>
@@ -13255,7 +13077,7 @@
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>46</v>
@@ -13263,7 +13085,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
-      <c r="B3" s="69"/>
+      <c r="B3" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13294,7 +13116,7 @@
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>46</v>
@@ -13302,7 +13124,7 @@
     </row>
     <row r="3" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
-      <c r="B3" s="69"/>
+      <c r="B3" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13334,7 +13156,7 @@
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>46</v>
@@ -13342,43 +13164,43 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
-      <c r="B3" s="69"/>
+      <c r="B3" s="60"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
-      <c r="B4" s="69"/>
+      <c r="B4" s="60"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
-      <c r="B5" s="69"/>
+      <c r="B5" s="60"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
-      <c r="B6" s="69"/>
+      <c r="B6" s="60"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="B7" s="69"/>
+      <c r="B7" s="60"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
-      <c r="B8" s="69"/>
+      <c r="B8" s="60"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="B9" s="69"/>
+      <c r="B9" s="60"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
-      <c r="B10" s="69"/>
+      <c r="B10" s="60"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="B11" s="69"/>
+      <c r="B11" s="60"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
-      <c r="B12" s="69"/>
+      <c r="B12" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13459,163 +13281,163 @@
     </row>
     <row r="2" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="W2" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="X2" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="Z2" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="AA2" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="AB2" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AE2" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AF2" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AG2" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AH2" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AI2" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AK2" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AL2" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="AK2" s="10" t="s">
+      <c r="AM2" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="AL2" s="10" t="s">
+      <c r="AN2" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="AM2" s="10" t="s">
+      <c r="AO2" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AP2" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="AO2" s="10" t="s">
+      <c r="AQ2" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="AP2" s="10" t="s">
+      <c r="AR2" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="AQ2" s="10" t="s">
+      <c r="AS2" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="AR2" s="10" t="s">
+      <c r="AT2" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="AS2" s="10" t="s">
+      <c r="AU2" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="AT2" s="10" t="s">
+      <c r="AV2" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="AU2" s="10" t="s">
+      <c r="AW2" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="AV2" s="10" t="s">
+      <c r="AX2" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="AW2" s="10" t="s">
+      <c r="AY2" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="AX2" s="10" t="s">
+      <c r="AZ2" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="AY2" s="10" t="s">
+      <c r="BA2" s="10" t="s">
         <v>216</v>
-      </c>
-      <c r="AZ2" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="BA2" s="10" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -13625,11 +13447,11 @@
       <c r="A4" s="10"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="B8" s="41"/>
+      <c r="B8" s="38"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.2">
       <c r="D9" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F9" s="9"/>
     </row>
@@ -13662,7 +13484,7 @@
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>46</v>
@@ -13688,9 +13510,7 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13699,132 +13519,72 @@
     <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"]")</f>
         <v>Table of Treatment Operational Cost [USD/bbl]</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="72" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="24" t="s">
+      <c r="A2" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="28">
-        <v>0.2</v>
-      </c>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="28">
-        <v>0.2</v>
-      </c>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="28">
-        <v>0.3</v>
-      </c>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="28">
-        <v>0.3</v>
-      </c>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" s="70" t="s">
-        <v>243</v>
-      </c>
-      <c r="C7" s="28">
-        <v>0.5</v>
-      </c>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="70" t="s">
-        <v>243</v>
-      </c>
-      <c r="C8" s="28">
-        <v>0.5</v>
-      </c>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" s="70" t="s">
-        <v>244</v>
-      </c>
-      <c r="C9" s="28">
-        <v>1</v>
-      </c>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="70" t="s">
-        <v>244</v>
-      </c>
-      <c r="C10" s="28">
-        <v>1</v>
-      </c>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="70" t="s">
-        <v>245</v>
-      </c>
-      <c r="C11" s="28">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="73" t="s">
-        <v>245</v>
-      </c>
-      <c r="C12" s="8">
-        <v>0.7</v>
-      </c>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13855,7 +13615,7 @@
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>46</v>
@@ -13894,7 +13654,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -14430,7 +14190,7 @@
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>46</v>
@@ -14471,7 +14231,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>46</v>
@@ -14528,12 +14288,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -14592,34 +14352,34 @@
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
     </row>
     <row r="4" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -14651,7 +14411,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>46</v>
@@ -14659,33 +14419,33 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" s="31">
+        <v>138</v>
+      </c>
+      <c r="B3" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" s="79">
+        <v>139</v>
+      </c>
+      <c r="B4" s="66">
         <v>7143</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" s="79">
+        <v>140</v>
+      </c>
+      <c r="B5" s="66">
         <v>14286</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="78">
+        <v>141</v>
+      </c>
+      <c r="B6" s="65">
         <v>50000</v>
       </c>
     </row>
@@ -14766,41 +14526,41 @@
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>131</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14833,7 +14593,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>46</v>
@@ -14841,33 +14601,33 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="31">
+        <v>128</v>
+      </c>
+      <c r="B3" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" s="31">
+        <v>129</v>
+      </c>
+      <c r="B4" s="30">
         <v>50000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="31">
+        <v>130</v>
+      </c>
+      <c r="B5" s="30">
         <v>100000</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="33">
+        <v>131</v>
+      </c>
+      <c r="B6" s="32">
         <v>350000</v>
       </c>
     </row>
@@ -14884,9 +14644,7 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14895,231 +14653,111 @@
     <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),")]")</f>
         <v>Table of Treatment Capacity Expansion Cost [USD/(bbl/day)]</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="68" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="30">
-        <v>75</v>
-      </c>
-      <c r="D3" s="30">
-        <v>75</v>
-      </c>
-      <c r="E3" s="30">
-        <v>75</v>
-      </c>
-      <c r="F3" s="31">
-        <v>75</v>
-      </c>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="30">
-        <v>75</v>
-      </c>
-      <c r="D4" s="30">
-        <v>75</v>
-      </c>
-      <c r="E4" s="30">
-        <v>75</v>
-      </c>
-      <c r="F4" s="31">
-        <v>75</v>
-      </c>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="30">
-        <v>100</v>
-      </c>
-      <c r="D5" s="30">
-        <v>100</v>
-      </c>
-      <c r="E5" s="30">
-        <v>100</v>
-      </c>
-      <c r="F5" s="31">
-        <v>100</v>
-      </c>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="30">
-        <v>100</v>
-      </c>
-      <c r="D6" s="30">
-        <v>100</v>
-      </c>
-      <c r="E6" s="30">
-        <v>100</v>
-      </c>
-      <c r="F6" s="31">
-        <v>100</v>
-      </c>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" s="67" t="s">
-        <v>243</v>
-      </c>
-      <c r="C7" s="30">
-        <v>1000</v>
-      </c>
-      <c r="D7" s="30">
-        <v>1000</v>
-      </c>
-      <c r="E7" s="30">
-        <v>1000</v>
-      </c>
-      <c r="F7" s="31">
-        <v>1000</v>
-      </c>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="67" t="s">
-        <v>243</v>
-      </c>
-      <c r="C8" s="30">
-        <v>1000</v>
-      </c>
-      <c r="D8" s="30">
-        <v>1000</v>
-      </c>
-      <c r="E8" s="30">
-        <v>1000</v>
-      </c>
-      <c r="F8" s="31">
-        <v>1000</v>
-      </c>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" s="67" t="s">
-        <v>244</v>
-      </c>
-      <c r="C9" s="30">
-        <v>500</v>
-      </c>
-      <c r="D9" s="30">
-        <v>500</v>
-      </c>
-      <c r="E9" s="30">
-        <v>500</v>
-      </c>
-      <c r="F9" s="31">
-        <v>500</v>
-      </c>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="67" t="s">
-        <v>244</v>
-      </c>
-      <c r="C10" s="30">
-        <v>500</v>
-      </c>
-      <c r="D10" s="30">
-        <v>500</v>
-      </c>
-      <c r="E10" s="30">
-        <v>500</v>
-      </c>
-      <c r="F10" s="31">
-        <v>500</v>
-      </c>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="67" t="s">
-        <v>245</v>
-      </c>
-      <c r="C11" s="30">
-        <v>800</v>
-      </c>
-      <c r="D11" s="30">
-        <v>800</v>
-      </c>
-      <c r="E11" s="30">
-        <v>800</v>
-      </c>
-      <c r="F11" s="31">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="71" t="s">
-        <v>245</v>
-      </c>
-      <c r="C12" s="32">
-        <v>800</v>
-      </c>
-      <c r="D12" s="32">
-        <v>800</v>
-      </c>
-      <c r="E12" s="32">
-        <v>800</v>
-      </c>
-      <c r="F12" s="33">
-        <v>800</v>
-      </c>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15134,9 +14772,7 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15154,111 +14790,101 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="24" t="s">
         <v>136</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="30">
+        <v>111</v>
+      </c>
+      <c r="B3" s="78">
         <v>0</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="78">
         <v>10000</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="78">
         <v>20000</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="30">
         <v>50000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="30">
+        <v>112</v>
+      </c>
+      <c r="B4" s="78">
         <v>0</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="78">
         <v>10000</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="78">
         <v>20000</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="30">
         <v>50000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="B5" s="30">
+        <v>241</v>
+      </c>
+      <c r="B5" s="78">
         <v>0</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="78">
         <v>10000</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="78">
         <v>20000</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="30">
         <v>50000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="B6" s="30">
+    <row r="6" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="B6" s="31">
         <v>0</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="31">
         <v>10000</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="31">
         <v>20000</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="32">
         <v>50000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="B7" s="32">
-        <v>0</v>
-      </c>
-      <c r="C7" s="32">
-        <v>10000</v>
-      </c>
-      <c r="D7" s="32">
-        <v>20000</v>
-      </c>
-      <c r="E7" s="33">
-        <v>50000</v>
-      </c>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C9" s="65"/>
+      <c r="C9" s="58"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C10" s="65"/>
+      <c r="C10" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15295,14 +14921,14 @@
         <v>45</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="B3" s="33">
+        <v>228</v>
+      </c>
+      <c r="B3" s="32">
         <v>300000</v>
       </c>
     </row>
@@ -15337,7 +14963,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -15477,8 +15103,8 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -15486,7 +15112,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="94"/>
+      <c r="K8" s="77"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -15500,8 +15126,8 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -15570,7 +15196,7 @@
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="94"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -15872,33 +15498,33 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B2" s="72" t="s">
-        <v>219</v>
+        <v>217</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>217</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="24" t="s">
         <v>126</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="76" t="s">
-        <v>122</v>
+        <v>119</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>120</v>
       </c>
       <c r="C3" s="6">
         <v>30</v>
@@ -15918,10 +15544,10 @@
     </row>
     <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>119</v>
       </c>
       <c r="C4" s="7">
         <v>30</v>
@@ -15970,7 +15596,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>46</v>
@@ -15978,41 +15604,41 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="31">
+        <v>122</v>
+      </c>
+      <c r="B3" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="31">
+        <v>123</v>
+      </c>
+      <c r="B4" s="30">
         <v>14285.714285714286</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="31">
+        <v>124</v>
+      </c>
+      <c r="B5" s="30">
         <v>35714.285714285717</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="31">
+        <v>125</v>
+      </c>
+      <c r="B6" s="30">
         <v>42857.142857142855</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="33">
+        <v>126</v>
+      </c>
+      <c r="B7" s="32">
         <v>50000</v>
       </c>
     </row>
@@ -16047,7 +15673,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>46</v>
@@ -16055,41 +15681,41 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="31">
+        <v>122</v>
+      </c>
+      <c r="B3" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="31">
+        <v>123</v>
+      </c>
+      <c r="B4" s="30">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="31">
+        <v>124</v>
+      </c>
+      <c r="B5" s="30">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="31">
+        <v>125</v>
+      </c>
+      <c r="B6" s="30">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="33">
+        <v>126</v>
+      </c>
+      <c r="B7" s="32">
         <v>12</v>
       </c>
     </row>
@@ -16106,7 +15732,9 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16115,131 +15743,71 @@
     <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="72" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="24" t="s">
+      <c r="A2" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="28">
-        <v>0.95</v>
-      </c>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="28">
-        <v>0.95</v>
-      </c>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="28">
-        <v>0.95</v>
-      </c>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="28">
-        <v>0.95</v>
-      </c>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" s="70" t="s">
-        <v>243</v>
-      </c>
-      <c r="C7" s="28">
-        <v>0.5</v>
-      </c>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="70" t="s">
-        <v>243</v>
-      </c>
-      <c r="C8" s="28">
-        <v>0.5</v>
-      </c>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" s="70" t="s">
-        <v>244</v>
-      </c>
-      <c r="C9" s="28">
-        <v>0.5</v>
-      </c>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="70" t="s">
-        <v>244</v>
-      </c>
-      <c r="C10" s="28">
-        <v>0.5</v>
-      </c>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="70" t="s">
-        <v>245</v>
-      </c>
-      <c r="C11" s="28">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="73" t="s">
-        <v>245</v>
-      </c>
-      <c r="C12" s="8">
-        <v>0.5</v>
-      </c>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16298,9 +15866,7 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16309,131 +15875,71 @@
     <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="72" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>228</v>
+      <c r="A2" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="28">
-        <v>0</v>
-      </c>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="28">
-        <v>0</v>
-      </c>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="28">
-        <v>0</v>
-      </c>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="28">
-        <v>0</v>
-      </c>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" s="70" t="s">
-        <v>243</v>
-      </c>
-      <c r="C7" s="28">
-        <v>0.99</v>
-      </c>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="70" t="s">
-        <v>243</v>
-      </c>
-      <c r="C8" s="28">
-        <v>0.99</v>
-      </c>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" s="70" t="s">
-        <v>244</v>
-      </c>
-      <c r="C9" s="28">
-        <v>0.99</v>
-      </c>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="70" t="s">
-        <v>244</v>
-      </c>
-      <c r="C10" s="28">
-        <v>0.99</v>
-      </c>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="70" t="s">
-        <v>245</v>
-      </c>
-      <c r="C11" s="28">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="73" t="s">
-        <v>245</v>
-      </c>
-      <c r="C12" s="75">
-        <v>0.99</v>
-      </c>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16448,7 +15954,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16459,56 +15965,52 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="74" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="31">
+      <c r="A3" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="31">
+      <c r="A4" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="74" t="s">
-        <v>243</v>
-      </c>
-      <c r="B5" s="31">
+      <c r="A5" s="62" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="74" t="s">
-        <v>244</v>
-      </c>
-      <c r="B6" s="31">
+    <row r="6" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="79" t="s">
+        <v>242</v>
+      </c>
+      <c r="B6" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="B7" s="33">
-        <v>1</v>
-      </c>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16532,12 +16034,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>46</v>
@@ -16579,7 +16081,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>46</v>
@@ -16619,12 +16121,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>46</v>
@@ -16632,7 +16134,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
-      <c r="B3" s="69"/>
+      <c r="B3" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16659,7 +16161,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -16667,45 +16169,45 @@
         <v>45</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="B3" s="31">
+        <v>230</v>
+      </c>
+      <c r="B3" s="30">
         <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="B4" s="37">
+        <v>231</v>
+      </c>
+      <c r="B4" s="36">
         <v>0.03</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>259</v>
-      </c>
-      <c r="B5" s="31">
+        <v>256</v>
+      </c>
+      <c r="B5" s="30">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="B6" s="33">
+        <v>257</v>
+      </c>
+      <c r="B6" s="32">
         <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -16732,7 +16234,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -16740,22 +16242,22 @@
         <v>45</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="B3" s="37">
+        <v>233</v>
+      </c>
+      <c r="B3" s="36">
         <v>0.08</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="B4" s="33">
+        <v>234</v>
+      </c>
+      <c r="B4" s="32">
         <v>20</v>
       </c>
     </row>
@@ -16794,31 +16296,31 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
-      <c r="B3" s="93"/>
+      <c r="B3" s="76"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
-      <c r="B4" s="93"/>
+      <c r="B4" s="76"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
-      <c r="B5" s="93"/>
+      <c r="B5" s="76"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
-      <c r="B6" s="93"/>
+      <c r="B6" s="76"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="B7" s="93"/>
+      <c r="B7" s="76"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16850,23 +16352,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
-      <c r="B3" s="93"/>
+      <c r="B3" s="76"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
-      <c r="B4" s="93"/>
+      <c r="B4" s="76"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
-      <c r="B5" s="93"/>
+      <c r="B5" s="76"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -16899,15 +16401,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
-      <c r="B3" s="93"/>
+      <c r="B3" s="76"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16971,8 +16473,12 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Expansion Lead Time [",VLOOKUP("decision period", Units!$A$2:$B$11, 2, FALSE),"s]")</f>
         <v>Table of Treatment Expansion Lead Time [weeks]</v>
@@ -16984,229 +16490,109 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="68" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="30">
-        <v>0</v>
-      </c>
-      <c r="D3" s="30">
-        <v>68</v>
-      </c>
-      <c r="E3" s="30">
-        <v>70</v>
-      </c>
-      <c r="F3" s="31">
-        <v>72</v>
-      </c>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="88">
-        <v>0</v>
-      </c>
-      <c r="D4" s="82">
-        <v>68</v>
-      </c>
-      <c r="E4" s="82">
-        <v>70</v>
-      </c>
-      <c r="F4" s="83">
-        <v>72</v>
-      </c>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
     </row>
     <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="30">
-        <v>0</v>
-      </c>
-      <c r="D5" s="30">
-        <v>68</v>
-      </c>
-      <c r="E5" s="30">
-        <v>70</v>
-      </c>
-      <c r="F5" s="31">
-        <v>72</v>
-      </c>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
     </row>
     <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="88">
-        <v>0</v>
-      </c>
-      <c r="D6" s="82">
-        <v>68</v>
-      </c>
-      <c r="E6" s="82">
-        <v>70</v>
-      </c>
-      <c r="F6" s="83">
-        <v>72</v>
-      </c>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
     </row>
     <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" s="67" t="s">
-        <v>243</v>
-      </c>
-      <c r="C7" s="30">
-        <v>0</v>
-      </c>
-      <c r="D7" s="30">
-        <v>68</v>
-      </c>
-      <c r="E7" s="30">
-        <v>70</v>
-      </c>
-      <c r="F7" s="31">
-        <v>72</v>
-      </c>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="87" t="s">
-        <v>243</v>
-      </c>
-      <c r="C8" s="88">
-        <v>0</v>
-      </c>
-      <c r="D8" s="82">
-        <v>68</v>
-      </c>
-      <c r="E8" s="82">
-        <v>70</v>
-      </c>
-      <c r="F8" s="83">
-        <v>72</v>
-      </c>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" s="67" t="s">
-        <v>244</v>
-      </c>
-      <c r="C9" s="30">
-        <v>0</v>
-      </c>
-      <c r="D9" s="30">
-        <v>68</v>
-      </c>
-      <c r="E9" s="30">
-        <v>70</v>
-      </c>
-      <c r="F9" s="31">
-        <v>72</v>
-      </c>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
       <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="87" t="s">
-        <v>244</v>
-      </c>
-      <c r="C10" s="88">
-        <v>0</v>
-      </c>
-      <c r="D10" s="82">
-        <v>68</v>
-      </c>
-      <c r="E10" s="82">
-        <v>70</v>
-      </c>
-      <c r="F10" s="83">
-        <v>72</v>
-      </c>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
       <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="67" t="s">
-        <v>245</v>
-      </c>
-      <c r="C11" s="30">
-        <v>0</v>
-      </c>
-      <c r="D11" s="30">
-        <v>68</v>
-      </c>
-      <c r="E11" s="30">
-        <v>70</v>
-      </c>
-      <c r="F11" s="31">
-        <v>72</v>
-      </c>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
       <c r="K11" s="9"/>
     </row>
-    <row r="12" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="71" t="s">
-        <v>245</v>
-      </c>
-      <c r="C12" s="32">
-        <v>0</v>
-      </c>
-      <c r="D12" s="32">
-        <v>68</v>
-      </c>
-      <c r="E12" s="32">
-        <v>70</v>
-      </c>
-      <c r="F12" s="33">
-        <v>72</v>
-      </c>
+    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17233,25 +16619,25 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="95" t="s">
-        <v>220</v>
-      </c>
-      <c r="B2" s="95" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="95" t="s">
-        <v>141</v>
+      <c r="A2" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="95"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
     </row>
     <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="95"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17278,42 +16664,42 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="95" t="s">
-        <v>160</v>
-      </c>
-      <c r="B2" s="95" t="s">
+      <c r="A2" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="E2" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="95" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="95" t="s">
-        <v>133</v>
-      </c>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="95"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="95"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="95"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17345,14 +16731,14 @@
         <v>45</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="B3" s="89">
+        <v>269</v>
+      </c>
+      <c r="B3" s="72">
         <v>0.2</v>
       </c>
     </row>
@@ -17383,86 +16769,86 @@
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B2" s="72" t="s">
-        <v>219</v>
+        <v>217</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>217</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="24" t="s">
         <v>125</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="91">
+        <v>115</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="74">
         <v>0</v>
       </c>
-      <c r="D3" s="91">
+      <c r="D3" s="74">
         <v>1</v>
       </c>
-      <c r="E3" s="84">
+      <c r="E3" s="69">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="91">
+        <v>116</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="74">
         <v>0</v>
       </c>
-      <c r="D4" s="91">
+      <c r="D4" s="74">
         <v>1</v>
       </c>
-      <c r="E4" s="84">
+      <c r="E4" s="69">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="73" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="90" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="91">
+      <c r="C5" s="74">
         <v>0</v>
       </c>
-      <c r="D5" s="91">
+      <c r="D5" s="74">
         <v>1</v>
       </c>
-      <c r="E5" s="84">
+      <c r="E5" s="69">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="92" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="85">
+        <v>117</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="70">
         <v>0</v>
       </c>
-      <c r="D6" s="85">
+      <c r="D6" s="70">
         <v>1</v>
       </c>
-      <c r="E6" s="86">
+      <c r="E6" s="71">
         <v>2</v>
       </c>
     </row>

--- a/backend/app/internal/assets/pareto_input_template.xlsx
+++ b/backend/app/internal/assets/pareto_input_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelpesce/Desktop/pareto-ui/backend/app/internal/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1546F8A6-2AA0-AC49-BC6C-8C9AA72393DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DEE77B-1393-2145-B16A-AAD8EA366940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19420" tabRatio="953" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="264">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -11908,18 +11908,10 @@
       <c r="A2" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>236</v>
-      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">

--- a/backend/app/internal/assets/pareto_input_template.xlsx
+++ b/backend/app/internal/assets/pareto_input_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelpesce/Desktop/pareto-ui/backend/app/internal/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DEE77B-1393-2145-B16A-AAD8EA366940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC11817-524A-2A40-AE5C-AAF90F6D3C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19420" tabRatio="953" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19420" tabRatio="953" firstSheet="86" activeTab="91" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="264">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -1863,7 +1863,7 @@
   </sheetPr>
   <dimension ref="B1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
@@ -14243,7 +14243,9 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14261,18 +14263,10 @@
       <c r="A2" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>135</v>
-      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
@@ -14435,18 +14429,10 @@
       <c r="A2" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>125</v>
-      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
@@ -16493,12 +16479,8 @@
       <c r="A2" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>133</v>
-      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
@@ -16522,7 +16504,7 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -16538,18 +16520,10 @@
       <c r="A2" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>125</v>
-      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>

--- a/backend/app/internal/assets/pareto_input_template.xlsx
+++ b/backend/app/internal/assets/pareto_input_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelpesce/Desktop/pareto-ui/backend/app/internal/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC11817-524A-2A40-AE5C-AAF90F6D3C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21551ACD-60D4-4446-ACF4-FB7A9660B163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19420" tabRatio="953" firstSheet="86" activeTab="91" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19420" tabRatio="953" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="264">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -1010,7 +1010,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1035,14 +1035,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE4D6"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="26">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1194,19 +1188,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1337,7 +1318,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1403,47 +1384,47 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -1456,13 +1437,7 @@
     <xf numFmtId="3" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1484,6 +1459,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1863,7 +1847,7 @@
   </sheetPr>
   <dimension ref="B1:M37"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
@@ -7837,50 +7821,50 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="60"/>
-      <c r="AN2" s="60"/>
-      <c r="AO2" s="60"/>
-      <c r="AP2" s="60"/>
-      <c r="AQ2" s="60"/>
-      <c r="AR2" s="60"/>
-      <c r="AS2" s="60"/>
-      <c r="AT2" s="60"/>
-      <c r="AU2" s="60"/>
-      <c r="AV2" s="60"/>
-      <c r="AW2" s="60"/>
-      <c r="AX2" s="60"/>
-      <c r="AY2" s="60"/>
-      <c r="AZ2" s="60"/>
-      <c r="BA2" s="60"/>
-      <c r="BB2" s="60"/>
-      <c r="BC2" s="60"/>
-      <c r="BD2" s="60"/>
-      <c r="BE2" s="60"/>
-      <c r="BF2" s="60"/>
-      <c r="BG2" s="60"/>
-      <c r="BH2" s="60"/>
-      <c r="BI2" s="60"/>
-      <c r="BJ2" s="60"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="58"/>
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="58"/>
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="58"/>
+      <c r="AN2" s="58"/>
+      <c r="AO2" s="58"/>
+      <c r="AP2" s="58"/>
+      <c r="AQ2" s="58"/>
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="58"/>
+      <c r="AT2" s="58"/>
+      <c r="AU2" s="58"/>
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="58"/>
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
+      <c r="BA2" s="58"/>
+      <c r="BB2" s="58"/>
+      <c r="BC2" s="58"/>
+      <c r="BD2" s="58"/>
+      <c r="BE2" s="58"/>
+      <c r="BF2" s="58"/>
+      <c r="BG2" s="58"/>
+      <c r="BH2" s="58"/>
+      <c r="BI2" s="58"/>
+      <c r="BJ2" s="58"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
@@ -9227,7 +9211,7 @@
       <c r="BJ23" s="5"/>
     </row>
     <row r="24" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A24" s="61"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -9291,7 +9275,7 @@
       <c r="BJ24" s="5"/>
     </row>
     <row r="25" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A25" s="61"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -9355,7 +9339,7 @@
       <c r="BJ25" s="5"/>
     </row>
     <row r="26" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A26" s="61"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -9419,7 +9403,7 @@
       <c r="BJ26" s="5"/>
     </row>
     <row r="27" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A27" s="61"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -9483,7 +9467,7 @@
       <c r="BJ27" s="5"/>
     </row>
     <row r="28" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A28" s="61"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -9547,7 +9531,7 @@
       <c r="BJ28" s="5"/>
     </row>
     <row r="29" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A29" s="61"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -9611,7 +9595,7 @@
       <c r="BJ29" s="5"/>
     </row>
     <row r="30" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A30" s="61"/>
+      <c r="A30" s="59"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -9675,7 +9659,7 @@
       <c r="BJ30" s="5"/>
     </row>
     <row r="31" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A31" s="61"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -9739,7 +9723,7 @@
       <c r="BJ31" s="5"/>
     </row>
     <row r="32" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A32" s="61"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -9803,7 +9787,7 @@
       <c r="BJ32" s="5"/>
     </row>
     <row r="33" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A33" s="61"/>
+      <c r="A33" s="59"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -9867,7 +9851,7 @@
       <c r="BJ33" s="5"/>
     </row>
     <row r="34" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A34" s="61"/>
+      <c r="A34" s="59"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -9931,7 +9915,7 @@
       <c r="BJ34" s="5"/>
     </row>
     <row r="35" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A35" s="61"/>
+      <c r="A35" s="59"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -9995,7 +9979,7 @@
       <c r="BJ35" s="5"/>
     </row>
     <row r="36" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A36" s="61"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -10059,7 +10043,7 @@
       <c r="BJ36" s="5"/>
     </row>
     <row r="37" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A37" s="61"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -10123,7 +10107,7 @@
       <c r="BJ37" s="5"/>
     </row>
     <row r="38" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A38" s="61"/>
+      <c r="A38" s="59"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -10187,7 +10171,7 @@
       <c r="BJ38" s="5"/>
     </row>
     <row r="39" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A39" s="61"/>
+      <c r="A39" s="59"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -10251,7 +10235,7 @@
       <c r="BJ39" s="5"/>
     </row>
     <row r="40" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A40" s="61"/>
+      <c r="A40" s="59"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -10315,7 +10299,7 @@
       <c r="BJ40" s="5"/>
     </row>
     <row r="41" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A41" s="61"/>
+      <c r="A41" s="59"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -10379,7 +10363,7 @@
       <c r="BJ41" s="5"/>
     </row>
     <row r="42" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A42" s="61"/>
+      <c r="A42" s="59"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -10443,7 +10427,7 @@
       <c r="BJ42" s="5"/>
     </row>
     <row r="43" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A43" s="61"/>
+      <c r="A43" s="59"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -10507,7 +10491,7 @@
       <c r="BJ43" s="5"/>
     </row>
     <row r="44" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A44" s="61"/>
+      <c r="A44" s="59"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -10571,7 +10555,7 @@
       <c r="BJ44" s="5"/>
     </row>
     <row r="45" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A45" s="61"/>
+      <c r="A45" s="59"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -10635,7 +10619,7 @@
       <c r="BJ45" s="5"/>
     </row>
     <row r="46" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A46" s="61"/>
+      <c r="A46" s="59"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -10699,7 +10683,7 @@
       <c r="BJ46" s="5"/>
     </row>
     <row r="47" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A47" s="61"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -10763,7 +10747,7 @@
       <c r="BJ47" s="5"/>
     </row>
     <row r="48" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A48" s="61"/>
+      <c r="A48" s="59"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -10827,7 +10811,7 @@
       <c r="BJ48" s="5"/>
     </row>
     <row r="49" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A49" s="61"/>
+      <c r="A49" s="59"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -10891,7 +10875,7 @@
       <c r="BJ49" s="5"/>
     </row>
     <row r="50" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A50" s="61"/>
+      <c r="A50" s="59"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -10955,7 +10939,7 @@
       <c r="BJ50" s="5"/>
     </row>
     <row r="51" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A51" s="61"/>
+      <c r="A51" s="59"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -11019,7 +11003,7 @@
       <c r="BJ51" s="5"/>
     </row>
     <row r="52" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A52" s="61"/>
+      <c r="A52" s="59"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -11083,7 +11067,7 @@
       <c r="BJ52" s="5"/>
     </row>
     <row r="53" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A53" s="61"/>
+      <c r="A53" s="59"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -11147,7 +11131,7 @@
       <c r="BJ53" s="5"/>
     </row>
     <row r="54" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A54" s="61"/>
+      <c r="A54" s="59"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -11211,7 +11195,7 @@
       <c r="BJ54" s="5"/>
     </row>
     <row r="55" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A55" s="61"/>
+      <c r="A55" s="59"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -11275,7 +11259,7 @@
       <c r="BJ55" s="5"/>
     </row>
     <row r="56" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A56" s="61"/>
+      <c r="A56" s="59"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -11339,7 +11323,7 @@
       <c r="BJ56" s="5"/>
     </row>
     <row r="57" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A57" s="61"/>
+      <c r="A57" s="59"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -11403,7 +11387,7 @@
       <c r="BJ57" s="5"/>
     </row>
     <row r="58" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A58" s="61"/>
+      <c r="A58" s="59"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -11467,7 +11451,7 @@
       <c r="BJ58" s="5"/>
     </row>
     <row r="59" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A59" s="61"/>
+      <c r="A59" s="59"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -11531,7 +11515,7 @@
       <c r="BJ59" s="5"/>
     </row>
     <row r="60" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A60" s="61"/>
+      <c r="A60" s="59"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -11595,7 +11579,7 @@
       <c r="BJ60" s="5"/>
     </row>
     <row r="61" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A61" s="61"/>
+      <c r="A61" s="59"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -11659,7 +11643,7 @@
       <c r="BJ61" s="5"/>
     </row>
     <row r="62" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A62" s="61"/>
+      <c r="A62" s="59"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -11723,7 +11707,7 @@
       <c r="BJ62" s="5"/>
     </row>
     <row r="63" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A63" s="61"/>
+      <c r="A63" s="59"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -14304,51 +14288,35 @@
     <col min="2" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
         <v>Table of Disposal Capacity Expansion Increments [bbl/day]</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="66" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" s="26">
-        <v>0</v>
-      </c>
+      <c r="A3" s="66"/>
+      <c r="B3" s="67"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" s="59">
-        <v>7143</v>
-      </c>
+      <c r="A4" s="66"/>
+      <c r="B4" s="68"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="59">
-        <v>14286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="58">
-        <v>50000</v>
-      </c>
+      <c r="A5" s="66"/>
+      <c r="B5" s="68"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="66"/>
+      <c r="B6" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14468,9 +14436,7 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14478,51 +14444,35 @@
     <col min="2" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"]")</f>
         <v>Table of Storage Capacity Expansion Increments [bbl]</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="66" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="66" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="26">
-        <v>0</v>
-      </c>
+      <c r="A3" s="66"/>
+      <c r="B3" s="67"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="26">
-        <v>50000</v>
-      </c>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="26">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" s="28">
-        <v>350000</v>
-      </c>
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="66"/>
+      <c r="B6" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14702,13 +14652,13 @@
       <c r="A3" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="65">
+      <c r="B3" s="63">
         <v>0</v>
       </c>
-      <c r="C3" s="65">
+      <c r="C3" s="63">
         <v>10000</v>
       </c>
-      <c r="D3" s="65">
+      <c r="D3" s="63">
         <v>20000</v>
       </c>
       <c r="E3" s="26">
@@ -14719,13 +14669,13 @@
       <c r="A4" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="65">
+      <c r="B4" s="63">
         <v>0</v>
       </c>
-      <c r="C4" s="65">
+      <c r="C4" s="63">
         <v>10000</v>
       </c>
-      <c r="D4" s="65">
+      <c r="D4" s="63">
         <v>20000</v>
       </c>
       <c r="E4" s="26">
@@ -14736,13 +14686,13 @@
       <c r="A5" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="B5" s="65">
+      <c r="B5" s="63">
         <v>0</v>
       </c>
-      <c r="C5" s="65">
+      <c r="C5" s="63">
         <v>10000</v>
       </c>
-      <c r="D5" s="65">
+      <c r="D5" s="63">
         <v>20000</v>
       </c>
       <c r="E5" s="26">
@@ -14996,8 +14946,8 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -15005,7 +14955,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="64"/>
+      <c r="K8" s="62"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -15019,8 +14969,8 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -15089,7 +15039,7 @@
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="64"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -15412,7 +15362,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
-      <c r="B3" s="67"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -15421,7 +15371,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
-      <c r="B4" s="67"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -15442,7 +15392,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15451,57 +15401,57 @@
     <col min="2" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
         <v>Table of Pipeline Capacity Expansion Increments [bbl/day]</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="66" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="66" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="67">
         <v>14285.714285714286</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="67">
         <v>35714.285714285717</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="67">
         <v>42857.142857142855</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="67">
         <v>50000</v>
       </c>
     </row>
@@ -15864,7 +15814,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="64" t="s">
         <v>236</v>
       </c>
       <c r="B6" s="28">
@@ -16167,23 +16117,23 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
-      <c r="B3" s="63"/>
+      <c r="B3" s="61"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
-      <c r="B4" s="63"/>
+      <c r="B4" s="61"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
-      <c r="B5" s="63"/>
+      <c r="B5" s="61"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
-      <c r="B6" s="63"/>
+      <c r="B6" s="61"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="B7" s="63"/>
+      <c r="B7" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16223,15 +16173,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
-      <c r="B3" s="63"/>
+      <c r="B3" s="61"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
-      <c r="B4" s="63"/>
+      <c r="B4" s="61"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
-      <c r="B5" s="63"/>
+      <c r="B5" s="61"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -16272,7 +16222,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
-      <c r="B3" s="63"/>
+      <c r="B3" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16504,7 +16454,7 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -16583,7 +16533,7 @@
       <c r="A3" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="B3" s="62">
+      <c r="B3" s="60">
         <v>0.2</v>
       </c>
     </row>
@@ -16631,28 +16581,28 @@
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
-      <c r="B3" s="67"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
-      <c r="B4" s="67"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
-      <c r="B5" s="67"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
-      <c r="B6" s="67"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>

--- a/backend/app/internal/assets/pareto_input_template.xlsx
+++ b/backend/app/internal/assets/pareto_input_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelpesce/Desktop/pareto-ui/backend/app/internal/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC51110-5FE4-C841-932C-C09DB245ACC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353FC51F-E013-604F-9E5B-DC3F3E560160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19420" tabRatio="953" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="264">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -1479,31 +1479,31 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -14677,32 +14677,32 @@
       <c r="E2" s="66"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="67"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="68"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="67"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="67"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="68"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="67"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="67"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="68"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="67"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="70"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="72"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="70"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
@@ -15456,9 +15456,7 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15466,59 +15464,39 @@
     <col min="2" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Diameters [",VLOOKUP("diameter", Units!$A$2:$B$11, 2, FALSE),"]")</f>
         <v>Table of Pipeline Diameters [inch]</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="71" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="25">
-        <v>0</v>
-      </c>
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="25">
-        <v>4</v>
-      </c>
+      <c r="A4" s="71"/>
+      <c r="B4" s="72"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="25">
-        <v>6</v>
-      </c>
+      <c r="A5" s="71"/>
+      <c r="B5" s="72"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="26">
-        <v>12</v>
-      </c>
+      <c r="A6" s="71"/>
+      <c r="B6" s="72"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="71"/>
+      <c r="B7" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backend/app/internal/assets/pareto_input_template.xlsx
+++ b/backend/app/internal/assets/pareto_input_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelpesce/Desktop/pareto-ui/backend/app/internal/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353FC51F-E013-604F-9E5B-DC3F3E560160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432085F8-559D-EF4E-B985-06083941F4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19420" tabRatio="953" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="264">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -1342,7 +1342,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1452,9 +1452,6 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1468,9 +1465,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1501,6 +1495,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7857,50 +7854,50 @@
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="56"/>
-      <c r="AP2" s="56"/>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="56"/>
-      <c r="AS2" s="56"/>
-      <c r="AT2" s="56"/>
-      <c r="AU2" s="56"/>
-      <c r="AV2" s="56"/>
-      <c r="AW2" s="56"/>
-      <c r="AX2" s="56"/>
-      <c r="AY2" s="56"/>
-      <c r="AZ2" s="56"/>
-      <c r="BA2" s="56"/>
-      <c r="BB2" s="56"/>
-      <c r="BC2" s="56"/>
-      <c r="BD2" s="56"/>
-      <c r="BE2" s="56"/>
-      <c r="BF2" s="56"/>
-      <c r="BG2" s="56"/>
-      <c r="BH2" s="56"/>
-      <c r="BI2" s="56"/>
-      <c r="BJ2" s="56"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="55"/>
+      <c r="AP2" s="55"/>
+      <c r="AQ2" s="55"/>
+      <c r="AR2" s="55"/>
+      <c r="AS2" s="55"/>
+      <c r="AT2" s="55"/>
+      <c r="AU2" s="55"/>
+      <c r="AV2" s="55"/>
+      <c r="AW2" s="55"/>
+      <c r="AX2" s="55"/>
+      <c r="AY2" s="55"/>
+      <c r="AZ2" s="55"/>
+      <c r="BA2" s="55"/>
+      <c r="BB2" s="55"/>
+      <c r="BC2" s="55"/>
+      <c r="BD2" s="55"/>
+      <c r="BE2" s="55"/>
+      <c r="BF2" s="55"/>
+      <c r="BG2" s="55"/>
+      <c r="BH2" s="55"/>
+      <c r="BI2" s="55"/>
+      <c r="BJ2" s="55"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
@@ -9247,7 +9244,7 @@
       <c r="BJ23" s="4"/>
     </row>
     <row r="24" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A24" s="57"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -9311,7 +9308,7 @@
       <c r="BJ24" s="4"/>
     </row>
     <row r="25" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A25" s="57"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -9375,7 +9372,7 @@
       <c r="BJ25" s="4"/>
     </row>
     <row r="26" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A26" s="57"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -9439,7 +9436,7 @@
       <c r="BJ26" s="4"/>
     </row>
     <row r="27" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A27" s="57"/>
+      <c r="A27" s="56"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -9503,7 +9500,7 @@
       <c r="BJ27" s="4"/>
     </row>
     <row r="28" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A28" s="57"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -9567,7 +9564,7 @@
       <c r="BJ28" s="4"/>
     </row>
     <row r="29" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A29" s="57"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -9631,7 +9628,7 @@
       <c r="BJ29" s="4"/>
     </row>
     <row r="30" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A30" s="57"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -9695,7 +9692,7 @@
       <c r="BJ30" s="4"/>
     </row>
     <row r="31" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A31" s="57"/>
+      <c r="A31" s="56"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -9759,7 +9756,7 @@
       <c r="BJ31" s="4"/>
     </row>
     <row r="32" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A32" s="57"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -9823,7 +9820,7 @@
       <c r="BJ32" s="4"/>
     </row>
     <row r="33" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A33" s="57"/>
+      <c r="A33" s="56"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -9887,7 +9884,7 @@
       <c r="BJ33" s="4"/>
     </row>
     <row r="34" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A34" s="57"/>
+      <c r="A34" s="56"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -9951,7 +9948,7 @@
       <c r="BJ34" s="4"/>
     </row>
     <row r="35" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A35" s="57"/>
+      <c r="A35" s="56"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -10015,7 +10012,7 @@
       <c r="BJ35" s="4"/>
     </row>
     <row r="36" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A36" s="57"/>
+      <c r="A36" s="56"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -10079,7 +10076,7 @@
       <c r="BJ36" s="4"/>
     </row>
     <row r="37" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A37" s="57"/>
+      <c r="A37" s="56"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -10143,7 +10140,7 @@
       <c r="BJ37" s="4"/>
     </row>
     <row r="38" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A38" s="57"/>
+      <c r="A38" s="56"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -10207,7 +10204,7 @@
       <c r="BJ38" s="4"/>
     </row>
     <row r="39" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A39" s="57"/>
+      <c r="A39" s="56"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -10271,7 +10268,7 @@
       <c r="BJ39" s="4"/>
     </row>
     <row r="40" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A40" s="57"/>
+      <c r="A40" s="56"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -10335,7 +10332,7 @@
       <c r="BJ40" s="4"/>
     </row>
     <row r="41" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A41" s="57"/>
+      <c r="A41" s="56"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -10399,7 +10396,7 @@
       <c r="BJ41" s="4"/>
     </row>
     <row r="42" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A42" s="57"/>
+      <c r="A42" s="56"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -10463,7 +10460,7 @@
       <c r="BJ42" s="4"/>
     </row>
     <row r="43" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A43" s="57"/>
+      <c r="A43" s="56"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -10527,7 +10524,7 @@
       <c r="BJ43" s="4"/>
     </row>
     <row r="44" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A44" s="57"/>
+      <c r="A44" s="56"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -10591,7 +10588,7 @@
       <c r="BJ44" s="4"/>
     </row>
     <row r="45" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A45" s="57"/>
+      <c r="A45" s="56"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -10655,7 +10652,7 @@
       <c r="BJ45" s="4"/>
     </row>
     <row r="46" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A46" s="57"/>
+      <c r="A46" s="56"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -10719,7 +10716,7 @@
       <c r="BJ46" s="4"/>
     </row>
     <row r="47" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A47" s="57"/>
+      <c r="A47" s="56"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -10783,7 +10780,7 @@
       <c r="BJ47" s="4"/>
     </row>
     <row r="48" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A48" s="57"/>
+      <c r="A48" s="56"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -10847,7 +10844,7 @@
       <c r="BJ48" s="4"/>
     </row>
     <row r="49" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A49" s="57"/>
+      <c r="A49" s="56"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -10911,7 +10908,7 @@
       <c r="BJ49" s="4"/>
     </row>
     <row r="50" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A50" s="57"/>
+      <c r="A50" s="56"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -10975,7 +10972,7 @@
       <c r="BJ50" s="4"/>
     </row>
     <row r="51" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A51" s="57"/>
+      <c r="A51" s="56"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -11039,7 +11036,7 @@
       <c r="BJ51" s="4"/>
     </row>
     <row r="52" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A52" s="57"/>
+      <c r="A52" s="56"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -11103,7 +11100,7 @@
       <c r="BJ52" s="4"/>
     </row>
     <row r="53" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A53" s="57"/>
+      <c r="A53" s="56"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -11167,7 +11164,7 @@
       <c r="BJ53" s="4"/>
     </row>
     <row r="54" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A54" s="57"/>
+      <c r="A54" s="56"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -11231,7 +11228,7 @@
       <c r="BJ54" s="4"/>
     </row>
     <row r="55" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A55" s="57"/>
+      <c r="A55" s="56"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -11295,7 +11292,7 @@
       <c r="BJ55" s="4"/>
     </row>
     <row r="56" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A56" s="57"/>
+      <c r="A56" s="56"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -11359,7 +11356,7 @@
       <c r="BJ56" s="4"/>
     </row>
     <row r="57" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A57" s="57"/>
+      <c r="A57" s="56"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -11423,7 +11420,7 @@
       <c r="BJ57" s="4"/>
     </row>
     <row r="58" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A58" s="57"/>
+      <c r="A58" s="56"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -11487,7 +11484,7 @@
       <c r="BJ58" s="4"/>
     </row>
     <row r="59" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A59" s="57"/>
+      <c r="A59" s="56"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -11551,7 +11548,7 @@
       <c r="BJ59" s="4"/>
     </row>
     <row r="60" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A60" s="57"/>
+      <c r="A60" s="56"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -11615,7 +11612,7 @@
       <c r="BJ60" s="4"/>
     </row>
     <row r="61" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A61" s="57"/>
+      <c r="A61" s="56"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -11679,7 +11676,7 @@
       <c r="BJ61" s="4"/>
     </row>
     <row r="62" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A62" s="57"/>
+      <c r="A62" s="56"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -11743,7 +11740,7 @@
       <c r="BJ62" s="4"/>
     </row>
     <row r="63" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A63" s="57"/>
+      <c r="A63" s="56"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -14344,15 +14341,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
-      <c r="B4" s="63"/>
+      <c r="B4" s="61"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="63"/>
+      <c r="B5" s="61"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="63"/>
+      <c r="B6" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14668,41 +14665,41 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="57"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="54"/>
       <c r="C3" s="54"/>
       <c r="D3" s="54"/>
-      <c r="E3" s="67"/>
+      <c r="E3" s="65"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="57"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="54"/>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
-      <c r="E4" s="67"/>
+      <c r="E4" s="65"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="57"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="54"/>
       <c r="C5" s="54"/>
       <c r="D5" s="54"/>
-      <c r="E5" s="67"/>
+      <c r="E5" s="65"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="68"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="70"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="68"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
@@ -14934,8 +14931,8 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -14943,7 +14940,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="60"/>
+      <c r="K8" s="59"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -14957,8 +14954,8 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -15027,7 +15024,7 @@
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="60"/>
+      <c r="C12" s="59"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -15350,7 +15347,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
-      <c r="B3" s="62"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -15359,7 +15356,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
-      <c r="B4" s="62"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -15471,32 +15468,32 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="54"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="54"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="71"/>
-      <c r="B5" s="72"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="54"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="71"/>
-      <c r="B6" s="72"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="54"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="71"/>
-      <c r="B7" s="72"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15732,9 +15729,7 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15742,50 +15737,34 @@
     <col min="2" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="69" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="69" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="25">
-        <v>0</v>
-      </c>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="25">
-        <v>0</v>
-      </c>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="B5" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
-        <v>236</v>
-      </c>
-      <c r="B6" s="26">
-        <v>1</v>
-      </c>
+      <c r="A5" s="70"/>
+      <c r="B5" s="71"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="70"/>
+      <c r="B6" s="71"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
@@ -16083,23 +16062,23 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
-      <c r="B3" s="59"/>
+      <c r="B3" s="58"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
-      <c r="B4" s="59"/>
+      <c r="B4" s="58"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="59"/>
+      <c r="B5" s="58"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="59"/>
+      <c r="B6" s="58"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="59"/>
+      <c r="B7" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16139,15 +16118,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
-      <c r="B3" s="59"/>
+      <c r="B3" s="58"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
-      <c r="B4" s="59"/>
+      <c r="B4" s="58"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="59"/>
+      <c r="B5" s="58"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -16188,7 +16167,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
-      <c r="B3" s="59"/>
+      <c r="B3" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16499,7 +16478,7 @@
       <c r="A3" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="B3" s="58">
+      <c r="B3" s="57">
         <v>0.2</v>
       </c>
     </row>
@@ -16547,28 +16526,28 @@
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
-      <c r="B3" s="62"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
-      <c r="B4" s="62"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="62"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="62"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>

--- a/backend/app/internal/assets/pareto_input_template.xlsx
+++ b/backend/app/internal/assets/pareto_input_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelpesce/Desktop/pareto-ui/backend/app/internal/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432085F8-559D-EF4E-B985-06083941F4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB89683-681B-714A-90FD-D5ECD00175B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19420" tabRatio="953" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="264">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -1036,7 +1036,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1104,17 +1104,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1312,37 +1301,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1356,20 +1321,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1402,47 +1367,47 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -1452,7 +1417,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1473,31 +1438,7 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14542,18 +14483,10 @@
       <c r="B2" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>130</v>
-      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
@@ -14658,7 +14591,7 @@
     <col min="4" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
         <v>Table of Treatment Capacity Expansion Increments [bbl/day]</v>
@@ -14668,38 +14601,38 @@
       <c r="A2" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="56"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="65"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="56"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="65"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="56"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="65"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="66"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="68"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
@@ -15743,28 +15676,28 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="54"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="54"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="70"/>
-      <c r="B5" s="71"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="54"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="70"/>
-      <c r="B6" s="71"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="54"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>

--- a/backend/app/internal/assets/pareto_input_template.xlsx
+++ b/backend/app/internal/assets/pareto_input_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelpesce/Desktop/pareto-ui/backend/app/internal/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB89683-681B-714A-90FD-D5ECD00175B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04838C2B-2E3A-0C4E-A983-5E43E9F68399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19420" tabRatio="953" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="264">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -1307,7 +1307,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1436,12 +1436,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -14598,41 +14592,41 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="62"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="62"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
@@ -15262,21 +15256,11 @@
       <c r="B2" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>120</v>
-      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
@@ -16294,6 +16278,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="str">
@@ -16335,6 +16322,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="str">
@@ -16447,15 +16437,9 @@
       <c r="B2" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>119</v>
-      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>

--- a/backend/app/internal/assets/pareto_input_template.xlsx
+++ b/backend/app/internal/assets/pareto_input_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelpesce/Desktop/pareto-ui/backend/app/internal/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04838C2B-2E3A-0C4E-A983-5E43E9F68399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0546BD1-2ED2-A54D-B775-A13B8D3BAD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19420" tabRatio="953" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -46,72 +46,78 @@
     <sheet name="RSA" sheetId="105" r:id="rId31"/>
     <sheet name="SCA" sheetId="108" r:id="rId32"/>
     <sheet name="RNA" sheetId="62" r:id="rId33"/>
-    <sheet name="ROA" sheetId="121" r:id="rId34"/>
-    <sheet name="PCT" sheetId="42" r:id="rId35"/>
-    <sheet name="FCT" sheetId="70" r:id="rId36"/>
-    <sheet name="PKT" sheetId="43" r:id="rId37"/>
-    <sheet name="CKT" sheetId="44" r:id="rId38"/>
-    <sheet name="CCT" sheetId="74" r:id="rId39"/>
-    <sheet name="CST" sheetId="64" r:id="rId40"/>
-    <sheet name="RST" sheetId="122" r:id="rId41"/>
-    <sheet name="ROT" sheetId="123" r:id="rId42"/>
-    <sheet name="SOT" sheetId="124" r:id="rId43"/>
-    <sheet name="Elevation" sheetId="115" r:id="rId44"/>
-    <sheet name="CompletionsDemand" sheetId="8" r:id="rId45"/>
-    <sheet name="PadRates" sheetId="65" r:id="rId46"/>
-    <sheet name="FlowbackRates" sheetId="75" r:id="rId47"/>
-    <sheet name="WellPressure" sheetId="116" r:id="rId48"/>
-    <sheet name="InitialPipelineCapacity" sheetId="118" r:id="rId49"/>
-    <sheet name="InitialPipelineDiameters" sheetId="117" r:id="rId50"/>
-    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId51"/>
-    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId52"/>
-    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId53"/>
-    <sheet name="ReuseMinimum" sheetId="125" r:id="rId54"/>
-    <sheet name="ReuseCapacity" sheetId="126" r:id="rId55"/>
-    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId56"/>
-    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId57"/>
-    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId58"/>
-    <sheet name="NodeCapacities" sheetId="102" r:id="rId59"/>
-    <sheet name="DisposalOperatingCapacity" sheetId="112" r:id="rId60"/>
-    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId61"/>
-    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId62"/>
-    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId63"/>
-    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId64"/>
-    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId65"/>
-    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId66"/>
-    <sheet name="TruckingTime" sheetId="7" r:id="rId67"/>
-    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId68"/>
-    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId69"/>
-    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId70"/>
-    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId71"/>
-    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId72"/>
-    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId73"/>
-    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId74"/>
-    <sheet name="PipelineExpansionDistance" sheetId="133" r:id="rId75"/>
-    <sheet name="PipelineCapexCapacityBased" sheetId="98" r:id="rId76"/>
-    <sheet name="PipelineCapacityIncrements" sheetId="97" r:id="rId77"/>
-    <sheet name="PipelineDiameterValues" sheetId="78" r:id="rId78"/>
-    <sheet name="TreatmentEfficiency" sheetId="107" r:id="rId79"/>
-    <sheet name="RemovalEfficiency" sheetId="114" r:id="rId80"/>
-    <sheet name="DesalinationTechnologies" sheetId="111" r:id="rId81"/>
-    <sheet name="DesalinationSites" sheetId="113" r:id="rId82"/>
-    <sheet name="BeneficialReuseCredit" sheetId="127" r:id="rId83"/>
-    <sheet name="CompletionsPadOutsideSystem" sheetId="110" r:id="rId84"/>
-    <sheet name="Hydraulics" sheetId="93" r:id="rId85"/>
-    <sheet name="Economics" sheetId="95" r:id="rId86"/>
-    <sheet name="PadWaterQuality" sheetId="99" r:id="rId87"/>
-    <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId88"/>
-    <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId89"/>
-    <sheet name="TreatmentExpansionLeadTime" sheetId="128" r:id="rId90"/>
-    <sheet name="DisposalExpansionLeadTime" sheetId="129" r:id="rId91"/>
-    <sheet name="StorageExpansionLeadTime" sheetId="130" r:id="rId92"/>
-    <sheet name="PipelineExpansionLeadTime_Dist" sheetId="131" r:id="rId93"/>
-    <sheet name="PipelineExpansionLeadTime_Capac" sheetId="132" r:id="rId94"/>
+    <sheet name="RKA" sheetId="134" r:id="rId34"/>
+    <sheet name="ROA" sheetId="121" r:id="rId35"/>
+    <sheet name="PCT" sheetId="42" r:id="rId36"/>
+    <sheet name="FCT" sheetId="70" r:id="rId37"/>
+    <sheet name="PKT" sheetId="43" r:id="rId38"/>
+    <sheet name="CKT" sheetId="44" r:id="rId39"/>
+    <sheet name="CCT" sheetId="74" r:id="rId40"/>
+    <sheet name="CST" sheetId="64" r:id="rId41"/>
+    <sheet name="RST" sheetId="122" r:id="rId42"/>
+    <sheet name="ROT" sheetId="123" r:id="rId43"/>
+    <sheet name="SOT" sheetId="124" r:id="rId44"/>
+    <sheet name="RKT" sheetId="135" r:id="rId45"/>
+    <sheet name="Elevation" sheetId="115" r:id="rId46"/>
+    <sheet name="CompletionsDemand" sheetId="8" r:id="rId47"/>
+    <sheet name="PadRates" sheetId="65" r:id="rId48"/>
+    <sheet name="FlowbackRates" sheetId="75" r:id="rId49"/>
+    <sheet name="WellPressure" sheetId="116" r:id="rId50"/>
+    <sheet name="InitialPipelineCapacity" sheetId="118" r:id="rId51"/>
+    <sheet name="InitialPipelineDiameters" sheetId="117" r:id="rId52"/>
+    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId53"/>
+    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId54"/>
+    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId55"/>
+    <sheet name="ReuseMinimum" sheetId="125" r:id="rId56"/>
+    <sheet name="ReuseCapacity" sheetId="126" r:id="rId57"/>
+    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId58"/>
+    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId59"/>
+    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId60"/>
+    <sheet name="NodeCapacities" sheetId="102" r:id="rId61"/>
+    <sheet name="DisposalOperatingCapacity" sheetId="112" r:id="rId62"/>
+    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId63"/>
+    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId64"/>
+    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId65"/>
+    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId66"/>
+    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId67"/>
+    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId68"/>
+    <sheet name="TruckingTime" sheetId="7" r:id="rId69"/>
+    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId70"/>
+    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId71"/>
+    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId72"/>
+    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId73"/>
+    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId74"/>
+    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId75"/>
+    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId76"/>
+    <sheet name="PipelineExpansionDistance" sheetId="133" r:id="rId77"/>
+    <sheet name="PipelineCapexCapacityBased" sheetId="98" r:id="rId78"/>
+    <sheet name="PipelineCapacityIncrements" sheetId="97" r:id="rId79"/>
+    <sheet name="PipelineDiameterValues" sheetId="78" r:id="rId80"/>
+    <sheet name="TreatmentEfficiency" sheetId="107" r:id="rId81"/>
+    <sheet name="RemovalEfficiency" sheetId="114" r:id="rId82"/>
+    <sheet name="DesalinationTechnologies" sheetId="111" r:id="rId83"/>
+    <sheet name="DesalinationSites" sheetId="113" r:id="rId84"/>
+    <sheet name="BeneficialReuseCost" sheetId="136" r:id="rId85"/>
+    <sheet name="BeneficialReuseCredit" sheetId="127" r:id="rId86"/>
+    <sheet name="CompletionsPadOutsideSystem" sheetId="110" r:id="rId87"/>
+    <sheet name="Hydraulics" sheetId="93" r:id="rId88"/>
+    <sheet name="Economics" sheetId="95" r:id="rId89"/>
+    <sheet name="PadWaterQuality" sheetId="99" r:id="rId90"/>
+    <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId91"/>
+    <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId92"/>
+    <sheet name="TreatmentExpansionLeadTime" sheetId="128" r:id="rId93"/>
+    <sheet name="DisposalExpansionLeadTime" sheetId="129" r:id="rId94"/>
+    <sheet name="StorageExpansionLeadTime" sheetId="130" r:id="rId95"/>
+    <sheet name="PipelineExpansionLeadTime_Dist" sheetId="131" r:id="rId96"/>
+    <sheet name="PipelineExpansionLeadTime_Capac" sheetId="132" r:id="rId97"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId98"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="74" hidden="1">#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="76" hidden="1">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">TreatmentTechnologies!$A$1:$A$5</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="74">PipelineExpansionDistance!#REF!</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="76">PipelineExpansionDistance!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -134,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="266">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -926,6 +932,12 @@
   </si>
   <si>
     <t>pipeline_expansion_lead_time</t>
+  </si>
+  <si>
+    <t>Treatment Sites to Disposal Piping Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
+  </si>
+  <si>
+    <t>Treatment Sites to Disposal Trucking Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
   </si>
 </sst>
 </file>
@@ -1307,7 +1319,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1438,6 +1450,9 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1511,6 +1526,295 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Overview"/>
+      <sheetName val="Schematic"/>
+      <sheetName val="Units"/>
+      <sheetName val="ProductionPads"/>
+      <sheetName val="ProductionTanks"/>
+      <sheetName val="CompletionsPads"/>
+      <sheetName val="SWDSites"/>
+      <sheetName val="FreshwaterSources"/>
+      <sheetName val="StorageSites"/>
+      <sheetName val="TreatmentSites"/>
+      <sheetName val="TreatmentTechnologies"/>
+      <sheetName val="ReuseOptions"/>
+      <sheetName val="NetworkNodes"/>
+      <sheetName val="PipelineDiameters"/>
+      <sheetName val="StorageCapacities"/>
+      <sheetName val="TreatmentCapacities"/>
+      <sheetName val="InjectionCapacities"/>
+      <sheetName val="PNA"/>
+      <sheetName val="CNA"/>
+      <sheetName val="CCA"/>
+      <sheetName val="NNA"/>
+      <sheetName val="NCA"/>
+      <sheetName val="NKA"/>
+      <sheetName val="NRA"/>
+      <sheetName val="NSA"/>
+      <sheetName val="NOA"/>
+      <sheetName val="SNA"/>
+      <sheetName val="SOA"/>
+      <sheetName val="FCA"/>
+      <sheetName val="RCA"/>
+      <sheetName val="RSA"/>
+      <sheetName val="SCA"/>
+      <sheetName val="RNA"/>
+      <sheetName val="ROA"/>
+      <sheetName val="RKA"/>
+      <sheetName val="PCT"/>
+      <sheetName val="FCT"/>
+      <sheetName val="PKT"/>
+      <sheetName val="CKT"/>
+      <sheetName val="CCT"/>
+      <sheetName val="CST"/>
+      <sheetName val="RST"/>
+      <sheetName val="ROT"/>
+      <sheetName val="SOT"/>
+      <sheetName val="RKT"/>
+      <sheetName val="Elevation"/>
+      <sheetName val="CompletionsDemand"/>
+      <sheetName val="PadRates"/>
+      <sheetName val="FlowbackRates"/>
+      <sheetName val="WellPressure"/>
+      <sheetName val="InitialPipelineCapacity"/>
+      <sheetName val="InitialPipelineDiameters"/>
+      <sheetName val="InitialDisposalCapacity"/>
+      <sheetName val="InitialStorageCapacity"/>
+      <sheetName val="InitialTreatmentCapacity"/>
+      <sheetName val="ReuseMinimum"/>
+      <sheetName val="ReuseCapacity"/>
+      <sheetName val="FreshwaterSourcingAvailability"/>
+      <sheetName val="CompletionsPadStorage"/>
+      <sheetName val="PadOffloadingCapacity"/>
+      <sheetName val="NodeCapacities"/>
+      <sheetName val="DisposalOperatingCapacity"/>
+      <sheetName val="DisposalOperationalCost"/>
+      <sheetName val="TreatmentOperationalCost"/>
+      <sheetName val="ReuseOperationalCost"/>
+      <sheetName val="PipelineOperationalCost"/>
+      <sheetName val="FreshSourcingCost"/>
+      <sheetName val="TruckingHourlyCost"/>
+      <sheetName val="TruckingTime"/>
+      <sheetName val="DisposalExpansionCost"/>
+      <sheetName val="DisposalCapacityIncrements"/>
+      <sheetName val="StorageExpansionCost"/>
+      <sheetName val="StorageCapacityIncrements"/>
+      <sheetName val="TreatmentExpansionCost"/>
+      <sheetName val="TreatmentCapacityIncrements"/>
+      <sheetName val="PipelineCapexDistanceBased"/>
+      <sheetName val="PipelineExpansionDistance"/>
+      <sheetName val="PipelineCapexCapacityBased"/>
+      <sheetName val="PipelineCapacityIncrements"/>
+      <sheetName val="PipelineDiameterValues"/>
+      <sheetName val="TreatmentEfficiency"/>
+      <sheetName val="RemovalEfficiency"/>
+      <sheetName val="DesalinationTechnologies"/>
+      <sheetName val="DesalinationSites"/>
+      <sheetName val="BeneficialReuseCost"/>
+      <sheetName val="BeneficialReuseCredit"/>
+      <sheetName val="CompletionsPadOutsideSystem"/>
+      <sheetName val="Hydraulics"/>
+      <sheetName val="Economics"/>
+      <sheetName val="PadWaterQuality"/>
+      <sheetName val="StorageInitialWaterQuality"/>
+      <sheetName val="PadStorageInitialWaterQuality"/>
+      <sheetName val="TreatmentExpansionLeadTime"/>
+      <sheetName val="DisposalExpansionLeadTime"/>
+      <sheetName val="StorageExpansionLeadTime"/>
+      <sheetName val="PipelineExpansionLeadTime_Dist"/>
+      <sheetName val="PipelineExpansionLeadTime_Capac"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>INDEX</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>VALUE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>volume</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>bbl</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>distance</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>mile</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>diameter</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>inch</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>concentration</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>mg/liter</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>currency</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>USD</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>time</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>day</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>pressure</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>psi</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>elevation</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>foot</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>decision period</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>week</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
+      <sheetData sheetId="48"/>
+      <sheetData sheetId="49"/>
+      <sheetData sheetId="50"/>
+      <sheetData sheetId="51"/>
+      <sheetData sheetId="52"/>
+      <sheetData sheetId="53"/>
+      <sheetData sheetId="54"/>
+      <sheetData sheetId="55"/>
+      <sheetData sheetId="56"/>
+      <sheetData sheetId="57"/>
+      <sheetData sheetId="58"/>
+      <sheetData sheetId="59"/>
+      <sheetData sheetId="60"/>
+      <sheetData sheetId="61"/>
+      <sheetData sheetId="62"/>
+      <sheetData sheetId="63"/>
+      <sheetData sheetId="64"/>
+      <sheetData sheetId="65"/>
+      <sheetData sheetId="66"/>
+      <sheetData sheetId="67"/>
+      <sheetData sheetId="68"/>
+      <sheetData sheetId="69"/>
+      <sheetData sheetId="70"/>
+      <sheetData sheetId="71"/>
+      <sheetData sheetId="72"/>
+      <sheetData sheetId="73"/>
+      <sheetData sheetId="74"/>
+      <sheetData sheetId="75"/>
+      <sheetData sheetId="76"/>
+      <sheetData sheetId="77"/>
+      <sheetData sheetId="78"/>
+      <sheetData sheetId="79"/>
+      <sheetData sheetId="80"/>
+      <sheetData sheetId="81"/>
+      <sheetData sheetId="82"/>
+      <sheetData sheetId="83"/>
+      <sheetData sheetId="84"/>
+      <sheetData sheetId="85"/>
+      <sheetData sheetId="86"/>
+      <sheetData sheetId="87"/>
+      <sheetData sheetId="88"/>
+      <sheetData sheetId="89"/>
+      <sheetData sheetId="90"/>
+      <sheetData sheetId="91"/>
+      <sheetData sheetId="92"/>
+      <sheetData sheetId="93"/>
+      <sheetData sheetId="94"/>
+      <sheetData sheetId="95"/>
+      <sheetData sheetId="96"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4415,6 +4719,30 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D63A4D-10C9-D842-83F3-C808B5A14FFE}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525A3BF6-1973-4856-86F5-89173E1F6931}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4461,7 +4789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6ED8ED-0A77-4974-A7C2-D2B875DA1401}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4511,7 +4839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F615298C-1D1C-4004-91BA-05C3C07D8B7C}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4551,7 +4879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AE275C-BC38-44C0-8EFB-EA0A3ABCF1EE}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4600,7 +4928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90457C74-863B-4C67-B58B-571271FAEA0E}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4631,42 +4959,6 @@
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37622F2B-1E4B-46C9-B210-3150CCBB5892}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="6"/>
-    </row>
-    <row r="3" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4753,6 +5045,42 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37622F2B-1E4B-46C9-B210-3150CCBB5892}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A52059-0CB1-474F-ACFF-2997470BE1E9}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4790,7 +5118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE35D21-A9CB-462D-A985-6B6D4051745F}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4835,7 +5163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C8F968-B569-4630-B489-36D60677DD57}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4880,7 +5208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6131FC4-DDA8-4CA5-9995-BA95F5C41F90}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4931,7 +5259,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D036847-7864-B54F-959A-A9BC28F2FAD9}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B5B5E2-5BB6-4D8A-A59D-BCD5CAC9BC96}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -5051,7 +5403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6FA210-6C83-4CC4-AF45-F41CDC53F769}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -5256,7 +5608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EF4E1D-6CE0-4F02-8B9E-F2818C0A814C}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -5678,7 +6030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68666333-AE69-4574-92B2-6BE3A00DF612}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -5933,7 +6285,113 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675FE18E-3C30-49FC-B6A0-0A6D3F02EBB0}">
+  <dimension ref="A1:O15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="3.5" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.1640625" style="1"/>
+    <col min="13" max="13" width="11.1640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D444DCF-56F0-450B-930F-1DD02EF4264D}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -7100,7 +7558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44F1704-24BE-48F1-9574-42F155399A4D}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -7634,113 +8092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675FE18E-3C30-49FC-B6A0-0A6D3F02EBB0}">
-  <dimension ref="A1:O15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="9.1640625" style="1"/>
-    <col min="3" max="3" width="3.5" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.1640625" style="1"/>
-    <col min="13" max="13" width="11.1640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.1640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7E21CA-E0F8-4445-8FC2-328828AC1FFE}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -11745,7 +12097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D65BC4-7454-4A45-AA93-771B11A13108}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -11788,7 +12140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDF796A-A87C-4F37-A825-AF0AD18C802A}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -11835,7 +12187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A13F53-E3AE-452E-A1A1-316A2C800322}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -11888,7 +12240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F8A3C4-CDFB-42B9-A561-3BE030B562A7}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -12240,7 +12592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F0BCF9-7789-4700-AF4D-19AFDD7DEF21}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -12592,7 +12944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A2DBF7-A8C0-4CE1-BE66-F8E077B6F0F1}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -12912,7 +13264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAB793D-71C1-4CA2-A5D0-D94D2FB81D42}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -12945,121 +13297,6 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="54"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F216C6A0-7BAD-498F-AAE7-F43EE79415DD}">
-  <sheetPr>
-    <tabColor rgb="FFD9C6FE"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pad Offloading Capacity [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Pad Offloading Capacity [bbl/day]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="54"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF13C221-12DF-4609-BB39-C92B41E7288D}">
-  <sheetPr>
-    <tabColor rgb="FFD9C6FE"/>
-  </sheetPr>
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Node Capacity Capacity [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]", " *absence of node or empty cell signifies no max capacity")</f>
-        <v>Table of Node Capacity Capacity [bbl/day] *absence of node or empty cell signifies no max capacity</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="54"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="54"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="54"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="54"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="54"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="54"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="54"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="54"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="54"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13116,6 +13353,121 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F216C6A0-7BAD-498F-AAE7-F43EE79415DD}">
+  <sheetPr>
+    <tabColor rgb="FFD9C6FE"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Pad Offloading Capacity [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table of Pad Offloading Capacity [bbl/day]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="54"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF13C221-12DF-4609-BB39-C92B41E7288D}">
+  <sheetPr>
+    <tabColor rgb="FFD9C6FE"/>
+  </sheetPr>
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Node Capacity Capacity [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]", " *absence of node or empty cell signifies no max capacity")</f>
+        <v>Table of Node Capacity Capacity [bbl/day] *absence of node or empty cell signifies no max capacity</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="54"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="54"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="54"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="54"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="54"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="54"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="54"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="54"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="54"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="54"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938F1661-765C-4FF3-9C8D-056B836A43E1}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -13320,7 +13672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDED9A13-6613-4A4D-92BC-DD0B79B273AD}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -13362,7 +13714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7050C77-5C7B-4C97-8F2B-C60EA6AF1AED}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -13451,7 +13803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F35D225-B5AF-4E75-9547-7AC1A8034351}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -13489,7 +13841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE24AD9-42B2-417F-BF2D-D0F067DA599C}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -14026,7 +14378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B9AF2E-9304-4DC1-ABFA-7D5DAA6BA0BC}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -14068,7 +14420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35585569-7889-4883-A327-3B12D4AB6358}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -14131,7 +14483,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D257926-ED56-4D32-9A5B-F7129B221F36}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -14181,110 +14533,6 @@
       <c r="A7" s="6"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E5CD4B-C8DB-4A49-956D-761D45563331}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),")]")</f>
-        <v>Table of Disposal Capacity Expansion Cost [USD/(bbl/day)]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-    </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982C988E-F277-4EB8-BD08-045871CAA4ED}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Disposal Capacity Expansion Increments [bbl/day]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="54"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="61"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="61"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14341,6 +14589,110 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E5CD4B-C8DB-4A49-956D-761D45563331}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),")]")</f>
+        <v>Table of Disposal Capacity Expansion Cost [USD/(bbl/day)]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+    </row>
+    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982C988E-F277-4EB8-BD08-045871CAA4ED}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table of Disposal Capacity Expansion Increments [bbl/day]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="54"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="61"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="61"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="61"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344AC655-401B-435E-9F3E-B4AFCEDA07DB}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -14397,7 +14749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F26805-7F3D-4935-8D0C-80B2E9E9F409}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -14448,7 +14800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906D3944-A6F1-468B-A756-A99C077811C6}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -14568,7 +14920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6DB070-53D7-4763-B1D6-04233A007F0E}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -14647,7 +14999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C902C13-E391-4A34-8851-63FF84EE5034}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -14692,7 +15044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A1CA9B-7923-4D65-AAFB-3C314AFCE483}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -15229,7 +15581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD7B182-CFB4-4537-B5F7-69962DD30DA1}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -15286,7 +15638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BBCD48-6980-4EA6-BF3E-79D1C64EA04C}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -15360,150 +15712,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805632D3-BD42-4D5C-8C0F-68DF124ED3E8}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pipeline Diameters [",VLOOKUP("diameter", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Pipeline Diameters [inch]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="54"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="54"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="54"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="54"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="54"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D674F75E-153D-40A1-94D4-31ED20AACD7B}">
-  <sheetPr>
-    <tabColor rgb="FFAFF3DE"/>
-  </sheetPr>
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -15553,6 +15761,150 @@
 </file>
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805632D3-BD42-4D5C-8C0F-68DF124ED3E8}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Pipeline Diameters [",VLOOKUP("diameter", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table of Pipeline Diameters [inch]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="54"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="54"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="54"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="54"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="54"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D674F75E-153D-40A1-94D4-31ED20AACD7B}">
+  <sheetPr>
+    <tabColor rgb="FFAFF3DE"/>
+  </sheetPr>
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FD92FF-3AD4-4D23-8578-311AD898F13B}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -15639,7 +15991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5996B071-C07A-46F0-B343-7584DB2F1269}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -15692,7 +16044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE80B7E4-4C81-4B91-B37B-915E590A92F2}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -15733,7 +16085,42 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAE292C-3BB2-2849-BB83-C54AA781DD52}">
+  <sheetPr>
+    <tabColor rgb="FFAFF3DE"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="str">
+        <f>CONCATENATE( "Table with processing cost for sending water to beneficial reuse [",VLOOKUP("currency", [1]Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("volume", [1]Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table with processing cost for sending water to beneficial reuse [USD/bbl]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="62" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FBE079-FAED-46A7-9D21-827D4D11C1A7}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -15779,7 +16166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2338A37-BF8E-46F2-AA7C-FB95F874D0FC}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -15816,7 +16203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EDDE38-2D71-4494-ABC1-8D5269A138D9}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -15890,7 +16277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F8796-71C2-44EA-9373-5A0165D7B559}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -15935,156 +16322,6 @@
       <c r="B4" s="26">
         <v>20</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134045F2-617D-4B6C-9AE3-C6E73CF3B321}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="58"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="58"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="58"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="58"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="58"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE4BAFD-2A94-4164-976F-B9E5B42E5AAB}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.1640625" style="1"/>
-    <col min="2" max="2" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Initial Water Quality at Storage [", VLOOKUP("concentration", Units!A2:B9, 2, FALSE),,"]")</f>
-        <v>Table of Initial Water Quality at Storage [mg/liter]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="58"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="58"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="58"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA334136-9628-4654-B8E2-BCFE701B0D1B}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Initial Water Quality at Completions Pad Storage [",VLOOKUP("concentration", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Initial Water Quality at Completions Pad Storage [mg/liter]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16139,6 +16376,156 @@
 </file>
 
 <file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134045F2-617D-4B6C-9AE3-C6E73CF3B321}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="58"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="58"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="58"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="58"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="58"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE4BAFD-2A94-4164-976F-B9E5B42E5AAB}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Initial Water Quality at Storage [", VLOOKUP("concentration", Units!A2:B9, 2, FALSE),,"]")</f>
+        <v>Table of Initial Water Quality at Storage [mg/liter]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="58"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="58"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="58"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA334136-9628-4654-B8E2-BCFE701B0D1B}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Initial Water Quality at Completions Pad Storage [",VLOOKUP("concentration", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table of Initial Water Quality at Completions Pad Storage [mg/liter]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="58"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B28A4AC-774D-4F01-8B4F-3E23D6A50C57}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -16268,7 +16655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A3376C-B8BF-456A-9F8F-97FD96566A3A}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -16312,7 +16699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7EC6F2-1522-42F6-A09A-9709AB96F608}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -16369,7 +16756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03D31AA-46D4-464A-9A51-F7F7B8767B7B}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -16410,7 +16797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C876A9-1E8F-4C0D-BF38-C23F08A2F8DA}">
   <sheetPr>
     <tabColor theme="0"/>

--- a/backend/app/internal/assets/pareto_input_template.xlsx
+++ b/backend/app/internal/assets/pareto_input_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelpesce/Desktop/pareto-ui/backend/app/internal/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0546BD1-2ED2-A54D-B775-A13B8D3BAD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35B2066-22E2-6947-9679-4DF36C426259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19420" tabRatio="953" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-35000" yWindow="500" windowWidth="34560" windowHeight="18980" tabRatio="953" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -111,9 +111,6 @@
     <sheet name="PipelineExpansionLeadTime_Dist" sheetId="131" r:id="rId96"/>
     <sheet name="PipelineExpansionLeadTime_Capac" sheetId="132" r:id="rId97"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId98"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="76" hidden="1">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">TreatmentTechnologies!$A$1:$A$5</definedName>
@@ -241,9 +238,6 @@
     <t>Cost for sourcing freshwater for frac</t>
   </si>
   <si>
-    <t>Figure 1: Illustration of the optimization workflow</t>
-  </si>
-  <si>
     <t>Reuse Costs</t>
   </si>
   <si>
@@ -938,6 +932,9 @@
   </si>
   <si>
     <t>Treatment Sites to Disposal Trucking Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
+  </si>
+  <si>
+    <t>Table with processing cost for sending water to beneficial reuse [USD/bbl]</t>
   </si>
 </sst>
 </file>
@@ -1319,7 +1316,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1450,9 +1447,6 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1477,344 +1471,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>503714</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>4946</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>404754</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>144522</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{087B3C07-F1EA-47EB-AEEC-96EF7CAC7D17}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6955974" y="1113310"/>
-          <a:ext cx="3166753" cy="4167290"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Overview"/>
-      <sheetName val="Schematic"/>
-      <sheetName val="Units"/>
-      <sheetName val="ProductionPads"/>
-      <sheetName val="ProductionTanks"/>
-      <sheetName val="CompletionsPads"/>
-      <sheetName val="SWDSites"/>
-      <sheetName val="FreshwaterSources"/>
-      <sheetName val="StorageSites"/>
-      <sheetName val="TreatmentSites"/>
-      <sheetName val="TreatmentTechnologies"/>
-      <sheetName val="ReuseOptions"/>
-      <sheetName val="NetworkNodes"/>
-      <sheetName val="PipelineDiameters"/>
-      <sheetName val="StorageCapacities"/>
-      <sheetName val="TreatmentCapacities"/>
-      <sheetName val="InjectionCapacities"/>
-      <sheetName val="PNA"/>
-      <sheetName val="CNA"/>
-      <sheetName val="CCA"/>
-      <sheetName val="NNA"/>
-      <sheetName val="NCA"/>
-      <sheetName val="NKA"/>
-      <sheetName val="NRA"/>
-      <sheetName val="NSA"/>
-      <sheetName val="NOA"/>
-      <sheetName val="SNA"/>
-      <sheetName val="SOA"/>
-      <sheetName val="FCA"/>
-      <sheetName val="RCA"/>
-      <sheetName val="RSA"/>
-      <sheetName val="SCA"/>
-      <sheetName val="RNA"/>
-      <sheetName val="ROA"/>
-      <sheetName val="RKA"/>
-      <sheetName val="PCT"/>
-      <sheetName val="FCT"/>
-      <sheetName val="PKT"/>
-      <sheetName val="CKT"/>
-      <sheetName val="CCT"/>
-      <sheetName val="CST"/>
-      <sheetName val="RST"/>
-      <sheetName val="ROT"/>
-      <sheetName val="SOT"/>
-      <sheetName val="RKT"/>
-      <sheetName val="Elevation"/>
-      <sheetName val="CompletionsDemand"/>
-      <sheetName val="PadRates"/>
-      <sheetName val="FlowbackRates"/>
-      <sheetName val="WellPressure"/>
-      <sheetName val="InitialPipelineCapacity"/>
-      <sheetName val="InitialPipelineDiameters"/>
-      <sheetName val="InitialDisposalCapacity"/>
-      <sheetName val="InitialStorageCapacity"/>
-      <sheetName val="InitialTreatmentCapacity"/>
-      <sheetName val="ReuseMinimum"/>
-      <sheetName val="ReuseCapacity"/>
-      <sheetName val="FreshwaterSourcingAvailability"/>
-      <sheetName val="CompletionsPadStorage"/>
-      <sheetName val="PadOffloadingCapacity"/>
-      <sheetName val="NodeCapacities"/>
-      <sheetName val="DisposalOperatingCapacity"/>
-      <sheetName val="DisposalOperationalCost"/>
-      <sheetName val="TreatmentOperationalCost"/>
-      <sheetName val="ReuseOperationalCost"/>
-      <sheetName val="PipelineOperationalCost"/>
-      <sheetName val="FreshSourcingCost"/>
-      <sheetName val="TruckingHourlyCost"/>
-      <sheetName val="TruckingTime"/>
-      <sheetName val="DisposalExpansionCost"/>
-      <sheetName val="DisposalCapacityIncrements"/>
-      <sheetName val="StorageExpansionCost"/>
-      <sheetName val="StorageCapacityIncrements"/>
-      <sheetName val="TreatmentExpansionCost"/>
-      <sheetName val="TreatmentCapacityIncrements"/>
-      <sheetName val="PipelineCapexDistanceBased"/>
-      <sheetName val="PipelineExpansionDistance"/>
-      <sheetName val="PipelineCapexCapacityBased"/>
-      <sheetName val="PipelineCapacityIncrements"/>
-      <sheetName val="PipelineDiameterValues"/>
-      <sheetName val="TreatmentEfficiency"/>
-      <sheetName val="RemovalEfficiency"/>
-      <sheetName val="DesalinationTechnologies"/>
-      <sheetName val="DesalinationSites"/>
-      <sheetName val="BeneficialReuseCost"/>
-      <sheetName val="BeneficialReuseCredit"/>
-      <sheetName val="CompletionsPadOutsideSystem"/>
-      <sheetName val="Hydraulics"/>
-      <sheetName val="Economics"/>
-      <sheetName val="PadWaterQuality"/>
-      <sheetName val="StorageInitialWaterQuality"/>
-      <sheetName val="PadStorageInitialWaterQuality"/>
-      <sheetName val="TreatmentExpansionLeadTime"/>
-      <sheetName val="DisposalExpansionLeadTime"/>
-      <sheetName val="StorageExpansionLeadTime"/>
-      <sheetName val="PipelineExpansionLeadTime_Dist"/>
-      <sheetName val="PipelineExpansionLeadTime_Capac"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>INDEX</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>VALUE</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>volume</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>bbl</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>distance</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>mile</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>diameter</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>inch</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>concentration</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>mg/liter</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>currency</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>USD</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>time</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>day</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>pressure</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>psi</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>elevation</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>foot</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>decision period</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>week</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-      <sheetData sheetId="59"/>
-      <sheetData sheetId="60"/>
-      <sheetData sheetId="61"/>
-      <sheetData sheetId="62"/>
-      <sheetData sheetId="63"/>
-      <sheetData sheetId="64"/>
-      <sheetData sheetId="65"/>
-      <sheetData sheetId="66"/>
-      <sheetData sheetId="67"/>
-      <sheetData sheetId="68"/>
-      <sheetData sheetId="69"/>
-      <sheetData sheetId="70"/>
-      <sheetData sheetId="71"/>
-      <sheetData sheetId="72"/>
-      <sheetData sheetId="73"/>
-      <sheetData sheetId="74"/>
-      <sheetData sheetId="75"/>
-      <sheetData sheetId="76"/>
-      <sheetData sheetId="77"/>
-      <sheetData sheetId="78"/>
-      <sheetData sheetId="79"/>
-      <sheetData sheetId="80"/>
-      <sheetData sheetId="81"/>
-      <sheetData sheetId="82"/>
-      <sheetData sheetId="83"/>
-      <sheetData sheetId="84"/>
-      <sheetData sheetId="85"/>
-      <sheetData sheetId="86"/>
-      <sheetData sheetId="87"/>
-      <sheetData sheetId="88"/>
-      <sheetData sheetId="89"/>
-      <sheetData sheetId="90"/>
-      <sheetData sheetId="91"/>
-      <sheetData sheetId="92"/>
-      <sheetData sheetId="93"/>
-      <sheetData sheetId="94"/>
-      <sheetData sheetId="95"/>
-      <sheetData sheetId="96"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2119,9 +1775,7 @@
   </sheetPr>
   <dimension ref="B1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2556,19 +2210,17 @@
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
       <c r="K31" s="13"/>
-      <c r="M31" s="19" t="s">
-        <v>33</v>
-      </c>
+      <c r="M31" s="19"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="10"/>
       <c r="C32" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
@@ -2579,12 +2231,12 @@
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
       <c r="C33" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
@@ -2595,12 +2247,12 @@
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="10"/>
       <c r="C34" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
       <c r="F34" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
@@ -2611,12 +2263,12 @@
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="10"/>
       <c r="C35" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
@@ -2627,12 +2279,12 @@
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="10"/>
       <c r="C36" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
@@ -2670,7 +2322,6 @@
     <hyperlink ref="C36" location="PipelineCapexDistanceBased!A1" display="Pipeline Expansion" xr:uid="{71654592-CF02-4564-8F69-88D94B3F411B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2700,7 +2351,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -2757,17 +2408,17 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -2775,12 +2426,12 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -2817,7 +2468,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -2864,7 +2515,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -2990,32 +2641,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3050,17 +2701,17 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -3068,12 +2719,12 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -3114,17 +2765,17 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -3132,12 +2783,12 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -3178,17 +2829,17 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -3196,12 +2847,12 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -3235,12 +2886,12 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -3291,12 +2942,12 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -3412,12 +3063,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="6"/>
     </row>
@@ -3450,12 +3101,12 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -3574,12 +3225,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="6"/>
     </row>
@@ -3648,12 +3299,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -3734,12 +3385,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -3818,12 +3469,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -3906,12 +3557,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -3994,12 +3645,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -4070,12 +3721,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -4119,12 +3770,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" s="6"/>
     </row>
@@ -4178,21 +3829,21 @@
   <sheetData>
     <row r="1" spans="1:53" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="E2" s="51" t="s">
         <v>47</v>
-      </c>
-      <c r="E2" s="51" t="s">
-        <v>48</v>
       </c>
       <c r="F2" s="43"/>
       <c r="G2" s="43"/>
@@ -4203,52 +3854,52 @@
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="D3" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="E3" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="40" t="s">
+      <c r="G3" s="33" t="s">
         <v>52</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>53</v>
       </c>
       <c r="H3" s="37"/>
       <c r="I3" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="35" t="s">
         <v>54</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="D4" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="E4" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="F4" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="33" t="s">
         <v>59</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>60</v>
       </c>
       <c r="H4" s="37"/>
       <c r="I4" s="33"/>
@@ -4257,13 +3908,13 @@
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="D5" s="38" t="s">
         <v>62</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>63</v>
       </c>
       <c r="E5" s="41"/>
       <c r="F5" s="34"/>
@@ -4275,22 +3926,22 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="D6" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="E6" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="33" t="s">
         <v>66</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>67</v>
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="34"/>
@@ -4299,22 +3950,22 @@
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="D7" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="E7" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="F7" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="33" t="s">
         <v>71</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>72</v>
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="34"/>
@@ -4323,13 +3974,13 @@
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="D8" s="38" t="s">
         <v>74</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>75</v>
       </c>
       <c r="E8" s="41"/>
       <c r="F8" s="34"/>
@@ -4339,87 +3990,87 @@
       <c r="J8" s="34"/>
       <c r="K8" s="36"/>
       <c r="AT8" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AU8" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AV8" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AW8" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AX8" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AY8" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AZ8" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="BA8" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="B9" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="D9" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="E9" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="34" t="s">
         <v>240</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>241</v>
       </c>
       <c r="H9" s="38"/>
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
       <c r="K9" s="36"/>
       <c r="AT9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AU9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AV9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AY9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AZ9" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BA9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="38" t="s">
         <v>243</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>244</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="34"/>
@@ -4429,72 +4080,72 @@
       <c r="J10" s="34"/>
       <c r="K10" s="36"/>
       <c r="AT10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AU10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AV10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW10" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AW10" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="AX10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AY10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AZ10" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="BA10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:53" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="D11" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="E11" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="F11" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="48" t="s">
         <v>80</v>
-      </c>
-      <c r="F11" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="48" t="s">
-        <v>81</v>
       </c>
       <c r="H11" s="42"/>
       <c r="I11" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="J11" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" s="48" t="s">
-        <v>83</v>
-      </c>
       <c r="AU11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BA11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.2">
       <c r="AU12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="BA12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4548,12 +4199,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="6"/>
     </row>
@@ -4591,12 +4242,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -4636,12 +4287,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="6"/>
     </row>
@@ -4671,12 +4322,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -4734,7 +4385,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -4761,12 +4412,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -4808,12 +4459,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="6"/>
     </row>
@@ -4856,12 +4507,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" s="6"/>
     </row>
@@ -4898,12 +4549,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -4947,12 +4598,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -4973,9 +4624,7 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4991,7 +4640,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5061,12 +4710,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="6"/>
     </row>
@@ -5097,12 +4746,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -5135,12 +4784,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -5180,12 +4829,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -5225,12 +4874,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -5275,7 +4924,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -5307,15 +4956,15 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5431,163 +5080,163 @@
     </row>
     <row r="2" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AK2" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AL2" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AM2" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AN2" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AO2" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AR2" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AS2" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AT2" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AU2" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AV2" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="AV2" s="6" t="s">
+      <c r="AW2" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="AW2" s="6" t="s">
+      <c r="AX2" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="AX2" s="6" t="s">
+      <c r="AY2" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="AY2" s="6" t="s">
+      <c r="AZ2" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="AZ2" s="6" t="s">
+      <c r="BA2" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="BA2" s="6" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -5634,163 +5283,163 @@
     </row>
     <row r="2" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AK2" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AL2" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AM2" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AN2" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AO2" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AR2" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AS2" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AT2" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AU2" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AV2" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="AV2" s="6" t="s">
+      <c r="AW2" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="AW2" s="6" t="s">
+      <c r="AX2" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="AX2" s="6" t="s">
+      <c r="AY2" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="AY2" s="6" t="s">
+      <c r="AZ2" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="AZ2" s="6" t="s">
+      <c r="BA2" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="BA2" s="6" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -6057,163 +5706,163 @@
     </row>
     <row r="2" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AK2" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AL2" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AM2" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AN2" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AO2" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AR2" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AS2" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AT2" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AU2" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AV2" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="AV2" s="6" t="s">
+      <c r="AW2" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="AW2" s="6" t="s">
+      <c r="AX2" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="AX2" s="6" t="s">
+      <c r="AY2" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="AY2" s="6" t="s">
+      <c r="AZ2" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="AZ2" s="6" t="s">
+      <c r="BA2" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="BA2" s="6" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.2">
@@ -6307,28 +5956,28 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -6336,52 +5985,52 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -6411,16 +6060,16 @@
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="Q1" s="1">
         <v>0.01</v>
@@ -6428,163 +6077,163 @@
     </row>
     <row r="2" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AK2" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AL2" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AM2" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AN2" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AO2" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AR2" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AS2" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AT2" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AU2" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AV2" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="AV2" s="6" t="s">
+      <c r="AW2" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="AW2" s="6" t="s">
+      <c r="AX2" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="AX2" s="6" t="s">
+      <c r="AY2" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="AY2" s="6" t="s">
+      <c r="AZ2" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="AZ2" s="6" t="s">
+      <c r="BA2" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="BA2" s="6" t="s">
-        <v>210</v>
       </c>
       <c r="BC2" s="1"/>
     </row>
@@ -7580,7 +7229,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -8117,12 +7766,12 @@
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -12120,10 +11769,10 @@
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -12163,10 +11812,10 @@
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -12210,7 +11859,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -12263,163 +11912,163 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AK2" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AL2" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AM2" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AN2" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AO2" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AR2" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AS2" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AT2" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AU2" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AV2" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="AV2" s="6" t="s">
+      <c r="AW2" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="AW2" s="6" t="s">
+      <c r="AX2" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="AX2" s="6" t="s">
+      <c r="AY2" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="AY2" s="6" t="s">
+      <c r="AZ2" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="AZ2" s="6" t="s">
+      <c r="BA2" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="BA2" s="6" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.2">
@@ -12615,163 +12264,163 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AK2" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AL2" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AM2" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AN2" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AO2" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AR2" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AS2" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AT2" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AU2" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AV2" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="AV2" s="6" t="s">
+      <c r="AW2" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="AW2" s="6" t="s">
+      <c r="AX2" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="AX2" s="6" t="s">
+      <c r="AY2" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="AY2" s="6" t="s">
+      <c r="AZ2" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="AZ2" s="6" t="s">
+      <c r="BA2" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="BA2" s="6" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.2">
@@ -12965,19 +12614,19 @@
         <v>Table of Freshwater Sourcing Availability [bbl/day]</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F1" s="1">
         <v>71428.571428571406</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I1" s="1">
         <v>42857.142857142899</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L1" s="1">
         <v>0.7</v>
@@ -12985,163 +12634,163 @@
     </row>
     <row r="2" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AK2" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AL2" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AM2" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AN2" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AO2" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AR2" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AS2" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AT2" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AU2" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AV2" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="AV2" s="6" t="s">
+      <c r="AW2" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="AW2" s="6" t="s">
+      <c r="AX2" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="AX2" s="6" t="s">
+      <c r="AY2" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="AY2" s="6" t="s">
+      <c r="AZ2" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="AZ2" s="6" t="s">
+      <c r="BA2" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="BA2" s="6" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -13288,10 +12937,10 @@
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -13330,7 +12979,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -13375,10 +13024,10 @@
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -13415,10 +13064,10 @@
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -13492,163 +13141,163 @@
     </row>
     <row r="2" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AK2" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AL2" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AM2" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AN2" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AO2" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AR2" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AS2" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AT2" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AU2" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AV2" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="AV2" s="6" t="s">
+      <c r="AW2" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="AW2" s="6" t="s">
+      <c r="AX2" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="AX2" s="6" t="s">
+      <c r="AY2" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="AY2" s="6" t="s">
+      <c r="AZ2" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="AZ2" s="6" t="s">
+      <c r="BA2" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="BA2" s="6" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -13662,7 +13311,7 @@
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.2">
       <c r="D9" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -13695,10 +13344,10 @@
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -13738,13 +13387,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -13826,10 +13475,10 @@
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -13865,7 +13514,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -14401,10 +14050,10 @@
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -14442,10 +14091,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -14499,12 +14148,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -14563,7 +14212,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -14613,7 +14262,7 @@
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -14664,10 +14313,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -14715,7 +14364,7 @@
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -14772,10 +14421,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -14824,10 +14473,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -14945,7 +14594,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -15025,15 +14674,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B3" s="26">
         <v>300000</v>
@@ -15070,7 +14719,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -15603,10 +15252,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -15663,15 +15312,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" s="54">
         <v>0</v>
@@ -15679,7 +15328,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" s="54">
         <v>14285.714285714286</v>
@@ -15687,7 +15336,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" s="54">
         <v>35714.285714285717</v>
@@ -15695,7 +15344,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6" s="54">
         <v>42857.142857142855</v>
@@ -15703,7 +15352,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" s="54">
         <v>50000</v>
@@ -15741,7 +15390,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -15783,10 +15432,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -15835,18 +15484,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -15922,18 +15571,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -16008,15 +15657,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -16051,7 +15700,9 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16061,15 +15712,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -16093,7 +15744,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16102,17 +15753,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>CONCATENATE( "Table with processing cost for sending water to beneficial reuse [",VLOOKUP("currency", [1]Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("volume", [1]Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table with processing cost for sending water to beneficial reuse [USD/bbl]</v>
+      <c r="A1" s="1" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="62" t="s">
-        <v>260</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>46</v>
+      <c r="A2" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -16143,10 +15793,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -16183,15 +15833,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -16223,20 +15873,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B3" s="25">
         <v>110</v>
@@ -16244,7 +15894,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B4" s="30">
         <v>0.03</v>
@@ -16252,24 +15902,24 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B5" s="25">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B6" s="26">
         <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -16296,20 +15946,20 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B3" s="30">
         <v>0.08</v>
@@ -16317,7 +15967,7 @@
     </row>
     <row r="4" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B4" s="26">
         <v>20</v>
@@ -16354,7 +16004,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -16405,10 +16055,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -16461,10 +16111,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -16510,10 +16160,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -16555,10 +16205,10 @@
     </row>
     <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -16679,7 +16329,7 @@
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -16723,7 +16373,7 @@
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -16778,15 +16428,15 @@
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B3" s="57">
         <v>0.2</v>
@@ -16819,10 +16469,10 @@
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>

--- a/backend/app/internal/assets/pareto_input_template.xlsx
+++ b/backend/app/internal/assets/pareto_input_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelpesce/Desktop/pareto-ui/backend/app/internal/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35B2066-22E2-6947-9679-4DF36C426259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674FCFAE-6040-9643-A197-CF9F86586D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35000" yWindow="500" windowWidth="34560" windowHeight="18980" tabRatio="953" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="0" yWindow="8440" windowWidth="34560" windowHeight="11780" tabRatio="953" firstSheet="94" activeTab="102" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -110,6 +110,13 @@
     <sheet name="StorageExpansionLeadTime" sheetId="130" r:id="rId95"/>
     <sheet name="PipelineExpansionLeadTime_Dist" sheetId="131" r:id="rId96"/>
     <sheet name="PipelineExpansionLeadTime_Capac" sheetId="132" r:id="rId97"/>
+    <sheet name="SWDDeep" sheetId="137" r:id="rId98"/>
+    <sheet name="SWDAveragePressure" sheetId="138" r:id="rId99"/>
+    <sheet name="SWDProxPAWell" sheetId="139" r:id="rId100"/>
+    <sheet name="SWDProxInactiveWell" sheetId="140" r:id="rId101"/>
+    <sheet name="SWDProxEQ" sheetId="141" r:id="rId102"/>
+    <sheet name="SWDProxFault" sheetId="142" r:id="rId103"/>
+    <sheet name="SWDProxHpOrLpWell" sheetId="143" r:id="rId104"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="76" hidden="1">#REF!</definedName>
@@ -137,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="273">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -935,6 +942,27 @@
   </si>
   <si>
     <t>Table with processing cost for sending water to beneficial reuse [USD/bbl]</t>
+  </si>
+  <si>
+    <t>SWDs - shallow (0) or deep (1)</t>
+  </si>
+  <si>
+    <t>Average pressure/depth in vicinity of well [psi/ft]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to P&amp;A'd well [miles]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to inactive/temporarily abandoned formerly producing well (completed prior to 2000) [miles]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to earthquakes &gt;= 3.0 magnitude [miles]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to high pressure or low pressure injection well [miles]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to fault [miles]</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1344,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1447,6 +1475,9 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1474,9 +1505,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1514,7 +1545,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1620,7 +1651,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1762,7 +1793,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1775,7 +1806,7 @@
   </sheetPr>
   <dimension ref="B1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2379,6 +2410,151 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43624E75-14B8-7140-AAB7-78C62C7F81B5}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7A3D56-D0E0-7644-9ABD-B2C2305B3F6F}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B595BF9D-C714-6543-BB99-6BB0195667C1}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6476C4B-E64B-424F-922F-3419F696DC11}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71CE3F0B-DA65-4644-89E8-69C54E8A2D09}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -16509,4 +16685,62 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6386754-0298-0143-B5D2-5311F4AFDC4F}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B0FD37-6B38-5E47-A627-F3BDABA7E934}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/backend/app/internal/assets/pareto_input_template.xlsx
+++ b/backend/app/internal/assets/pareto_input_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelpesce/Desktop/pareto-ui/backend/app/internal/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674FCFAE-6040-9643-A197-CF9F86586D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67504026-352D-3B42-A427-3C635667645F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8440" windowWidth="34560" windowHeight="11780" tabRatio="953" firstSheet="94" activeTab="102" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="0" yWindow="8440" windowWidth="34560" windowHeight="11780" tabRatio="953" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -105,19 +105,25 @@
     <sheet name="PadWaterQuality" sheetId="99" r:id="rId90"/>
     <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId91"/>
     <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId92"/>
-    <sheet name="TreatmentExpansionLeadTime" sheetId="128" r:id="rId93"/>
-    <sheet name="DisposalExpansionLeadTime" sheetId="129" r:id="rId94"/>
-    <sheet name="StorageExpansionLeadTime" sheetId="130" r:id="rId95"/>
-    <sheet name="PipelineExpansionLeadTime_Dist" sheetId="131" r:id="rId96"/>
-    <sheet name="PipelineExpansionLeadTime_Capac" sheetId="132" r:id="rId97"/>
-    <sheet name="SWDDeep" sheetId="137" r:id="rId98"/>
-    <sheet name="SWDAveragePressure" sheetId="138" r:id="rId99"/>
-    <sheet name="SWDProxPAWell" sheetId="139" r:id="rId100"/>
-    <sheet name="SWDProxInactiveWell" sheetId="140" r:id="rId101"/>
-    <sheet name="SWDProxEQ" sheetId="141" r:id="rId102"/>
-    <sheet name="SWDProxFault" sheetId="142" r:id="rId103"/>
-    <sheet name="SWDProxHpOrLpWell" sheetId="143" r:id="rId104"/>
+    <sheet name="AirEmissionCoefficients" sheetId="145" r:id="rId93"/>
+    <sheet name="TreatmentEmissionCoefficients" sheetId="144" r:id="rId94"/>
+    <sheet name="TreatmentExpansionLeadTime" sheetId="128" r:id="rId95"/>
+    <sheet name="DisposalExpansionLeadTime" sheetId="129" r:id="rId96"/>
+    <sheet name="StorageExpansionLeadTime" sheetId="130" r:id="rId97"/>
+    <sheet name="PipelineExpansionLeadTime_Dist" sheetId="131" r:id="rId98"/>
+    <sheet name="PipelineExpansionLeadTime_Capac" sheetId="132" r:id="rId99"/>
+    <sheet name="SWDDeep" sheetId="137" r:id="rId100"/>
+    <sheet name="SWDAveragePressure" sheetId="138" r:id="rId101"/>
+    <sheet name="SWDProxPAWell" sheetId="139" r:id="rId102"/>
+    <sheet name="SWDProxInactiveWell" sheetId="140" r:id="rId103"/>
+    <sheet name="SWDProxEQ" sheetId="141" r:id="rId104"/>
+    <sheet name="SWDProxFault" sheetId="142" r:id="rId105"/>
+    <sheet name="SWDProxHpOrLpWell" sheetId="143" r:id="rId106"/>
+    <sheet name="SWDRiskFactors" sheetId="146" r:id="rId107"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId108"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="76" hidden="1">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">TreatmentTechnologies!$A$1:$A$5</definedName>
@@ -144,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="293">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -963,6 +969,66 @@
   </si>
   <si>
     <t>Table of SWD proximity to fault [miles]</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>NH3</t>
+  </si>
+  <si>
+    <t>NOx</t>
+  </si>
+  <si>
+    <t>SO2</t>
+  </si>
+  <si>
+    <t>PM 2.5</t>
+  </si>
+  <si>
+    <t>OARO</t>
+  </si>
+  <si>
+    <t>SWD risk factors</t>
+  </si>
+  <si>
+    <t>orphan_well_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>orphan_well_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>inactive_well_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>inactive_well_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>EQ_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>EQ_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>fault_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>fault_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>HP_LP_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>HP_LP_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>HP_threshold</t>
+  </si>
+  <si>
+    <t>psi/ft</t>
+  </si>
+  <si>
+    <t>LP_threshold</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1338,13 +1404,104 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1478,6 +1635,58 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1502,6 +1711,329 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Overview"/>
+      <sheetName val="Schematic"/>
+      <sheetName val="Units"/>
+      <sheetName val="ProductionPads"/>
+      <sheetName val="ProductionTanks"/>
+      <sheetName val="CompletionsPads"/>
+      <sheetName val="SWDSites"/>
+      <sheetName val="ExternalWaterSources"/>
+      <sheetName val="WaterQualityComponents"/>
+      <sheetName val="AirEmissionsComponents"/>
+      <sheetName val="StorageSites"/>
+      <sheetName val="TreatmentSites"/>
+      <sheetName val="TreatmentTechnologies"/>
+      <sheetName val="ReuseOptions"/>
+      <sheetName val="NetworkNodes"/>
+      <sheetName val="PipelineDiameters"/>
+      <sheetName val="StorageCapacities"/>
+      <sheetName val="TreatmentCapacities"/>
+      <sheetName val="InjectionCapacities"/>
+      <sheetName val="PNA"/>
+      <sheetName val="CNA"/>
+      <sheetName val="CCA"/>
+      <sheetName val="NNA"/>
+      <sheetName val="NCA"/>
+      <sheetName val="NKA"/>
+      <sheetName val="NRA"/>
+      <sheetName val="NSA"/>
+      <sheetName val="NOA"/>
+      <sheetName val="SNA"/>
+      <sheetName val="SOA"/>
+      <sheetName val="FCA"/>
+      <sheetName val="RCA"/>
+      <sheetName val="RSA"/>
+      <sheetName val="SCA"/>
+      <sheetName val="RNA"/>
+      <sheetName val="ROA"/>
+      <sheetName val="RKA"/>
+      <sheetName val="PCT"/>
+      <sheetName val="FCT"/>
+      <sheetName val="PKT"/>
+      <sheetName val="CKT"/>
+      <sheetName val="CCT"/>
+      <sheetName val="CST"/>
+      <sheetName val="RST"/>
+      <sheetName val="ROT"/>
+      <sheetName val="SOT"/>
+      <sheetName val="RKT"/>
+      <sheetName val="Elevation"/>
+      <sheetName val="CompletionsDemand"/>
+      <sheetName val="PadRates"/>
+      <sheetName val="FlowbackRates"/>
+      <sheetName val="WellPressure"/>
+      <sheetName val="InitialPipelineCapacity"/>
+      <sheetName val="InitialPipelineDiameters"/>
+      <sheetName val="InitialDisposalCapacity"/>
+      <sheetName val="InitialStorageCapacity"/>
+      <sheetName val="InitialTreatmentCapacity"/>
+      <sheetName val="ReuseMinimum"/>
+      <sheetName val="ReuseCapacity"/>
+      <sheetName val="ExtWaterSourcingAvailability"/>
+      <sheetName val="CompletionsPadStorage"/>
+      <sheetName val="PadOffloadingCapacity"/>
+      <sheetName val="NodeCapacities"/>
+      <sheetName val="DisposalOperatingCapacity"/>
+      <sheetName val="DisposalOperationalCost"/>
+      <sheetName val="TreatmentOperationalCost"/>
+      <sheetName val="ReuseOperationalCost"/>
+      <sheetName val="PipelineOperationalCost"/>
+      <sheetName val="ExternalSourcingCost"/>
+      <sheetName val="TruckingHourlyCost"/>
+      <sheetName val="TruckingTime"/>
+      <sheetName val="DisposalExpansionCost"/>
+      <sheetName val="DisposalCapacityIncrements"/>
+      <sheetName val="StorageExpansionCost"/>
+      <sheetName val="StorageCapacityIncrements"/>
+      <sheetName val="TreatmentExpansionCost"/>
+      <sheetName val="TreatmentCapacityIncrements"/>
+      <sheetName val="PipelineCapexDistanceBased"/>
+      <sheetName val="PipelineExpansionDistance"/>
+      <sheetName val="PipelineCapexCapacityBased"/>
+      <sheetName val="PipelineCapacityIncrements"/>
+      <sheetName val="PipelineDiameterValues"/>
+      <sheetName val="TreatmentEfficiency"/>
+      <sheetName val="RemovalEfficiency"/>
+      <sheetName val="DesalinationTechnologies"/>
+      <sheetName val="DesalinationSites"/>
+      <sheetName val="BeneficialReuseCost"/>
+      <sheetName val="BeneficialReuseCredit"/>
+      <sheetName val="CompletionsPadOutsideSystem"/>
+      <sheetName val="Hydraulics"/>
+      <sheetName val="Economics"/>
+      <sheetName val="ExternalWaterQuality"/>
+      <sheetName val="PadWaterQuality"/>
+      <sheetName val="StorageInitialWaterQuality"/>
+      <sheetName val="AirEmissionCoefficients"/>
+      <sheetName val="TreatmentEmissionCoefficients"/>
+      <sheetName val="PadStorageInitialWaterQuality"/>
+      <sheetName val="TreatmentExpansionLeadTime"/>
+      <sheetName val="DisposalExpansionLeadTime"/>
+      <sheetName val="StorageExpansionLeadTime"/>
+      <sheetName val="PipelineExpansionLeadTime_Dist"/>
+      <sheetName val="PipelineExpansionLeadTime_Capac"/>
+      <sheetName val="SWDDeep"/>
+      <sheetName val="SWDAveragePressure"/>
+      <sheetName val="SWDProxPAWell"/>
+      <sheetName val="SWDProxInactiveWell"/>
+      <sheetName val="SWDProxEQ"/>
+      <sheetName val="SWDProxFault"/>
+      <sheetName val="SWDProxHpOrLpWell"/>
+      <sheetName val="SWDRiskFactors"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>INDEX</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>VALUE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>volume</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>bbl</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>distance</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>mile</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>diameter</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>inch</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>concentration</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>mg/liter</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>currency</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>USD</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>time</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>day</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>pressure</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>psi</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>elevation</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>foot</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>decision period</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>week</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>mass</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>g</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
+      <sheetData sheetId="48"/>
+      <sheetData sheetId="49"/>
+      <sheetData sheetId="50"/>
+      <sheetData sheetId="51"/>
+      <sheetData sheetId="52"/>
+      <sheetData sheetId="53"/>
+      <sheetData sheetId="54"/>
+      <sheetData sheetId="55"/>
+      <sheetData sheetId="56"/>
+      <sheetData sheetId="57"/>
+      <sheetData sheetId="58"/>
+      <sheetData sheetId="59"/>
+      <sheetData sheetId="60"/>
+      <sheetData sheetId="61"/>
+      <sheetData sheetId="62"/>
+      <sheetData sheetId="63"/>
+      <sheetData sheetId="64"/>
+      <sheetData sheetId="65"/>
+      <sheetData sheetId="66"/>
+      <sheetData sheetId="67"/>
+      <sheetData sheetId="68"/>
+      <sheetData sheetId="69"/>
+      <sheetData sheetId="70"/>
+      <sheetData sheetId="71"/>
+      <sheetData sheetId="72"/>
+      <sheetData sheetId="73"/>
+      <sheetData sheetId="74"/>
+      <sheetData sheetId="75"/>
+      <sheetData sheetId="76"/>
+      <sheetData sheetId="77"/>
+      <sheetData sheetId="78"/>
+      <sheetData sheetId="79"/>
+      <sheetData sheetId="80"/>
+      <sheetData sheetId="81"/>
+      <sheetData sheetId="82"/>
+      <sheetData sheetId="83"/>
+      <sheetData sheetId="84"/>
+      <sheetData sheetId="85"/>
+      <sheetData sheetId="86"/>
+      <sheetData sheetId="87"/>
+      <sheetData sheetId="88"/>
+      <sheetData sheetId="89"/>
+      <sheetData sheetId="90"/>
+      <sheetData sheetId="91"/>
+      <sheetData sheetId="92"/>
+      <sheetData sheetId="93"/>
+      <sheetData sheetId="94"/>
+      <sheetData sheetId="95"/>
+      <sheetData sheetId="96"/>
+      <sheetData sheetId="97"/>
+      <sheetData sheetId="98"/>
+      <sheetData sheetId="99"/>
+      <sheetData sheetId="100"/>
+      <sheetData sheetId="101"/>
+      <sheetData sheetId="102"/>
+      <sheetData sheetId="103"/>
+      <sheetData sheetId="104"/>
+      <sheetData sheetId="105"/>
+      <sheetData sheetId="106"/>
+      <sheetData sheetId="107"/>
+      <sheetData sheetId="108"/>
+      <sheetData sheetId="109"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1806,7 +2338,7 @@
   </sheetPr>
   <dimension ref="B1:M37"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2414,6 +2946,64 @@
 </file>
 
 <file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6386754-0298-0143-B5D2-5311F4AFDC4F}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B0FD37-6B38-5E47-A627-F3BDABA7E934}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43624E75-14B8-7140-AAB7-78C62C7F81B5}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2442,7 +3032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7A3D56-D0E0-7644-9ABD-B2C2305B3F6F}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2471,7 +3061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B595BF9D-C714-6543-BB99-6BB0195667C1}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2500,11 +3090,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6476C4B-E64B-424F-922F-3419F696DC11}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
@@ -2529,7 +3119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71CE3F0B-DA65-4644-89E8-69C54E8A2D09}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2551,6 +3141,143 @@
       </c>
       <c r="B2" s="62" t="s">
         <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B272D204-9BC5-9F40-90B0-3D3E0DFE6A2D}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.83203125" style="74" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="74"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="73" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="77" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" s="78">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="77" t="s">
+        <v>281</v>
+      </c>
+      <c r="B4" s="78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="77" t="s">
+        <v>282</v>
+      </c>
+      <c r="B5" s="78">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="77" t="s">
+        <v>283</v>
+      </c>
+      <c r="B6" s="78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="77" t="s">
+        <v>284</v>
+      </c>
+      <c r="B7" s="78">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="77" t="s">
+        <v>285</v>
+      </c>
+      <c r="B8" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="77" t="s">
+        <v>286</v>
+      </c>
+      <c r="B9" s="78">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="77" t="s">
+        <v>287</v>
+      </c>
+      <c r="B10" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="77" t="s">
+        <v>288</v>
+      </c>
+      <c r="B11" s="78">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="77" t="s">
+        <v>289</v>
+      </c>
+      <c r="B12" s="78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="77" t="s">
+        <v>290</v>
+      </c>
+      <c r="B13" s="78">
+        <v>0.7</v>
+      </c>
+      <c r="C13" s="74" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="79" t="s">
+        <v>292</v>
+      </c>
+      <c r="B14" s="80">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="74" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -16352,6 +17079,315 @@
 </file>
 
 <file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C69F2D-49DC-1944-BFFB-2EEA9F71D13F}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="62.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Air Emissions Coefficients ")</f>
+        <v xml:space="preserve">Table of Air Emissions Coefficients </v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="72" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>275</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="str">
+        <f>_xlfn.CONCAT("Trucking [", VLOOKUP("mass", [1]Units!A2:B12, 2, FALSE), "/hour]")</f>
+        <v>Trucking [g/hour]</v>
+      </c>
+      <c r="B3" s="67">
+        <v>2035000</v>
+      </c>
+      <c r="C3" s="67">
+        <v>35.75</v>
+      </c>
+      <c r="D3" s="67">
+        <v>12649.999999999998</v>
+      </c>
+      <c r="E3" s="67">
+        <v>770.00000000000011</v>
+      </c>
+      <c r="F3" s="68">
+        <v>120.99999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="str">
+        <f>_xlfn.CONCAT("Pipeline Operations [", VLOOKUP("mass", [1]Units!A2:B12, 2, FALSE), "/(", VLOOKUP("volume", [1]Units!A2:B12, 2, FALSE), "*", VLOOKUP("distance", [1]Units!A2:B12, 2, FALSE), ")]")</f>
+        <v>Pipeline Operations [g/(bbl*mile)]</v>
+      </c>
+      <c r="B4" s="67">
+        <v>22</v>
+      </c>
+      <c r="C4" s="67">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D4" s="67">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E4" s="67">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="F4" s="68">
+        <v>8.5999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="str">
+        <f>_xlfn.CONCAT("Pipeline Installation [", VLOOKUP("mass", [1]Units!A2:B12, 2, FALSE), "/", VLOOKUP("distance", [1]Units!A2:B12, 2, FALSE), "]")</f>
+        <v>Pipeline Installation [g/mile]</v>
+      </c>
+      <c r="B5" s="67">
+        <v>310000000</v>
+      </c>
+      <c r="C5" s="67">
+        <v>2800</v>
+      </c>
+      <c r="D5" s="67">
+        <v>190000</v>
+      </c>
+      <c r="E5" s="67">
+        <v>100000</v>
+      </c>
+      <c r="F5" s="68">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="str">
+        <f>_xlfn.CONCAT("Disposal [", VLOOKUP("mass", [1]Units!A2:B12, 2, FALSE), "/", VLOOKUP("volume", [1]Units!A2:B12, 2, FALSE), "]")</f>
+        <v>Disposal [g/bbl]</v>
+      </c>
+      <c r="B6" s="67">
+        <v>970</v>
+      </c>
+      <c r="C6" s="67">
+        <v>0.13</v>
+      </c>
+      <c r="D6" s="67">
+        <v>9.5</v>
+      </c>
+      <c r="E6" s="67">
+        <v>2.8</v>
+      </c>
+      <c r="F6" s="68">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="str">
+        <f>_xlfn.CONCAT("Storage [", VLOOKUP("mass", [1]Units!A2:B12, 2, FALSE), "/(", VLOOKUP("volume", [1]Units!A2:B12, 2, FALSE), "*", VLOOKUP("decision period", [1]Units!A2:B12, 2, FALSE), ")]")</f>
+        <v>Storage [g/(bbl*week)]</v>
+      </c>
+      <c r="B7" s="70">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="70">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D7" s="70">
+        <v>2</v>
+      </c>
+      <c r="E7" s="70">
+        <v>0.65</v>
+      </c>
+      <c r="F7" s="71">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0936AA-9CB5-FA48-AA26-19FC94AF5C3A}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT("Table of Air Emissions Coefficients for Treatment Technologies [", VLOOKUP("mass", [1]Units!A2:B12, 2, FALSE), "/", VLOOKUP("volume", [1]Units!A2:B12, 2, FALSE), "]")</f>
+        <v>Table of Air Emissions Coefficients for Treatment Technologies [g/bbl]</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>275</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="67">
+        <v>9600</v>
+      </c>
+      <c r="C3" s="67">
+        <v>1.45</v>
+      </c>
+      <c r="D3" s="67">
+        <v>12.8</v>
+      </c>
+      <c r="E3" s="67">
+        <v>13.5</v>
+      </c>
+      <c r="F3" s="68">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="67">
+        <v>9600</v>
+      </c>
+      <c r="C4" s="67">
+        <v>1.45</v>
+      </c>
+      <c r="D4" s="67">
+        <v>12.8</v>
+      </c>
+      <c r="E4" s="67">
+        <v>13.5</v>
+      </c>
+      <c r="F4" s="68">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="66" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" s="67">
+        <v>9600</v>
+      </c>
+      <c r="C5" s="67">
+        <v>1.45</v>
+      </c>
+      <c r="D5" s="67">
+        <v>12.8</v>
+      </c>
+      <c r="E5" s="67">
+        <v>13.5</v>
+      </c>
+      <c r="F5" s="68">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="66" t="s">
+        <v>235</v>
+      </c>
+      <c r="B6" s="67">
+        <v>9600</v>
+      </c>
+      <c r="C6" s="67">
+        <v>1.45</v>
+      </c>
+      <c r="D6" s="67">
+        <v>12.8</v>
+      </c>
+      <c r="E6" s="67">
+        <v>13.5</v>
+      </c>
+      <c r="F6" s="68">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="69" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" s="70">
+        <v>9600</v>
+      </c>
+      <c r="C7" s="70">
+        <v>1.45</v>
+      </c>
+      <c r="D7" s="70">
+        <v>12.8</v>
+      </c>
+      <c r="E7" s="70">
+        <v>13.5</v>
+      </c>
+      <c r="F7" s="71">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B28A4AC-774D-4F01-8B4F-3E23D6A50C57}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -16481,7 +17517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A3376C-B8BF-456A-9F8F-97FD96566A3A}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -16525,7 +17561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7EC6F2-1522-42F6-A09A-9709AB96F608}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -16582,7 +17618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03D31AA-46D4-464A-9A51-F7F7B8767B7B}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -16623,7 +17659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C876A9-1E8F-4C0D-BF38-C23F08A2F8DA}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -16685,62 +17721,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6386754-0298-0143-B5D2-5311F4AFDC4F}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>220</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B0FD37-6B38-5E47-A627-F3BDABA7E934}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>220</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/backend/app/internal/assets/pareto_input_template.xlsx
+++ b/backend/app/internal/assets/pareto_input_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelpesce/Desktop/pareto-ui/backend/app/internal/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67504026-352D-3B42-A427-3C635667645F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB01BD66-9588-CB48-B64D-3976CAFC7CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8440" windowWidth="34560" windowHeight="11780" tabRatio="953" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="0" yWindow="1360" windowWidth="34560" windowHeight="18300" tabRatio="953" firstSheet="86" activeTab="93" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -121,9 +121,6 @@
     <sheet name="SWDProxHpOrLpWell" sheetId="143" r:id="rId106"/>
     <sheet name="SWDRiskFactors" sheetId="146" r:id="rId107"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId108"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="76" hidden="1">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">TreatmentTechnologies!$A$1:$A$5</definedName>
@@ -150,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="299">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -1029,6 +1026,24 @@
   </si>
   <si>
     <t>LP_threshold</t>
+  </si>
+  <si>
+    <t>Trucking [g/hour]</t>
+  </si>
+  <si>
+    <t>Pipeline Operations [g/(bbl*mile)]</t>
+  </si>
+  <si>
+    <t>Pipeline Installation [g/mile]</t>
+  </si>
+  <si>
+    <t>Disposal [g/bbl]</t>
+  </si>
+  <si>
+    <t>Storage [g/(bbl*week)]</t>
+  </si>
+  <si>
+    <t>Table of Air Emissions Coefficients for Treatment Technologies [g/bbl]</t>
   </si>
 </sst>
 </file>
@@ -1713,329 +1728,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Overview"/>
-      <sheetName val="Schematic"/>
-      <sheetName val="Units"/>
-      <sheetName val="ProductionPads"/>
-      <sheetName val="ProductionTanks"/>
-      <sheetName val="CompletionsPads"/>
-      <sheetName val="SWDSites"/>
-      <sheetName val="ExternalWaterSources"/>
-      <sheetName val="WaterQualityComponents"/>
-      <sheetName val="AirEmissionsComponents"/>
-      <sheetName val="StorageSites"/>
-      <sheetName val="TreatmentSites"/>
-      <sheetName val="TreatmentTechnologies"/>
-      <sheetName val="ReuseOptions"/>
-      <sheetName val="NetworkNodes"/>
-      <sheetName val="PipelineDiameters"/>
-      <sheetName val="StorageCapacities"/>
-      <sheetName val="TreatmentCapacities"/>
-      <sheetName val="InjectionCapacities"/>
-      <sheetName val="PNA"/>
-      <sheetName val="CNA"/>
-      <sheetName val="CCA"/>
-      <sheetName val="NNA"/>
-      <sheetName val="NCA"/>
-      <sheetName val="NKA"/>
-      <sheetName val="NRA"/>
-      <sheetName val="NSA"/>
-      <sheetName val="NOA"/>
-      <sheetName val="SNA"/>
-      <sheetName val="SOA"/>
-      <sheetName val="FCA"/>
-      <sheetName val="RCA"/>
-      <sheetName val="RSA"/>
-      <sheetName val="SCA"/>
-      <sheetName val="RNA"/>
-      <sheetName val="ROA"/>
-      <sheetName val="RKA"/>
-      <sheetName val="PCT"/>
-      <sheetName val="FCT"/>
-      <sheetName val="PKT"/>
-      <sheetName val="CKT"/>
-      <sheetName val="CCT"/>
-      <sheetName val="CST"/>
-      <sheetName val="RST"/>
-      <sheetName val="ROT"/>
-      <sheetName val="SOT"/>
-      <sheetName val="RKT"/>
-      <sheetName val="Elevation"/>
-      <sheetName val="CompletionsDemand"/>
-      <sheetName val="PadRates"/>
-      <sheetName val="FlowbackRates"/>
-      <sheetName val="WellPressure"/>
-      <sheetName val="InitialPipelineCapacity"/>
-      <sheetName val="InitialPipelineDiameters"/>
-      <sheetName val="InitialDisposalCapacity"/>
-      <sheetName val="InitialStorageCapacity"/>
-      <sheetName val="InitialTreatmentCapacity"/>
-      <sheetName val="ReuseMinimum"/>
-      <sheetName val="ReuseCapacity"/>
-      <sheetName val="ExtWaterSourcingAvailability"/>
-      <sheetName val="CompletionsPadStorage"/>
-      <sheetName val="PadOffloadingCapacity"/>
-      <sheetName val="NodeCapacities"/>
-      <sheetName val="DisposalOperatingCapacity"/>
-      <sheetName val="DisposalOperationalCost"/>
-      <sheetName val="TreatmentOperationalCost"/>
-      <sheetName val="ReuseOperationalCost"/>
-      <sheetName val="PipelineOperationalCost"/>
-      <sheetName val="ExternalSourcingCost"/>
-      <sheetName val="TruckingHourlyCost"/>
-      <sheetName val="TruckingTime"/>
-      <sheetName val="DisposalExpansionCost"/>
-      <sheetName val="DisposalCapacityIncrements"/>
-      <sheetName val="StorageExpansionCost"/>
-      <sheetName val="StorageCapacityIncrements"/>
-      <sheetName val="TreatmentExpansionCost"/>
-      <sheetName val="TreatmentCapacityIncrements"/>
-      <sheetName val="PipelineCapexDistanceBased"/>
-      <sheetName val="PipelineExpansionDistance"/>
-      <sheetName val="PipelineCapexCapacityBased"/>
-      <sheetName val="PipelineCapacityIncrements"/>
-      <sheetName val="PipelineDiameterValues"/>
-      <sheetName val="TreatmentEfficiency"/>
-      <sheetName val="RemovalEfficiency"/>
-      <sheetName val="DesalinationTechnologies"/>
-      <sheetName val="DesalinationSites"/>
-      <sheetName val="BeneficialReuseCost"/>
-      <sheetName val="BeneficialReuseCredit"/>
-      <sheetName val="CompletionsPadOutsideSystem"/>
-      <sheetName val="Hydraulics"/>
-      <sheetName val="Economics"/>
-      <sheetName val="ExternalWaterQuality"/>
-      <sheetName val="PadWaterQuality"/>
-      <sheetName val="StorageInitialWaterQuality"/>
-      <sheetName val="AirEmissionCoefficients"/>
-      <sheetName val="TreatmentEmissionCoefficients"/>
-      <sheetName val="PadStorageInitialWaterQuality"/>
-      <sheetName val="TreatmentExpansionLeadTime"/>
-      <sheetName val="DisposalExpansionLeadTime"/>
-      <sheetName val="StorageExpansionLeadTime"/>
-      <sheetName val="PipelineExpansionLeadTime_Dist"/>
-      <sheetName val="PipelineExpansionLeadTime_Capac"/>
-      <sheetName val="SWDDeep"/>
-      <sheetName val="SWDAveragePressure"/>
-      <sheetName val="SWDProxPAWell"/>
-      <sheetName val="SWDProxInactiveWell"/>
-      <sheetName val="SWDProxEQ"/>
-      <sheetName val="SWDProxFault"/>
-      <sheetName val="SWDProxHpOrLpWell"/>
-      <sheetName val="SWDRiskFactors"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>INDEX</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>VALUE</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>volume</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>bbl</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>distance</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>mile</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>diameter</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>inch</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>concentration</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>mg/liter</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>currency</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>USD</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>time</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>day</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>pressure</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>psi</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>elevation</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>foot</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>decision period</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>week</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>mass</v>
-          </cell>
-          <cell r="B12" t="str">
-            <v>g</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-      <sheetData sheetId="59"/>
-      <sheetData sheetId="60"/>
-      <sheetData sheetId="61"/>
-      <sheetData sheetId="62"/>
-      <sheetData sheetId="63"/>
-      <sheetData sheetId="64"/>
-      <sheetData sheetId="65"/>
-      <sheetData sheetId="66"/>
-      <sheetData sheetId="67"/>
-      <sheetData sheetId="68"/>
-      <sheetData sheetId="69"/>
-      <sheetData sheetId="70"/>
-      <sheetData sheetId="71"/>
-      <sheetData sheetId="72"/>
-      <sheetData sheetId="73"/>
-      <sheetData sheetId="74"/>
-      <sheetData sheetId="75"/>
-      <sheetData sheetId="76"/>
-      <sheetData sheetId="77"/>
-      <sheetData sheetId="78"/>
-      <sheetData sheetId="79"/>
-      <sheetData sheetId="80"/>
-      <sheetData sheetId="81"/>
-      <sheetData sheetId="82"/>
-      <sheetData sheetId="83"/>
-      <sheetData sheetId="84"/>
-      <sheetData sheetId="85"/>
-      <sheetData sheetId="86"/>
-      <sheetData sheetId="87"/>
-      <sheetData sheetId="88"/>
-      <sheetData sheetId="89"/>
-      <sheetData sheetId="90"/>
-      <sheetData sheetId="91"/>
-      <sheetData sheetId="92"/>
-      <sheetData sheetId="93"/>
-      <sheetData sheetId="94"/>
-      <sheetData sheetId="95"/>
-      <sheetData sheetId="96"/>
-      <sheetData sheetId="97"/>
-      <sheetData sheetId="98"/>
-      <sheetData sheetId="99"/>
-      <sheetData sheetId="100"/>
-      <sheetData sheetId="101"/>
-      <sheetData sheetId="102"/>
-      <sheetData sheetId="103"/>
-      <sheetData sheetId="104"/>
-      <sheetData sheetId="105"/>
-      <sheetData sheetId="106"/>
-      <sheetData sheetId="107"/>
-      <sheetData sheetId="108"/>
-      <sheetData sheetId="109"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -2338,7 +2030,7 @@
   </sheetPr>
   <dimension ref="B1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16889,7 +16581,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A2:A4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17086,7 +16778,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17127,9 +16819,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="str">
-        <f>_xlfn.CONCAT("Trucking [", VLOOKUP("mass", [1]Units!A2:B12, 2, FALSE), "/hour]")</f>
-        <v>Trucking [g/hour]</v>
+      <c r="A3" s="21" t="s">
+        <v>293</v>
       </c>
       <c r="B3" s="67">
         <v>2035000</v>
@@ -17148,9 +16839,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="str">
-        <f>_xlfn.CONCAT("Pipeline Operations [", VLOOKUP("mass", [1]Units!A2:B12, 2, FALSE), "/(", VLOOKUP("volume", [1]Units!A2:B12, 2, FALSE), "*", VLOOKUP("distance", [1]Units!A2:B12, 2, FALSE), ")]")</f>
-        <v>Pipeline Operations [g/(bbl*mile)]</v>
+      <c r="A4" s="21" t="s">
+        <v>294</v>
       </c>
       <c r="B4" s="67">
         <v>22</v>
@@ -17169,9 +16859,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="str">
-        <f>_xlfn.CONCAT("Pipeline Installation [", VLOOKUP("mass", [1]Units!A2:B12, 2, FALSE), "/", VLOOKUP("distance", [1]Units!A2:B12, 2, FALSE), "]")</f>
-        <v>Pipeline Installation [g/mile]</v>
+      <c r="A5" s="21" t="s">
+        <v>295</v>
       </c>
       <c r="B5" s="67">
         <v>310000000</v>
@@ -17190,9 +16879,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="str">
-        <f>_xlfn.CONCAT("Disposal [", VLOOKUP("mass", [1]Units!A2:B12, 2, FALSE), "/", VLOOKUP("volume", [1]Units!A2:B12, 2, FALSE), "]")</f>
-        <v>Disposal [g/bbl]</v>
+      <c r="A6" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="B6" s="67">
         <v>970</v>
@@ -17211,9 +16899,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="str">
-        <f>_xlfn.CONCAT("Storage [", VLOOKUP("mass", [1]Units!A2:B12, 2, FALSE), "/(", VLOOKUP("volume", [1]Units!A2:B12, 2, FALSE), "*", VLOOKUP("decision period", [1]Units!A2:B12, 2, FALSE), ")]")</f>
-        <v>Storage [g/(bbl*week)]</v>
+      <c r="A7" s="22" t="s">
+        <v>297</v>
       </c>
       <c r="B7" s="70">
         <v>1000</v>
@@ -17244,8 +16931,8 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17254,9 +16941,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT("Table of Air Emissions Coefficients for Treatment Technologies [", VLOOKUP("mass", [1]Units!A2:B12, 2, FALSE), "/", VLOOKUP("volume", [1]Units!A2:B12, 2, FALSE), "]")</f>
-        <v>Table of Air Emissions Coefficients for Treatment Technologies [g/bbl]</v>
+      <c r="A1" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="B1" s="1"/>
     </row>

--- a/backend/app/internal/assets/pareto_input_template.xlsx
+++ b/backend/app/internal/assets/pareto_input_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelpesce/Desktop/pareto-ui/backend/app/internal/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB01BD66-9588-CB48-B64D-3976CAFC7CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD92D4FB-1F95-F14E-9425-0AFBC6AD6077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1360" windowWidth="34560" windowHeight="18300" tabRatio="953" firstSheet="86" activeTab="93" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="21560" windowHeight="18900" tabRatio="953" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -20,111 +20,117 @@
     <sheet name="ProductionTanks" sheetId="34" state="hidden" r:id="rId5"/>
     <sheet name="CompletionsPads" sheetId="3" r:id="rId6"/>
     <sheet name="SWDSites" sheetId="4" r:id="rId7"/>
-    <sheet name="FreshwaterSources" sheetId="35" r:id="rId8"/>
-    <sheet name="StorageSites" sheetId="36" r:id="rId9"/>
-    <sheet name="TreatmentSites" sheetId="37" r:id="rId10"/>
-    <sheet name="TreatmentTechnologies" sheetId="104" r:id="rId11"/>
-    <sheet name="ReuseOptions" sheetId="38" r:id="rId12"/>
-    <sheet name="NetworkNodes" sheetId="39" r:id="rId13"/>
-    <sheet name="PipelineDiameters" sheetId="53" r:id="rId14"/>
-    <sheet name="StorageCapacities" sheetId="54" r:id="rId15"/>
-    <sheet name="TreatmentCapacities" sheetId="86" r:id="rId16"/>
-    <sheet name="InjectionCapacities" sheetId="55" r:id="rId17"/>
-    <sheet name="PNA" sheetId="56" r:id="rId18"/>
-    <sheet name="CNA" sheetId="57" r:id="rId19"/>
-    <sheet name="CCA" sheetId="73" r:id="rId20"/>
-    <sheet name="NNA" sheetId="58" r:id="rId21"/>
-    <sheet name="NCA" sheetId="59" r:id="rId22"/>
-    <sheet name="NKA" sheetId="60" r:id="rId23"/>
-    <sheet name="NRA" sheetId="61" r:id="rId24"/>
-    <sheet name="NSA" sheetId="76" r:id="rId25"/>
-    <sheet name="NOA" sheetId="119" r:id="rId26"/>
-    <sheet name="SNA" sheetId="77" r:id="rId27"/>
-    <sheet name="SOA" sheetId="120" r:id="rId28"/>
-    <sheet name="FCA" sheetId="41" r:id="rId29"/>
-    <sheet name="RCA" sheetId="83" r:id="rId30"/>
-    <sheet name="RSA" sheetId="105" r:id="rId31"/>
-    <sheet name="SCA" sheetId="108" r:id="rId32"/>
-    <sheet name="RNA" sheetId="62" r:id="rId33"/>
-    <sheet name="RKA" sheetId="134" r:id="rId34"/>
-    <sheet name="ROA" sheetId="121" r:id="rId35"/>
-    <sheet name="PCT" sheetId="42" r:id="rId36"/>
-    <sheet name="FCT" sheetId="70" r:id="rId37"/>
-    <sheet name="PKT" sheetId="43" r:id="rId38"/>
-    <sheet name="CKT" sheetId="44" r:id="rId39"/>
-    <sheet name="CCT" sheetId="74" r:id="rId40"/>
-    <sheet name="CST" sheetId="64" r:id="rId41"/>
-    <sheet name="RST" sheetId="122" r:id="rId42"/>
-    <sheet name="ROT" sheetId="123" r:id="rId43"/>
-    <sheet name="SOT" sheetId="124" r:id="rId44"/>
-    <sheet name="RKT" sheetId="135" r:id="rId45"/>
-    <sheet name="Elevation" sheetId="115" r:id="rId46"/>
-    <sheet name="CompletionsDemand" sheetId="8" r:id="rId47"/>
-    <sheet name="PadRates" sheetId="65" r:id="rId48"/>
-    <sheet name="FlowbackRates" sheetId="75" r:id="rId49"/>
-    <sheet name="WellPressure" sheetId="116" r:id="rId50"/>
-    <sheet name="InitialPipelineCapacity" sheetId="118" r:id="rId51"/>
-    <sheet name="InitialPipelineDiameters" sheetId="117" r:id="rId52"/>
-    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId53"/>
-    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId54"/>
-    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId55"/>
-    <sheet name="ReuseMinimum" sheetId="125" r:id="rId56"/>
-    <sheet name="ReuseCapacity" sheetId="126" r:id="rId57"/>
-    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId58"/>
-    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId59"/>
-    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId60"/>
-    <sheet name="NodeCapacities" sheetId="102" r:id="rId61"/>
-    <sheet name="DisposalOperatingCapacity" sheetId="112" r:id="rId62"/>
-    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId63"/>
-    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId64"/>
-    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId65"/>
-    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId66"/>
-    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId67"/>
-    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId68"/>
-    <sheet name="TruckingTime" sheetId="7" r:id="rId69"/>
-    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId70"/>
-    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId71"/>
-    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId72"/>
-    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId73"/>
-    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId74"/>
-    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId75"/>
-    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId76"/>
-    <sheet name="PipelineExpansionDistance" sheetId="133" r:id="rId77"/>
-    <sheet name="PipelineCapexCapacityBased" sheetId="98" r:id="rId78"/>
-    <sheet name="PipelineCapacityIncrements" sheetId="97" r:id="rId79"/>
-    <sheet name="PipelineDiameterValues" sheetId="78" r:id="rId80"/>
-    <sheet name="TreatmentEfficiency" sheetId="107" r:id="rId81"/>
-    <sheet name="RemovalEfficiency" sheetId="114" r:id="rId82"/>
-    <sheet name="DesalinationTechnologies" sheetId="111" r:id="rId83"/>
-    <sheet name="DesalinationSites" sheetId="113" r:id="rId84"/>
-    <sheet name="BeneficialReuseCost" sheetId="136" r:id="rId85"/>
-    <sheet name="BeneficialReuseCredit" sheetId="127" r:id="rId86"/>
-    <sheet name="CompletionsPadOutsideSystem" sheetId="110" r:id="rId87"/>
-    <sheet name="Hydraulics" sheetId="93" r:id="rId88"/>
-    <sheet name="Economics" sheetId="95" r:id="rId89"/>
-    <sheet name="PadWaterQuality" sheetId="99" r:id="rId90"/>
-    <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId91"/>
-    <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId92"/>
-    <sheet name="AirEmissionCoefficients" sheetId="145" r:id="rId93"/>
-    <sheet name="TreatmentEmissionCoefficients" sheetId="144" r:id="rId94"/>
-    <sheet name="TreatmentExpansionLeadTime" sheetId="128" r:id="rId95"/>
-    <sheet name="DisposalExpansionLeadTime" sheetId="129" r:id="rId96"/>
-    <sheet name="StorageExpansionLeadTime" sheetId="130" r:id="rId97"/>
-    <sheet name="PipelineExpansionLeadTime_Dist" sheetId="131" r:id="rId98"/>
-    <sheet name="PipelineExpansionLeadTime_Capac" sheetId="132" r:id="rId99"/>
-    <sheet name="SWDDeep" sheetId="137" r:id="rId100"/>
-    <sheet name="SWDAveragePressure" sheetId="138" r:id="rId101"/>
-    <sheet name="SWDProxPAWell" sheetId="139" r:id="rId102"/>
-    <sheet name="SWDProxInactiveWell" sheetId="140" r:id="rId103"/>
-    <sheet name="SWDProxEQ" sheetId="141" r:id="rId104"/>
-    <sheet name="SWDProxFault" sheetId="142" r:id="rId105"/>
-    <sheet name="SWDProxHpOrLpWell" sheetId="143" r:id="rId106"/>
-    <sheet name="SWDRiskFactors" sheetId="146" r:id="rId107"/>
+    <sheet name="ExternalWaterSources" sheetId="35" r:id="rId8"/>
+    <sheet name="WaterQualityComponents" sheetId="148" r:id="rId9"/>
+    <sheet name="AirEmissionsComponents" sheetId="149" r:id="rId10"/>
+    <sheet name="StorageSites" sheetId="36" r:id="rId11"/>
+    <sheet name="TreatmentSites" sheetId="37" r:id="rId12"/>
+    <sheet name="TreatmentTechnologies" sheetId="104" r:id="rId13"/>
+    <sheet name="ReuseOptions" sheetId="38" r:id="rId14"/>
+    <sheet name="NetworkNodes" sheetId="39" r:id="rId15"/>
+    <sheet name="PipelineDiameters" sheetId="53" r:id="rId16"/>
+    <sheet name="StorageCapacities" sheetId="54" r:id="rId17"/>
+    <sheet name="TreatmentCapacities" sheetId="86" r:id="rId18"/>
+    <sheet name="InjectionCapacities" sheetId="55" r:id="rId19"/>
+    <sheet name="PNA" sheetId="56" r:id="rId20"/>
+    <sheet name="CNA" sheetId="57" r:id="rId21"/>
+    <sheet name="CCA" sheetId="73" r:id="rId22"/>
+    <sheet name="NNA" sheetId="58" r:id="rId23"/>
+    <sheet name="NCA" sheetId="59" r:id="rId24"/>
+    <sheet name="NKA" sheetId="60" r:id="rId25"/>
+    <sheet name="NRA" sheetId="61" r:id="rId26"/>
+    <sheet name="NSA" sheetId="76" r:id="rId27"/>
+    <sheet name="NOA" sheetId="119" r:id="rId28"/>
+    <sheet name="SNA" sheetId="77" r:id="rId29"/>
+    <sheet name="SOA" sheetId="120" r:id="rId30"/>
+    <sheet name="FCA" sheetId="41" r:id="rId31"/>
+    <sheet name="RCA" sheetId="83" r:id="rId32"/>
+    <sheet name="RSA" sheetId="105" r:id="rId33"/>
+    <sheet name="SCA" sheetId="108" r:id="rId34"/>
+    <sheet name="RNA" sheetId="62" r:id="rId35"/>
+    <sheet name="RKA" sheetId="134" r:id="rId36"/>
+    <sheet name="ROA" sheetId="121" r:id="rId37"/>
+    <sheet name="PCT" sheetId="42" r:id="rId38"/>
+    <sheet name="FCT" sheetId="70" r:id="rId39"/>
+    <sheet name="PKT" sheetId="43" r:id="rId40"/>
+    <sheet name="CKT" sheetId="44" r:id="rId41"/>
+    <sheet name="CCT" sheetId="74" r:id="rId42"/>
+    <sheet name="CST" sheetId="64" r:id="rId43"/>
+    <sheet name="RST" sheetId="122" r:id="rId44"/>
+    <sheet name="ROT" sheetId="123" r:id="rId45"/>
+    <sheet name="SOT" sheetId="124" r:id="rId46"/>
+    <sheet name="RKT" sheetId="135" r:id="rId47"/>
+    <sheet name="Elevation" sheetId="115" r:id="rId48"/>
+    <sheet name="CompletionsDemand" sheetId="8" r:id="rId49"/>
+    <sheet name="PadRates" sheetId="65" r:id="rId50"/>
+    <sheet name="FlowbackRates" sheetId="75" r:id="rId51"/>
+    <sheet name="WellPressure" sheetId="116" r:id="rId52"/>
+    <sheet name="InitialPipelineCapacity" sheetId="118" r:id="rId53"/>
+    <sheet name="InitialPipelineDiameters" sheetId="117" r:id="rId54"/>
+    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId55"/>
+    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId56"/>
+    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId57"/>
+    <sheet name="ReuseMinimum" sheetId="125" r:id="rId58"/>
+    <sheet name="ReuseCapacity" sheetId="126" r:id="rId59"/>
+    <sheet name="ExtWaterSourcingAvailability" sheetId="47" r:id="rId60"/>
+    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId61"/>
+    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId62"/>
+    <sheet name="NodeCapacities" sheetId="102" r:id="rId63"/>
+    <sheet name="DisposalOperatingCapacity" sheetId="112" r:id="rId64"/>
+    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId65"/>
+    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId66"/>
+    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId67"/>
+    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId68"/>
+    <sheet name="ExternalSourcingCost" sheetId="52" r:id="rId69"/>
+    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId70"/>
+    <sheet name="TruckingTime" sheetId="7" r:id="rId71"/>
+    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId72"/>
+    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId73"/>
+    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId74"/>
+    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId75"/>
+    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId76"/>
+    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId77"/>
+    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId78"/>
+    <sheet name="PipelineExpansionDistance" sheetId="133" r:id="rId79"/>
+    <sheet name="PipelineCapexCapacityBased" sheetId="98" r:id="rId80"/>
+    <sheet name="PipelineCapacityIncrements" sheetId="97" r:id="rId81"/>
+    <sheet name="PipelineDiameterValues" sheetId="78" r:id="rId82"/>
+    <sheet name="TreatmentEfficiency" sheetId="107" r:id="rId83"/>
+    <sheet name="RemovalEfficiency" sheetId="114" r:id="rId84"/>
+    <sheet name="DesalinationTechnologies" sheetId="111" r:id="rId85"/>
+    <sheet name="DesalinationSites" sheetId="113" r:id="rId86"/>
+    <sheet name="BeneficialReuseCost" sheetId="136" r:id="rId87"/>
+    <sheet name="BeneficialReuseCredit" sheetId="127" r:id="rId88"/>
+    <sheet name="CompletionsPadOutsideSystem" sheetId="110" r:id="rId89"/>
+    <sheet name="Hydraulics" sheetId="93" r:id="rId90"/>
+    <sheet name="Economics" sheetId="95" r:id="rId91"/>
+    <sheet name="ExternalWaterQuality" sheetId="147" r:id="rId92"/>
+    <sheet name="PadWaterQuality" sheetId="99" r:id="rId93"/>
+    <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId94"/>
+    <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId95"/>
+    <sheet name="AirEmissionCoefficients" sheetId="145" r:id="rId96"/>
+    <sheet name="TreatmentEmissionCoefficients" sheetId="144" r:id="rId97"/>
+    <sheet name="TreatmentExpansionLeadTime" sheetId="128" r:id="rId98"/>
+    <sheet name="DisposalExpansionLeadTime" sheetId="129" r:id="rId99"/>
+    <sheet name="StorageExpansionLeadTime" sheetId="130" r:id="rId100"/>
+    <sheet name="PipelineExpansionLeadTime_Dist" sheetId="131" r:id="rId101"/>
+    <sheet name="PipelineExpansionLeadTime_Capac" sheetId="132" r:id="rId102"/>
+    <sheet name="SWDDeep" sheetId="137" r:id="rId103"/>
+    <sheet name="SWDAveragePressure" sheetId="138" r:id="rId104"/>
+    <sheet name="SWDProxPAWell" sheetId="139" r:id="rId105"/>
+    <sheet name="SWDProxInactiveWell" sheetId="140" r:id="rId106"/>
+    <sheet name="SWDProxEQ" sheetId="141" r:id="rId107"/>
+    <sheet name="SWDProxFault" sheetId="142" r:id="rId108"/>
+    <sheet name="SWDProxHpOrLpWell" sheetId="143" r:id="rId109"/>
+    <sheet name="SWDRiskFactors" sheetId="146" r:id="rId110"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId111"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="76" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">TreatmentTechnologies!$A$1:$A$5</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="76">PipelineExpansionDistance!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="78" hidden="1">#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">TreatmentTechnologies!$A$1:$A$5</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="78">PipelineExpansionDistance!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -147,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="301">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -464,9 +470,6 @@
     <t>List of all SWD Sites [-]</t>
   </si>
   <si>
-    <t>List of all Freshwater Source Identifiers [-]</t>
-  </si>
-  <si>
     <t>F01</t>
   </si>
   <si>
@@ -590,12 +593,6 @@
     <t>Storage Sites to Network Nodes Piping Arcs [-]</t>
   </si>
   <si>
-    <t>Freshwater Sources to Completions Pads Piping Arcs [-]</t>
-  </si>
-  <si>
-    <t>FreshwaterSources</t>
-  </si>
-  <si>
     <t>TreatmentSites</t>
   </si>
   <si>
@@ -608,9 +605,6 @@
     <t>Production Pads to Completions Pads Trucking Arcs [-]</t>
   </si>
   <si>
-    <t>Freshwater Sources to Completions Pads Trucking Arcs [-]</t>
-  </si>
-  <si>
     <t>Production Pads to Disposal Sites Trucking Arcs [-]</t>
   </si>
   <si>
@@ -1044,6 +1038,24 @@
   </si>
   <si>
     <t>Table of Air Emissions Coefficients for Treatment Technologies [g/bbl]</t>
+  </si>
+  <si>
+    <t>List of all External Water Source Identifiers [-]</t>
+  </si>
+  <si>
+    <t>ExternalWaterSources</t>
+  </si>
+  <si>
+    <t>External Water Sources to Completions Pads Piping Arcs [-]</t>
+  </si>
+  <si>
+    <t>External Water Sources to Completions Pads Trucking Arcs [-]</t>
+  </si>
+  <si>
+    <t>List of all Water Quality Components [-]</t>
+  </si>
+  <si>
+    <t>List of all Air Emissions Components [-]</t>
   </si>
 </sst>
 </file>
@@ -1516,7 +1528,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1702,6 +1714,12 @@
     <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1726,6 +1744,321 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Overview"/>
+      <sheetName val="Schematic"/>
+      <sheetName val="Units"/>
+      <sheetName val="ProductionPads"/>
+      <sheetName val="ProductionTanks"/>
+      <sheetName val="CompletionsPads"/>
+      <sheetName val="SWDSites"/>
+      <sheetName val="ExternalWaterSources"/>
+      <sheetName val="WaterQualityComponents"/>
+      <sheetName val="AirEmissionsComponents"/>
+      <sheetName val="StorageSites"/>
+      <sheetName val="TreatmentSites"/>
+      <sheetName val="TreatmentTechnologies"/>
+      <sheetName val="ReuseOptions"/>
+      <sheetName val="NetworkNodes"/>
+      <sheetName val="PipelineDiameters"/>
+      <sheetName val="StorageCapacities"/>
+      <sheetName val="TreatmentCapacities"/>
+      <sheetName val="InjectionCapacities"/>
+      <sheetName val="PNA"/>
+      <sheetName val="CNA"/>
+      <sheetName val="CCA"/>
+      <sheetName val="NNA"/>
+      <sheetName val="NCA"/>
+      <sheetName val="NKA"/>
+      <sheetName val="NRA"/>
+      <sheetName val="NSA"/>
+      <sheetName val="NOA"/>
+      <sheetName val="SNA"/>
+      <sheetName val="SOA"/>
+      <sheetName val="FCA"/>
+      <sheetName val="RCA"/>
+      <sheetName val="RSA"/>
+      <sheetName val="SCA"/>
+      <sheetName val="RNA"/>
+      <sheetName val="ROA"/>
+      <sheetName val="RKA"/>
+      <sheetName val="PCT"/>
+      <sheetName val="FCT"/>
+      <sheetName val="PKT"/>
+      <sheetName val="CKT"/>
+      <sheetName val="CCT"/>
+      <sheetName val="CST"/>
+      <sheetName val="RST"/>
+      <sheetName val="ROT"/>
+      <sheetName val="SOT"/>
+      <sheetName val="RKT"/>
+      <sheetName val="Elevation"/>
+      <sheetName val="CompletionsDemand"/>
+      <sheetName val="PadRates"/>
+      <sheetName val="FlowbackRates"/>
+      <sheetName val="WellPressure"/>
+      <sheetName val="InitialPipelineCapacity"/>
+      <sheetName val="InitialPipelineDiameters"/>
+      <sheetName val="InitialDisposalCapacity"/>
+      <sheetName val="InitialStorageCapacity"/>
+      <sheetName val="InitialTreatmentCapacity"/>
+      <sheetName val="ReuseMinimum"/>
+      <sheetName val="ReuseCapacity"/>
+      <sheetName val="ExtWaterSourcingAvailability"/>
+      <sheetName val="CompletionsPadStorage"/>
+      <sheetName val="PadOffloadingCapacity"/>
+      <sheetName val="NodeCapacities"/>
+      <sheetName val="DisposalOperatingCapacity"/>
+      <sheetName val="DisposalOperationalCost"/>
+      <sheetName val="TreatmentOperationalCost"/>
+      <sheetName val="ReuseOperationalCost"/>
+      <sheetName val="PipelineOperationalCost"/>
+      <sheetName val="ExternalSourcingCost"/>
+      <sheetName val="TruckingHourlyCost"/>
+      <sheetName val="TruckingTime"/>
+      <sheetName val="DisposalExpansionCost"/>
+      <sheetName val="DisposalCapacityIncrements"/>
+      <sheetName val="StorageExpansionCost"/>
+      <sheetName val="StorageCapacityIncrements"/>
+      <sheetName val="TreatmentExpansionCost"/>
+      <sheetName val="TreatmentCapacityIncrements"/>
+      <sheetName val="PipelineCapexDistanceBased"/>
+      <sheetName val="PipelineExpansionDistance"/>
+      <sheetName val="PipelineCapexCapacityBased"/>
+      <sheetName val="PipelineCapacityIncrements"/>
+      <sheetName val="PipelineDiameterValues"/>
+      <sheetName val="TreatmentEfficiency"/>
+      <sheetName val="RemovalEfficiency"/>
+      <sheetName val="DesalinationTechnologies"/>
+      <sheetName val="DesalinationSites"/>
+      <sheetName val="BeneficialReuseCost"/>
+      <sheetName val="BeneficialReuseCredit"/>
+      <sheetName val="CompletionsPadOutsideSystem"/>
+      <sheetName val="Hydraulics"/>
+      <sheetName val="Economics"/>
+      <sheetName val="ExternalWaterQuality"/>
+      <sheetName val="PadWaterQuality"/>
+      <sheetName val="StorageInitialWaterQuality"/>
+      <sheetName val="AirEmissionCoefficients"/>
+      <sheetName val="TreatmentEmissionCoefficients"/>
+      <sheetName val="PadStorageInitialWaterQuality"/>
+      <sheetName val="TreatmentExpansionLeadTime"/>
+      <sheetName val="DisposalExpansionLeadTime"/>
+      <sheetName val="StorageExpansionLeadTime"/>
+      <sheetName val="PipelineExpansionLeadTime_Dist"/>
+      <sheetName val="PipelineExpansionLeadTime_Capac"/>
+      <sheetName val="SWDDeep"/>
+      <sheetName val="SWDAveragePressure"/>
+      <sheetName val="SWDProxPAWell"/>
+      <sheetName val="SWDProxInactiveWell"/>
+      <sheetName val="SWDProxEQ"/>
+      <sheetName val="SWDProxFault"/>
+      <sheetName val="SWDProxHpOrLpWell"/>
+      <sheetName val="SWDRiskFactors"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>INDEX</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>VALUE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>volume</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>bbl</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>distance</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>mile</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>diameter</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>inch</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>concentration</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>mg/liter</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>currency</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>USD</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>time</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>day</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>pressure</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>psi</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>elevation</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>foot</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>decision period</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>week</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
+      <sheetData sheetId="48"/>
+      <sheetData sheetId="49"/>
+      <sheetData sheetId="50"/>
+      <sheetData sheetId="51"/>
+      <sheetData sheetId="52"/>
+      <sheetData sheetId="53"/>
+      <sheetData sheetId="54"/>
+      <sheetData sheetId="55"/>
+      <sheetData sheetId="56"/>
+      <sheetData sheetId="57"/>
+      <sheetData sheetId="58"/>
+      <sheetData sheetId="59"/>
+      <sheetData sheetId="60"/>
+      <sheetData sheetId="61"/>
+      <sheetData sheetId="62"/>
+      <sheetData sheetId="63"/>
+      <sheetData sheetId="64"/>
+      <sheetData sheetId="65"/>
+      <sheetData sheetId="66"/>
+      <sheetData sheetId="67"/>
+      <sheetData sheetId="68"/>
+      <sheetData sheetId="69"/>
+      <sheetData sheetId="70"/>
+      <sheetData sheetId="71"/>
+      <sheetData sheetId="72"/>
+      <sheetData sheetId="73"/>
+      <sheetData sheetId="74"/>
+      <sheetData sheetId="75"/>
+      <sheetData sheetId="76"/>
+      <sheetData sheetId="77"/>
+      <sheetData sheetId="78"/>
+      <sheetData sheetId="79"/>
+      <sheetData sheetId="80"/>
+      <sheetData sheetId="81"/>
+      <sheetData sheetId="82"/>
+      <sheetData sheetId="83"/>
+      <sheetData sheetId="84"/>
+      <sheetData sheetId="85"/>
+      <sheetData sheetId="86"/>
+      <sheetData sheetId="87"/>
+      <sheetData sheetId="88"/>
+      <sheetData sheetId="89"/>
+      <sheetData sheetId="90"/>
+      <sheetData sheetId="91"/>
+      <sheetData sheetId="92"/>
+      <sheetData sheetId="93"/>
+      <sheetData sheetId="94"/>
+      <sheetData sheetId="95"/>
+      <sheetData sheetId="96"/>
+      <sheetData sheetId="97"/>
+      <sheetData sheetId="98"/>
+      <sheetData sheetId="99"/>
+      <sheetData sheetId="100"/>
+      <sheetData sheetId="101"/>
+      <sheetData sheetId="102"/>
+      <sheetData sheetId="103"/>
+      <sheetData sheetId="104"/>
+      <sheetData sheetId="105"/>
+      <sheetData sheetId="106"/>
+      <sheetData sheetId="107"/>
+      <sheetData sheetId="108"/>
+      <sheetData sheetId="109"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2030,7 +2363,7 @@
   </sheetPr>
   <dimension ref="B1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2581,6 +2914,603 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D5DD37-D888-DA4D-8789-41151AFFDC45}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7EC6F2-1522-42F6-A09A-9709AB96F608}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Storage Expansion Lead Time [",VLOOKUP("decision period", Units!$A$2:$B$11, 2, FALSE),"s]")</f>
+        <v>Table of Storage Expansion Lead Time [weeks]</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03D31AA-46D4-464A-9A51-F7F7B8767B7B}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Distance Based [",VLOOKUP("decision period", Units!$A$2:$B$11, 2, FALSE),"s/",VLOOKUP("distance", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table of Pipeline Expansion Lead Time - Distance Based [weeks/mile]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="B3" s="57">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C876A9-1E8F-4C0D-BF38-C23F08A2F8DA}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Capacity Based [",VLOOKUP("decision period", Units!$A$2:$B$11, 2, FALSE),"s]")</f>
+        <v>Table of Pipeline Expansion Lead Time - Capacity Based [weeks]</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6386754-0298-0143-B5D2-5311F4AFDC4F}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B0FD37-6B38-5E47-A627-F3BDABA7E934}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43624E75-14B8-7140-AAB7-78C62C7F81B5}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7A3D56-D0E0-7644-9ABD-B2C2305B3F6F}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B595BF9D-C714-6543-BB99-6BB0195667C1}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6476C4B-E64B-424F-922F-3419F696DC11}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71CE3F0B-DA65-4644-89E8-69C54E8A2D09}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0D7E5C-CD82-4DB8-A226-3E1C788BA0DC}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="9.1640625" style="1"/>
+    <col min="4" max="4" width="3.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32" style="1" customWidth="1"/>
+    <col min="6" max="13" width="9.1640625" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B272D204-9BC5-9F40-90B0-3D3E0DFE6A2D}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.83203125" style="74" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="74"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="73" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="77" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3" s="78">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="77" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" s="78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="77" t="s">
+        <v>278</v>
+      </c>
+      <c r="B5" s="78">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="77" t="s">
+        <v>279</v>
+      </c>
+      <c r="B6" s="78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="77" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7" s="78">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="77" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="77" t="s">
+        <v>282</v>
+      </c>
+      <c r="B9" s="78">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="77" t="s">
+        <v>283</v>
+      </c>
+      <c r="B10" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="77" t="s">
+        <v>284</v>
+      </c>
+      <c r="B11" s="78">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="77" t="s">
+        <v>285</v>
+      </c>
+      <c r="B12" s="78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="77" t="s">
+        <v>286</v>
+      </c>
+      <c r="B13" s="78">
+        <v>0.7</v>
+      </c>
+      <c r="C13" s="74" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="79" t="s">
+        <v>288</v>
+      </c>
+      <c r="B14" s="80">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="74" t="s">
+        <v>287</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF69D0FC-C70F-430B-9882-945A087A2D92}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -2606,7 +3536,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -2637,347 +3567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6386754-0298-0143-B5D2-5311F4AFDC4F}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>220</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B0FD37-6B38-5E47-A627-F3BDABA7E934}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>220</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43624E75-14B8-7140-AAB7-78C62C7F81B5}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>220</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7A3D56-D0E0-7644-9ABD-B2C2305B3F6F}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>220</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B595BF9D-C714-6543-BB99-6BB0195667C1}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>220</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6476C4B-E64B-424F-922F-3419F696DC11}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>220</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71CE3F0B-DA65-4644-89E8-69C54E8A2D09}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>220</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B272D204-9BC5-9F40-90B0-3D3E0DFE6A2D}">
-  <sheetPr>
-    <tabColor theme="1" tint="0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="33.83203125" style="74" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="74"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="76" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="77" t="s">
-        <v>280</v>
-      </c>
-      <c r="B3" s="78">
-        <v>1.86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="77" t="s">
-        <v>281</v>
-      </c>
-      <c r="B4" s="78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="77" t="s">
-        <v>282</v>
-      </c>
-      <c r="B5" s="78">
-        <v>1.86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="77" t="s">
-        <v>283</v>
-      </c>
-      <c r="B6" s="78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="77" t="s">
-        <v>284</v>
-      </c>
-      <c r="B7" s="78">
-        <v>5.59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="77" t="s">
-        <v>285</v>
-      </c>
-      <c r="B8" s="78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="77" t="s">
-        <v>286</v>
-      </c>
-      <c r="B9" s="78">
-        <v>5.59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="77" t="s">
-        <v>287</v>
-      </c>
-      <c r="B10" s="78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="77" t="s">
-        <v>288</v>
-      </c>
-      <c r="B11" s="78">
-        <v>1.86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="77" t="s">
-        <v>289</v>
-      </c>
-      <c r="B12" s="78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="77" t="s">
-        <v>290</v>
-      </c>
-      <c r="B13" s="78">
-        <v>0.7</v>
-      </c>
-      <c r="C13" s="74" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="79" t="s">
-        <v>292</v>
-      </c>
-      <c r="B14" s="80">
-        <v>0.5</v>
-      </c>
-      <c r="C14" s="74" t="s">
-        <v>291</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C820352-28DB-4692-BCE8-9A9846CC4956}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3003,17 +3593,17 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -3021,12 +3611,12 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -3039,7 +3629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A85E027-57F4-45A3-888B-4C0E11BBDC89}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3063,7 +3653,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -3084,7 +3674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F8A809-1347-42CB-A460-105FB2B000F6}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3110,7 +3700,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -3210,7 +3800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E58F52A-57D4-400C-9B2D-0CDF39E9349F}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3236,32 +3826,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3270,7 +3860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153D1DC6-FF6C-4D1F-9E23-B1795807F580}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3296,17 +3886,17 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -3314,12 +3904,12 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -3334,7 +3924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A75646C-6D5B-41D2-BD66-0AABE8C35A83}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3360,17 +3950,17 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -3378,12 +3968,12 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -3398,7 +3988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E691EF25-02B9-4EAE-A04E-51FF0E4ADDCA}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3424,17 +4014,17 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -3442,12 +4032,12 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -3457,110 +4047,6 @@
       <c r="A7" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EADE56A-3552-4283-86E6-D2B76E77A8C0}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:K6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B44EC57-024F-431A-B1C2-58810C4F9E47}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:K3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.83203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="K3" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3640,6 +4126,110 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EADE56A-3552-4283-86E6-D2B76E77A8C0}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B44EC57-024F-431A-B1C2-58810C4F9E47}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F10C60C-760C-4F1B-AB9A-B14851122200}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3658,12 +4248,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="6"/>
     </row>
@@ -3677,7 +4267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7399EB22-0DA7-4F9B-9913-FB50F464ABD0}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3696,12 +4286,12 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -3801,7 +4391,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037676BC-0D9E-4EC2-B7DF-9077076036FD}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3820,12 +4410,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="6"/>
     </row>
@@ -3875,7 +4465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B147A77C-3EC6-43F3-933A-7BFD421AB782}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3894,12 +4484,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -3961,7 +4551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928AC5F8-3DBD-4182-95AF-F72C7FA4D2FF}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3980,12 +4570,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -4047,7 +4637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A514516D-9002-4617-9A63-E1CA29CE5849}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4064,12 +4654,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -4135,7 +4725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA78038-CDE7-4F76-A235-C6722F09C3AA}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4152,12 +4742,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -4223,7 +4813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E548F62-97B3-424F-8681-D1975DE263A9}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4240,12 +4830,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -4294,96 +4884,6 @@
       <c r="J5" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74ECBE8-579F-4C46-8EE6-A1073B2E4481}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="D5" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BC2D47-F187-4A8D-891B-85F0F5A9A73D}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="6"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4603,7 +5103,7 @@
         <v>72</v>
       </c>
       <c r="AZ8" s="24" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="BA8" s="24" t="s">
         <v>75</v>
@@ -4611,22 +5111,22 @@
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F9" s="34" t="s">
         <v>51</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H9" s="38"/>
       <c r="I9" s="34"/>
@@ -4651,7 +5151,7 @@
         <v>73</v>
       </c>
       <c r="AZ9" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="BA9" s="1" t="s">
         <v>73</v>
@@ -4659,13 +5159,13 @@
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>83</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="34"/>
@@ -4693,7 +5193,7 @@
         <v>77</v>
       </c>
       <c r="AZ10" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="BA10" s="1" t="s">
         <v>77</v>
@@ -4776,6 +5276,96 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74ECBE8-579F-4C46-8EE6-A1073B2E4481}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="D5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BC2D47-F187-4A8D-891B-85F0F5A9A73D}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05F6C2E-9295-44C7-B492-F6D27B8F0C30}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4794,12 +5384,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B2" s="6"/>
     </row>
@@ -4818,7 +5408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E0DBD1-9C53-4E86-8483-588C08719311}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4837,12 +5427,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -4863,7 +5453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E8874E-11ED-45FA-AE95-642AF80BF911}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4882,12 +5472,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B2" s="6"/>
     </row>
@@ -4900,7 +5490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3F673B-ABE6-40C2-BA6B-F7AEA69D03F8}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4917,12 +5507,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -4964,7 +5554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D63A4D-10C9-D842-83F3-C808B5A14FFE}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4980,7 +5570,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -4988,7 +5578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525A3BF6-1973-4856-86F5-89173E1F6931}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -5007,12 +5597,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -5035,7 +5625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6ED8ED-0A77-4974-A7C2-D2B875DA1401}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -5054,12 +5644,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" s="6"/>
     </row>
@@ -5085,14 +5675,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F615298C-1D1C-4004-91BA-05C3C07D8B7C}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5102,12 +5694,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>148</v>
+        <v>296</v>
       </c>
       <c r="B2" s="6"/>
     </row>
@@ -5118,93 +5710,6 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AE275C-BC38-44C0-8EFB-EA0A3ABCF1EE}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-    </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90457C74-863B-4C67-B58B-571271FAEA0E}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.1640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5289,6 +5794,93 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AE275C-BC38-44C0-8EFB-EA0A3ABCF1EE}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+    </row>
+    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+    </row>
+    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90457C74-863B-4C67-B58B-571271FAEA0E}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37622F2B-1E4B-46C9-B210-3150CCBB5892}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -5305,12 +5897,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="6"/>
     </row>
@@ -5324,7 +5916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A52059-0CB1-474F-ACFF-2997470BE1E9}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -5341,12 +5933,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -5362,7 +5954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE35D21-A9CB-462D-A985-6B6D4051745F}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -5379,12 +5971,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -5407,7 +5999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C8F968-B569-4630-B489-36D60677DD57}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -5424,12 +6016,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -5452,7 +6044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6131FC4-DDA8-4CA5-9995-BA95F5C41F90}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -5469,12 +6061,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -5503,7 +6095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D036847-7864-B54F-959A-A9BC28F2FAD9}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -5519,7 +6111,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -5527,7 +6119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B5B5E2-5BB6-4D8A-A59D-BCD5CAC9BC96}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -5551,12 +6143,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>45</v>
@@ -5647,7 +6239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6FA210-6C83-4CC4-AF45-F41CDC53F769}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -5675,163 +6267,163 @@
     </row>
     <row r="2" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AK2" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AL2" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AM2" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AN2" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AO2" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AR2" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AS2" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AT2" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AU2" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AV2" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AW2" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AX2" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AY2" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="AV2" s="6" t="s">
+      <c r="AZ2" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="AW2" s="6" t="s">
+      <c r="BA2" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="AX2" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="AY2" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="AZ2" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="BA2" s="6" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -5852,7 +6444,113 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675FE18E-3C30-49FC-B6A0-0A6D3F02EBB0}">
+  <dimension ref="A1:O15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="3.5" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.1640625" style="1"/>
+    <col min="13" max="13" width="11.1640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EF4E1D-6CE0-4F02-8B9E-F2818C0A814C}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -5878,163 +6576,163 @@
     </row>
     <row r="2" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AK2" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AL2" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AM2" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AN2" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AO2" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AR2" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AS2" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AT2" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AU2" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AV2" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AW2" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AX2" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AY2" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="AV2" s="6" t="s">
+      <c r="AZ2" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="AW2" s="6" t="s">
+      <c r="BA2" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="AX2" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="AY2" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="AZ2" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="BA2" s="6" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -6274,7 +6972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68666333-AE69-4574-92B2-6BE3A00DF612}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -6301,163 +6999,163 @@
     </row>
     <row r="2" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AK2" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AL2" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AM2" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AN2" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AO2" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AR2" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AS2" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AT2" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AU2" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AV2" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AW2" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AX2" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AY2" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="AV2" s="6" t="s">
+      <c r="AZ2" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="AW2" s="6" t="s">
+      <c r="BA2" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="AX2" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="AY2" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="AZ2" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="BA2" s="6" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.2">
@@ -6529,113 +7227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675FE18E-3C30-49FC-B6A0-0A6D3F02EBB0}">
-  <dimension ref="A1:O15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="9.1640625" style="1"/>
-    <col min="3" max="3" width="3.5" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.1640625" style="1"/>
-    <col min="13" max="13" width="11.1640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.1640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D444DCF-56F0-450B-930F-1DD02EF4264D}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -6655,16 +7247,16 @@
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="Q1" s="1">
         <v>0.01</v>
@@ -6672,163 +7264,163 @@
     </row>
     <row r="2" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AK2" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AL2" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AM2" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AN2" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AO2" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AR2" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AS2" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AT2" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AU2" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AV2" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AW2" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AX2" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AY2" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="AV2" s="6" t="s">
+      <c r="AZ2" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="AW2" s="6" t="s">
+      <c r="BA2" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="AX2" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="AY2" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="AZ2" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="BA2" s="6" t="s">
-        <v>209</v>
       </c>
       <c r="BC2" s="1"/>
     </row>
@@ -7802,7 +8394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44F1704-24BE-48F1-9574-42F155399A4D}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -7824,7 +8416,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -8336,7 +8928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7E21CA-E0F8-4445-8FC2-328828AC1FFE}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -8361,12 +8953,12 @@
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -12341,7 +12933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D65BC4-7454-4A45-AA93-771B11A13108}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -12364,7 +12956,7 @@
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>45</v>
@@ -12384,7 +12976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDF796A-A87C-4F37-A825-AF0AD18C802A}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -12407,7 +12999,7 @@
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>45</v>
@@ -12431,7 +13023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A13F53-E3AE-452E-A1A1-316A2C800322}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -12454,7 +13046,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -12484,7 +13076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F8A3C4-CDFB-42B9-A561-3BE030B562A7}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -12507,163 +13099,163 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AK2" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AL2" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AM2" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AN2" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AO2" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AR2" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AS2" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AT2" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AU2" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AV2" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AW2" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AX2" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AY2" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="AV2" s="6" t="s">
+      <c r="AZ2" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="AW2" s="6" t="s">
+      <c r="BA2" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="AX2" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="AY2" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="AZ2" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="BA2" s="6" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.2">
@@ -12836,7 +13428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F0BCF9-7789-4700-AF4D-19AFDD7DEF21}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -12859,163 +13451,163 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AK2" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AL2" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AM2" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AN2" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AO2" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AR2" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AS2" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AT2" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AU2" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AV2" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AW2" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AX2" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AY2" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="AV2" s="6" t="s">
+      <c r="AZ2" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="AW2" s="6" t="s">
+      <c r="BA2" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="AX2" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="AY2" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="AZ2" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="BA2" s="6" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.2">
@@ -13188,14 +13780,64 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA283BC5-D620-4970-8035-9A1157B6300D}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="9.1640625" style="1"/>
+    <col min="4" max="4" width="3.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32" style="1" customWidth="1"/>
+    <col min="6" max="13" width="9.1640625" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A2DBF7-A8C0-4CE1-BE66-F8E077B6F0F1}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
   </sheetPr>
   <dimension ref="A1:BA15"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13205,23 +13847,23 @@
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Freshwater Sourcing Availability [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Freshwater Sourcing Availability [bbl/day]</v>
+        <f>_xlfn.CONCAT( "Table of External Water Sourcing Availability [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table of External Water Sourcing Availability [bbl/day]</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1">
         <v>71428.571428571406</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I1" s="1">
         <v>42857.142857142899</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L1" s="1">
         <v>0.7</v>
@@ -13229,163 +13871,163 @@
     </row>
     <row r="2" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>148</v>
+        <v>296</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AK2" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AL2" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AM2" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AN2" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AO2" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AR2" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AS2" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AT2" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AU2" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AV2" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AW2" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AX2" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AY2" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="AV2" s="6" t="s">
+      <c r="AZ2" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="AW2" s="6" t="s">
+      <c r="BA2" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="AX2" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="AY2" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="AZ2" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="BA2" s="6" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -13508,7 +14150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAB793D-71C1-4CA2-A5D0-D94D2FB81D42}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -13532,7 +14174,7 @@
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>45</v>
@@ -13548,55 +14190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA283BC5-D620-4970-8035-9A1157B6300D}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:P4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="3" width="9.1640625" style="1"/>
-    <col min="4" max="4" width="3.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.1640625" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.1640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.1640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.1640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F216C6A0-7BAD-498F-AAE7-F43EE79415DD}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -13619,7 +14213,7 @@
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>45</v>
@@ -13635,7 +14229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF13C221-12DF-4609-BB39-C92B41E7288D}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -13659,7 +14253,7 @@
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>45</v>
@@ -13711,7 +14305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938F1661-765C-4FF3-9C8D-056B836A43E1}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -13736,163 +14330,163 @@
     </row>
     <row r="2" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AK2" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AL2" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AM2" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AN2" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AO2" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AR2" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AS2" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AT2" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AU2" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AV2" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AW2" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AX2" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AY2" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="AV2" s="6" t="s">
+      <c r="AZ2" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="AW2" s="6" t="s">
+      <c r="BA2" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="AX2" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="AY2" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="AZ2" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="BA2" s="6" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -13906,7 +14500,7 @@
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.2">
       <c r="D9" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -13916,7 +14510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDED9A13-6613-4A4D-92BC-DD0B79B273AD}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -13939,7 +14533,7 @@
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>45</v>
@@ -13958,7 +14552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7050C77-5C7B-4C97-8F2B-C60EA6AF1AED}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -13982,10 +14576,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>45</v>
@@ -14047,7 +14641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F35D225-B5AF-4E75-9547-7AC1A8034351}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -14070,7 +14664,7 @@
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>45</v>
@@ -14085,7 +14679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE24AD9-42B2-417F-BF2D-D0F067DA599C}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -14109,7 +14703,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -14622,14 +15216,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B9AF2E-9304-4DC1-ABFA-7D5DAA6BA0BC}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14639,13 +15235,13 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Freshwater Souring Cost [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Freshwater Souring Cost [USD/bbl]</v>
+        <f>_xlfn.CONCAT( "Table of External Water Souring Cost [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table of External Water Souring Cost [USD/bbl]</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>148</v>
+        <v>296</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>45</v>
@@ -14657,126 +15253,6 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35585569-7889-4883-A327-3B12D4AB6358}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Trucking Hourly Cost [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/", "hour","]")</f>
-        <v>Table of Trucking Hourly Cost [USD/hour]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D257926-ED56-4D32-9A5B-F7129B221F36}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14833,6 +15309,126 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35585569-7889-4883-A327-3B12D4AB6358}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Trucking Hourly Cost [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/", "hour","]")</f>
+        <v>Table of Trucking Hourly Cost [USD/hour]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D257926-ED56-4D32-9A5B-F7129B221F36}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E5CD4B-C8DB-4A49-956D-761D45563331}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -14857,7 +15453,7 @@
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -14885,7 +15481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982C988E-F277-4EB8-BD08-045871CAA4ED}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -14908,7 +15504,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>45</v>
@@ -14936,7 +15532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344AC655-401B-435E-9F3E-B4AFCEDA07DB}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -14959,7 +15555,7 @@
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -14993,7 +15589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F26805-7F3D-4935-8D0C-80B2E9E9F409}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -15016,7 +15612,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>45</v>
@@ -15044,7 +15640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906D3944-A6F1-468B-A756-A99C077811C6}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -15068,10 +15664,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -15164,7 +15760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6DB070-53D7-4763-B1D6-04233A007F0E}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -15189,7 +15785,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -15243,7 +15839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C902C13-E391-4A34-8851-63FF84EE5034}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -15272,12 +15868,12 @@
         <v>44</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B3" s="26">
         <v>300000</v>
@@ -15288,7 +15884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A1CA9B-7923-4D65-AAFB-3C314AFCE483}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -15314,7 +15910,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -15825,7 +16421,52 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ABFF4F0-1521-4984-985F-ECB7FE3DE71E}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="9.1640625" style="1"/>
+    <col min="4" max="4" width="3.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32" style="1" customWidth="1"/>
+    <col min="6" max="13" width="9.1640625" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD7B182-CFB4-4537-B5F7-69962DD30DA1}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -15847,10 +16488,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -15882,7 +16523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BBCD48-6980-4EA6-BF3E-79D1C64EA04C}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -15907,7 +16548,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>45</v>
@@ -15915,7 +16556,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" s="54">
         <v>0</v>
@@ -15923,7 +16564,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" s="54">
         <v>14285.714285714286</v>
@@ -15931,7 +16572,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="54">
         <v>35714.285714285717</v>
@@ -15939,7 +16580,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" s="54">
         <v>42857.142857142855</v>
@@ -15947,7 +16588,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="54">
         <v>50000</v>
@@ -15959,52 +16600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ABFF4F0-1521-4984-985F-ECB7FE3DE71E}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:P3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="3" width="9.1640625" style="1"/>
-    <col min="4" max="4" width="3.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.1640625" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.1640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.1640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.1640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805632D3-BD42-4D5C-8C0F-68DF124ED3E8}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -16027,7 +16623,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>45</v>
@@ -16059,7 +16655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D674F75E-153D-40A1-94D4-31ED20AACD7B}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -16079,15 +16675,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>45</v>
@@ -16148,7 +16744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FD92FF-3AD4-4D23-8578-311AD898F13B}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -16166,18 +16762,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -16235,7 +16831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5996B071-C07A-46F0-B343-7584DB2F1269}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -16252,12 +16848,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>45</v>
@@ -16288,7 +16884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE80B7E4-4C81-4B91-B37B-915E590A92F2}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -16307,12 +16903,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>45</v>
@@ -16331,7 +16927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAE292C-3BB2-2849-BB83-C54AA781DD52}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -16349,12 +16945,12 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>45</v>
@@ -16365,7 +16961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FBE079-FAED-46A7-9D21-827D4D11C1A7}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -16388,7 +16984,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>45</v>
@@ -16411,7 +17007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2338A37-BF8E-46F2-AA7C-FB95F874D0FC}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -16428,12 +17024,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>45</v>
@@ -16448,7 +17044,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3133666-F0B1-1249-8F2A-F38C8FD1594F}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EDDE38-2D71-4494-ABC1-8D5269A138D9}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -16468,7 +17095,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -16476,12 +17103,12 @@
         <v>44</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B3" s="25">
         <v>110</v>
@@ -16489,7 +17116,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B4" s="30">
         <v>0.03</v>
@@ -16497,24 +17124,24 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B5" s="25">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B6" s="26">
         <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -16522,7 +17149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F8796-71C2-44EA-9373-5A0165D7B559}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -16541,7 +17168,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -16549,12 +17176,12 @@
         <v>44</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B3" s="30">
         <v>0.08</v>
@@ -16562,7 +17189,7 @@
     </row>
     <row r="4" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B4" s="26">
         <v>20</v>
@@ -16573,46 +17200,44 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0D7E5C-CD82-4DB8-A226-3E1C788BA0DC}">
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0530FC6D-65BF-9E45-B3EE-314250A8309C}">
   <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
+    <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.1640625" style="1"/>
-    <col min="4" max="4" width="3.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.1640625" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.1640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.1640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="26" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Water Quality of External Water Sources [",VLOOKUP("concentration", [1]Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table of Water Quality of External Water Sources [mg/liter]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="81" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2" s="81" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="81"/>
+      <c r="B3" s="82"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="81"/>
+      <c r="B4" s="82"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16620,7 +17245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134045F2-617D-4B6C-9AE3-C6E73CF3B321}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -16650,10 +17275,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -16682,7 +17307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE4BAFD-2A94-4164-976F-B9E5B42E5AAB}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -16706,10 +17331,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -16731,7 +17356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA334136-9628-4654-B8E2-BCFE701B0D1B}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -16755,10 +17380,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -16770,7 +17395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C69F2D-49DC-1944-BFFB-2EEA9F71D13F}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -16803,24 +17428,24 @@
         <v>44</v>
       </c>
       <c r="B2" s="72" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>270</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>271</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>272</v>
+      </c>
+      <c r="F2" s="65" t="s">
         <v>273</v>
-      </c>
-      <c r="C2" s="64" t="s">
-        <v>274</v>
-      </c>
-      <c r="D2" s="64" t="s">
-        <v>275</v>
-      </c>
-      <c r="E2" s="64" t="s">
-        <v>276</v>
-      </c>
-      <c r="F2" s="65" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B3" s="67">
         <v>2035000</v>
@@ -16840,7 +17465,7 @@
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B4" s="67">
         <v>22</v>
@@ -16860,7 +17485,7 @@
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B5" s="67">
         <v>310000000</v>
@@ -16880,7 +17505,7 @@
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B6" s="67">
         <v>970</v>
@@ -16900,7 +17525,7 @@
     </row>
     <row r="7" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B7" s="70">
         <v>1000</v>
@@ -16924,14 +17549,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0936AA-9CB5-FA48-AA26-19FC94AF5C3A}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -16942,33 +17567,33 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="63" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B2" s="64" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>270</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>271</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>272</v>
+      </c>
+      <c r="F2" s="65" t="s">
         <v>273</v>
-      </c>
-      <c r="C2" s="64" t="s">
-        <v>274</v>
-      </c>
-      <c r="D2" s="64" t="s">
-        <v>275</v>
-      </c>
-      <c r="E2" s="64" t="s">
-        <v>276</v>
-      </c>
-      <c r="F2" s="65" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="66" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="67">
         <v>9600</v>
@@ -16988,7 +17613,7 @@
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="66" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="67">
         <v>9600</v>
@@ -17008,7 +17633,7 @@
     </row>
     <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="66" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B5" s="67">
         <v>9600</v>
@@ -17028,7 +17653,7 @@
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="66" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B6" s="67">
         <v>9600</v>
@@ -17048,7 +17673,7 @@
     </row>
     <row r="7" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="69" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B7" s="70">
         <v>9600</v>
@@ -17073,7 +17698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B28A4AC-774D-4F01-8B4F-3E23D6A50C57}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -17103,10 +17728,10 @@
     </row>
     <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -17203,7 +17828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A3376C-B8BF-456A-9F8F-97FD96566A3A}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -17227,7 +17852,7 @@
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -17245,166 +17870,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7EC6F2-1522-42F6-A09A-9709AB96F608}">
-  <sheetPr>
-    <tabColor theme="0"/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Storage Expansion Lead Time [",VLOOKUP("decision period", Units!$A$2:$B$11, 2, FALSE),"s]")</f>
-        <v>Table of Storage Expansion Lead Time [weeks]</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-    </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-    </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03D31AA-46D4-464A-9A51-F7F7B8767B7B}">
-  <sheetPr>
-    <tabColor theme="0"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Distance Based [",VLOOKUP("decision period", Units!$A$2:$B$11, 2, FALSE),"s/",VLOOKUP("distance", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Pipeline Expansion Lead Time - Distance Based [weeks/mile]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="B3" s="57">
-        <v>0.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C876A9-1E8F-4C0D-BF38-C23F08A2F8DA}">
-  <sheetPr>
-    <tabColor theme="0"/>
-  </sheetPr>
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Capacity Based [",VLOOKUP("decision period", Units!$A$2:$B$11, 2, FALSE),"s]")</f>
-        <v>Table of Pipeline Expansion Lead Time - Capacity Based [weeks]</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/backend/app/internal/assets/pareto_input_template.xlsx
+++ b/backend/app/internal/assets/pareto_input_template.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelpesce/Desktop/pareto-ui/backend/app/internal/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD92D4FB-1F95-F14E-9425-0AFBC6AD6077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF01FE4-DBFA-B94C-B276-A208E601EED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="21560" windowHeight="18900" tabRatio="953" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="12340" yWindow="760" windowWidth="21560" windowHeight="18900" tabRatio="953" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
     <sheet name="Schematic" sheetId="82" r:id="rId2"/>
-    <sheet name="Units" sheetId="103" r:id="rId3"/>
+    <sheet name="Units" sheetId="150" r:id="rId3"/>
     <sheet name="ProductionPads" sheetId="1" r:id="rId4"/>
     <sheet name="ProductionTanks" sheetId="34" state="hidden" r:id="rId5"/>
     <sheet name="CompletionsPads" sheetId="3" r:id="rId6"/>
@@ -124,9 +124,6 @@
     <sheet name="SWDProxHpOrLpWell" sheetId="143" r:id="rId109"/>
     <sheet name="SWDRiskFactors" sheetId="146" r:id="rId110"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId111"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="78" hidden="1">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">TreatmentTechnologies!$A$1:$A$5</definedName>
@@ -153,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="306">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -1056,6 +1053,21 @@
   </si>
   <si>
     <t>List of all Air Emissions Components [-]</t>
+  </si>
+  <si>
+    <t>1000g</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>Mass units is used for measuring emissions coefficients (e.g. 10g per treated produced water bbl).</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>mass</t>
   </si>
 </sst>
 </file>
@@ -1528,7 +1540,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1714,9 +1726,6 @@
     <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1744,321 +1753,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Overview"/>
-      <sheetName val="Schematic"/>
-      <sheetName val="Units"/>
-      <sheetName val="ProductionPads"/>
-      <sheetName val="ProductionTanks"/>
-      <sheetName val="CompletionsPads"/>
-      <sheetName val="SWDSites"/>
-      <sheetName val="ExternalWaterSources"/>
-      <sheetName val="WaterQualityComponents"/>
-      <sheetName val="AirEmissionsComponents"/>
-      <sheetName val="StorageSites"/>
-      <sheetName val="TreatmentSites"/>
-      <sheetName val="TreatmentTechnologies"/>
-      <sheetName val="ReuseOptions"/>
-      <sheetName val="NetworkNodes"/>
-      <sheetName val="PipelineDiameters"/>
-      <sheetName val="StorageCapacities"/>
-      <sheetName val="TreatmentCapacities"/>
-      <sheetName val="InjectionCapacities"/>
-      <sheetName val="PNA"/>
-      <sheetName val="CNA"/>
-      <sheetName val="CCA"/>
-      <sheetName val="NNA"/>
-      <sheetName val="NCA"/>
-      <sheetName val="NKA"/>
-      <sheetName val="NRA"/>
-      <sheetName val="NSA"/>
-      <sheetName val="NOA"/>
-      <sheetName val="SNA"/>
-      <sheetName val="SOA"/>
-      <sheetName val="FCA"/>
-      <sheetName val="RCA"/>
-      <sheetName val="RSA"/>
-      <sheetName val="SCA"/>
-      <sheetName val="RNA"/>
-      <sheetName val="ROA"/>
-      <sheetName val="RKA"/>
-      <sheetName val="PCT"/>
-      <sheetName val="FCT"/>
-      <sheetName val="PKT"/>
-      <sheetName val="CKT"/>
-      <sheetName val="CCT"/>
-      <sheetName val="CST"/>
-      <sheetName val="RST"/>
-      <sheetName val="ROT"/>
-      <sheetName val="SOT"/>
-      <sheetName val="RKT"/>
-      <sheetName val="Elevation"/>
-      <sheetName val="CompletionsDemand"/>
-      <sheetName val="PadRates"/>
-      <sheetName val="FlowbackRates"/>
-      <sheetName val="WellPressure"/>
-      <sheetName val="InitialPipelineCapacity"/>
-      <sheetName val="InitialPipelineDiameters"/>
-      <sheetName val="InitialDisposalCapacity"/>
-      <sheetName val="InitialStorageCapacity"/>
-      <sheetName val="InitialTreatmentCapacity"/>
-      <sheetName val="ReuseMinimum"/>
-      <sheetName val="ReuseCapacity"/>
-      <sheetName val="ExtWaterSourcingAvailability"/>
-      <sheetName val="CompletionsPadStorage"/>
-      <sheetName val="PadOffloadingCapacity"/>
-      <sheetName val="NodeCapacities"/>
-      <sheetName val="DisposalOperatingCapacity"/>
-      <sheetName val="DisposalOperationalCost"/>
-      <sheetName val="TreatmentOperationalCost"/>
-      <sheetName val="ReuseOperationalCost"/>
-      <sheetName val="PipelineOperationalCost"/>
-      <sheetName val="ExternalSourcingCost"/>
-      <sheetName val="TruckingHourlyCost"/>
-      <sheetName val="TruckingTime"/>
-      <sheetName val="DisposalExpansionCost"/>
-      <sheetName val="DisposalCapacityIncrements"/>
-      <sheetName val="StorageExpansionCost"/>
-      <sheetName val="StorageCapacityIncrements"/>
-      <sheetName val="TreatmentExpansionCost"/>
-      <sheetName val="TreatmentCapacityIncrements"/>
-      <sheetName val="PipelineCapexDistanceBased"/>
-      <sheetName val="PipelineExpansionDistance"/>
-      <sheetName val="PipelineCapexCapacityBased"/>
-      <sheetName val="PipelineCapacityIncrements"/>
-      <sheetName val="PipelineDiameterValues"/>
-      <sheetName val="TreatmentEfficiency"/>
-      <sheetName val="RemovalEfficiency"/>
-      <sheetName val="DesalinationTechnologies"/>
-      <sheetName val="DesalinationSites"/>
-      <sheetName val="BeneficialReuseCost"/>
-      <sheetName val="BeneficialReuseCredit"/>
-      <sheetName val="CompletionsPadOutsideSystem"/>
-      <sheetName val="Hydraulics"/>
-      <sheetName val="Economics"/>
-      <sheetName val="ExternalWaterQuality"/>
-      <sheetName val="PadWaterQuality"/>
-      <sheetName val="StorageInitialWaterQuality"/>
-      <sheetName val="AirEmissionCoefficients"/>
-      <sheetName val="TreatmentEmissionCoefficients"/>
-      <sheetName val="PadStorageInitialWaterQuality"/>
-      <sheetName val="TreatmentExpansionLeadTime"/>
-      <sheetName val="DisposalExpansionLeadTime"/>
-      <sheetName val="StorageExpansionLeadTime"/>
-      <sheetName val="PipelineExpansionLeadTime_Dist"/>
-      <sheetName val="PipelineExpansionLeadTime_Capac"/>
-      <sheetName val="SWDDeep"/>
-      <sheetName val="SWDAveragePressure"/>
-      <sheetName val="SWDProxPAWell"/>
-      <sheetName val="SWDProxInactiveWell"/>
-      <sheetName val="SWDProxEQ"/>
-      <sheetName val="SWDProxFault"/>
-      <sheetName val="SWDProxHpOrLpWell"/>
-      <sheetName val="SWDRiskFactors"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>INDEX</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>VALUE</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>volume</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>bbl</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>distance</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>mile</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>diameter</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>inch</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>concentration</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>mg/liter</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>currency</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>USD</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>time</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>day</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>pressure</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>psi</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>elevation</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>foot</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>decision period</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>week</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-      <sheetData sheetId="59"/>
-      <sheetData sheetId="60"/>
-      <sheetData sheetId="61"/>
-      <sheetData sheetId="62"/>
-      <sheetData sheetId="63"/>
-      <sheetData sheetId="64"/>
-      <sheetData sheetId="65"/>
-      <sheetData sheetId="66"/>
-      <sheetData sheetId="67"/>
-      <sheetData sheetId="68"/>
-      <sheetData sheetId="69"/>
-      <sheetData sheetId="70"/>
-      <sheetData sheetId="71"/>
-      <sheetData sheetId="72"/>
-      <sheetData sheetId="73"/>
-      <sheetData sheetId="74"/>
-      <sheetData sheetId="75"/>
-      <sheetData sheetId="76"/>
-      <sheetData sheetId="77"/>
-      <sheetData sheetId="78"/>
-      <sheetData sheetId="79"/>
-      <sheetData sheetId="80"/>
-      <sheetData sheetId="81"/>
-      <sheetData sheetId="82"/>
-      <sheetData sheetId="83"/>
-      <sheetData sheetId="84"/>
-      <sheetData sheetId="85"/>
-      <sheetData sheetId="86"/>
-      <sheetData sheetId="87"/>
-      <sheetData sheetId="88"/>
-      <sheetData sheetId="89"/>
-      <sheetData sheetId="90"/>
-      <sheetData sheetId="91"/>
-      <sheetData sheetId="92"/>
-      <sheetData sheetId="93"/>
-      <sheetData sheetId="94"/>
-      <sheetData sheetId="95"/>
-      <sheetData sheetId="96"/>
-      <sheetData sheetId="97"/>
-      <sheetData sheetId="98"/>
-      <sheetData sheetId="99"/>
-      <sheetData sheetId="100"/>
-      <sheetData sheetId="101"/>
-      <sheetData sheetId="102"/>
-      <sheetData sheetId="103"/>
-      <sheetData sheetId="104"/>
-      <sheetData sheetId="105"/>
-      <sheetData sheetId="106"/>
-      <sheetData sheetId="107"/>
-      <sheetData sheetId="108"/>
-      <sheetData sheetId="109"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2976,9 +2670,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Storage Expansion Lead Time [",VLOOKUP("decision period", Units!$A$2:$B$11, 2, FALSE),"s]")</f>
-        <v>Table of Storage Expansion Lead Time [weeks]</v>
+      <c r="A1" s="1" t="e">
+        <f>_xlfn.CONCAT( "Table of Storage Expansion Lead Time [",VLOOKUP("decision period",#REF!, 2, FALSE),"s]")</f>
+        <v>#REF!</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3033,9 +2727,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Distance Based [",VLOOKUP("decision period", Units!$A$2:$B$11, 2, FALSE),"s/",VLOOKUP("distance", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Pipeline Expansion Lead Time - Distance Based [weeks/mile]</v>
+      <c r="A1" s="1" t="e">
+        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Distance Based [",VLOOKUP("decision period",#REF!, 2, FALSE),"s/",VLOOKUP("distance",#REF!, 2, FALSE),"]")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -3071,9 +2765,9 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Capacity Based [",VLOOKUP("decision period", Units!$A$2:$B$11, 2, FALSE),"s]")</f>
-        <v>Table of Pipeline Expansion Lead Time - Capacity Based [weeks]</v>
+      <c r="A1" s="1" t="e">
+        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Capacity Based [",VLOOKUP("decision period",#REF!, 2, FALSE),"s]")</f>
+        <v>#REF!</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4890,15 +4584,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEB10CD-C2F5-4A5B-9D35-9BA20FBC12B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F19DE1-7232-9D4E-A12D-8B7450D54C2A}">
   <sheetPr>
     <tabColor theme="2" tint="-9.9978637043366805E-2"/>
   </sheetPr>
-  <dimension ref="A1:BA12"/>
+  <dimension ref="A1:BB12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4922,12 +4614,12 @@
     <col min="54" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:54" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>44</v>
       </c>
@@ -4947,7 +4639,7 @@
       <c r="J2" s="43"/>
       <c r="K2" s="45"/>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>48</v>
       </c>
@@ -4977,7 +4669,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>55</v>
       </c>
@@ -5001,7 +4693,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="35"/>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>60</v>
       </c>
@@ -5019,7 +4711,7 @@
       <c r="J5" s="34"/>
       <c r="K5" s="36"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>63</v>
       </c>
@@ -5043,7 +4735,7 @@
       <c r="J6" s="34"/>
       <c r="K6" s="36"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>67</v>
       </c>
@@ -5067,7 +4759,7 @@
       <c r="J7" s="34"/>
       <c r="K7" s="36"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>72</v>
       </c>
@@ -5109,7 +4801,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>233</v>
       </c>
@@ -5157,7 +4849,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>238</v>
       </c>
@@ -5199,33 +4891,33 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:53" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="47" t="s">
+      <c r="F11" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="48" t="s">
+      <c r="G11" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="42"/>
-      <c r="I11" s="49" t="s">
+      <c r="H11" s="38"/>
+      <c r="I11" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="J11" s="47" t="s">
+      <c r="J11" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="48" t="s">
+      <c r="K11" s="36" t="s">
         <v>82</v>
       </c>
       <c r="AU11" s="1" t="s">
@@ -5235,39 +4927,61 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:54" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>303</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>302</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>301</v>
+      </c>
+      <c r="H12" s="42"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="48"/>
       <c r="AU12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BA12" s="1" t="s">
+      <c r="BB12" s="1" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{0221D16C-ACF3-42AE-9C26-25DCEE5A4935}">
-      <formula1>$AT$9:$AT$10</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11" xr:uid="{F2F718D3-1F2B-4B75-B6F1-E58F1982C8E5}">
+      <formula1>$BA$9:$BA$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{A9C3EE24-05FB-48EE-9886-7F2676DC7EE9}">
+      <formula1>$AZ$9:$AZ$10</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{C77CFCD0-E9B6-4035-9AEC-88575ADC24B9}">
+      <formula1>$AV$9:$AV$10</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{C12D334A-9947-4F69-ADBA-610C067372DB}">
+      <formula1>$AY$9:$AY$10</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{786B06B2-2E18-4E07-817C-AFF8EF08A5C5}">
+      <formula1>$AX$9:$AX$10</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{9028AD91-E96A-4D2A-B2A3-6F94739A937D}">
+      <formula1>$AW$9:$AW$10</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B10" xr:uid="{48F5BE7D-5F59-4B5D-A488-104864EC18E3}">
       <formula1>$AU$9:$AU$12</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{9028AD91-E96A-4D2A-B2A3-6F94739A937D}">
-      <formula1>$AW$9:$AW$10</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{786B06B2-2E18-4E07-817C-AFF8EF08A5C5}">
-      <formula1>$AX$9:$AX$10</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{C12D334A-9947-4F69-ADBA-610C067372DB}">
-      <formula1>$AY$9:$AY$10</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{C77CFCD0-E9B6-4035-9AEC-88575ADC24B9}">
-      <formula1>$AV$9:$AV$10</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{A9C3EE24-05FB-48EE-9886-7F2676DC7EE9}">
-      <formula1>$AZ$9:$AZ$10</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11" xr:uid="{F2F718D3-1F2B-4B75-B6F1-E58F1982C8E5}">
-      <formula1>$BA$9:$BA$12</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{0221D16C-ACF3-42AE-9C26-25DCEE5A4935}">
+      <formula1>$AT$9:$AT$10</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6260,9 +5974,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Completions Water Demand for Completions Sites over ",VLOOKUP("decision period", Units!$A$2:$B$11, 2, FALSE),"s [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Completions Water Demand for Completions Sites over weeks [bbl/day]</v>
+      <c r="A1" s="1" t="e">
+        <f>_xlfn.CONCAT( "Table of Completions Water Demand for Completions Sites over ",VLOOKUP("decision period",#REF!, 2, FALSE),"s [",VLOOKUP("volume",#REF!, 2, FALSE),"/", VLOOKUP("time",#REF!, 2, FALSE),"]")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -6569,9 +6283,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Production Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Production Rate Forecasts by Pads [bbl/day]</v>
+      <c r="A1" s="1" t="e">
+        <f>_xlfn.CONCAT( "Table of Production Rate Forecasts by Pads [",VLOOKUP("volume",#REF!, 2, FALSE),"/", VLOOKUP("time",#REF!, 2, FALSE),"]")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -6992,9 +6706,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Flowback Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Flowback Rate Forecasts by Pads [bbl/day]</v>
+      <c r="A1" s="1" t="e">
+        <f>_xlfn.CONCAT( "Table of Flowback Rate Forecasts by Pads [",VLOOKUP("volume",#REF!, 2, FALSE),"/", VLOOKUP("time",#REF!, 2, FALSE),"]")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -8409,9 +8123,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Initial Pipeline Capacity between Sites [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Initial Pipeline Capacity between Sites [bbl/day]</v>
+      <c r="A1" s="1" t="e">
+        <f>_xlfn.CONCAT( "Table of Initial Pipeline Capacity between Sites [",VLOOKUP("volume",#REF!, 2, FALSE),"/", VLOOKUP("time",#REF!, 2, FALSE),"]")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -12949,9 +12663,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Initial Disposal Capacity [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Initial Disposal Capacity [bbl/day]</v>
+      <c r="A1" s="1" t="e">
+        <f>_xlfn.CONCAT( "Table of Initial Disposal Capacity [",VLOOKUP("volume",#REF!, 2, FALSE),"/", VLOOKUP("time",#REF!, 2, FALSE),"]")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -12992,9 +12706,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Initial Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Initial Storage Capacity [bbl]</v>
+      <c r="A1" s="1" t="e">
+        <f>_xlfn.CONCAT( "Table of Initial Storage Capacity [",VLOOKUP("volume",#REF!, 2, FALSE),"]")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -13039,9 +12753,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Initial Treatment Capacity [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Initial Treatment Capacity [bbl/day]</v>
+      <c r="A1" s="1" t="e">
+        <f>_xlfn.CONCAT( "Table of Initial Treatment Capacity [",VLOOKUP("volume",#REF!, 2, FALSE),"/", VLOOKUP("time",#REF!, 2, FALSE),"]")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -13092,9 +12806,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Beneficial Reuse minimum required flow [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Beneficial Reuse minimum required flow [bbl/day]</v>
+      <c r="A1" s="1" t="e">
+        <f>_xlfn.CONCAT( "Table of Beneficial Reuse minimum required flow [",VLOOKUP("volume",#REF!, 2, FALSE),"/", VLOOKUP("time",#REF!, 2, FALSE),"]")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.2">
@@ -13444,9 +13158,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Beneficial Reuse Capacity [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"] (leave cells blank to indicate infinite capacity)")</f>
-        <v>Table of Beneficial Reuse Capacity [bbl/day] (leave cells blank to indicate infinite capacity)</v>
+      <c r="A1" s="1" t="e">
+        <f>_xlfn.CONCAT( "Table of Beneficial Reuse Capacity [",VLOOKUP("volume",#REF!, 2, FALSE),"/", VLOOKUP("time",#REF!, 2, FALSE),"] (leave cells blank to indicate infinite capacity)")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.2">
@@ -13846,9 +13560,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of External Water Sourcing Availability [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of External Water Sourcing Availability [bbl/day]</v>
+      <c r="A1" s="1" t="e">
+        <f>_xlfn.CONCAT( "Table of External Water Sourcing Availability [",VLOOKUP("volume",#REF!, 2, FALSE),"/", VLOOKUP("time",#REF!, 2, FALSE),"]")</f>
+        <v>#REF!</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>105</v>
@@ -14167,9 +13881,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Completions Pad Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Completions Pad Storage Capacity [bbl]</v>
+      <c r="A1" s="1" t="e">
+        <f>_xlfn.CONCAT( "Table of Completions Pad Storage Capacity [",VLOOKUP("volume",#REF!, 2, FALSE),"]")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -14206,9 +13920,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pad Offloading Capacity [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Pad Offloading Capacity [bbl/day]</v>
+      <c r="A1" s="1" t="e">
+        <f>_xlfn.CONCAT( "Table of Pad Offloading Capacity [",VLOOKUP("volume",#REF!, 2, FALSE),"/", VLOOKUP("time",#REF!, 2, FALSE),"]")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -14246,9 +13960,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Node Capacity Capacity [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]", " *absence of node or empty cell signifies no max capacity")</f>
-        <v>Table of Node Capacity Capacity [bbl/day] *absence of node or empty cell signifies no max capacity</v>
+      <c r="A1" s="1" t="e">
+        <f>_xlfn.CONCAT( "Table of Node Capacity Capacity [",VLOOKUP("volume",#REF!, 2, FALSE),"/", VLOOKUP("time",#REF!, 2, FALSE),"]", " *absence of node or empty cell signifies no max capacity")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -14526,9 +14240,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Disposal Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Disposal Operational Cost [USD/bbl]</v>
+      <c r="A1" s="1" t="e">
+        <f>_xlfn.CONCAT( "Table of Disposal Operational Cost [",VLOOKUP("currency",#REF!, 2, FALSE),"/", VLOOKUP("volume",#REF!, 2, FALSE),"]")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -14569,9 +14283,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Treatment Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Treatment Operational Cost [USD/bbl]</v>
+      <c r="A1" s="1" t="e">
+        <f>_xlfn.CONCAT( "Table of Treatment Operational Cost [",VLOOKUP("currency",#REF!, 2, FALSE),"/", VLOOKUP("volume",#REF!, 2, FALSE),"]")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -14657,9 +14371,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Reuse Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Reuse Operational Cost [USD/bbl]</v>
+      <c r="A1" s="1" t="e">
+        <f>_xlfn.CONCAT( "Table of Reuse Operational Cost [",VLOOKUP("currency",#REF!, 2, FALSE),"/", VLOOKUP("volume",#REF!, 2, FALSE),"]")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -14696,9 +14410,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pipeline Operational Cost between Sites [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Pipeline Operational Cost between Sites [USD/bbl]</v>
+      <c r="A1" s="1" t="e">
+        <f>_xlfn.CONCAT( "Table of Pipeline Operational Cost between Sites [",VLOOKUP("currency",#REF!, 2, FALSE),"/", VLOOKUP("volume",#REF!, 2, FALSE),"]")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -15234,9 +14948,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of External Water Souring Cost [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of External Water Souring Cost [USD/bbl]</v>
+      <c r="A1" s="1" t="e">
+        <f>_xlfn.CONCAT( "Table of External Water Souring Cost [",VLOOKUP("currency",#REF!, 2, FALSE),"/", VLOOKUP("volume",#REF!, 2, FALSE),"]")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -15323,9 +15037,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Trucking Hourly Cost [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/", "hour","]")</f>
-        <v>Table of Trucking Hourly Cost [USD/hour]</v>
+      <c r="A1" s="1" t="e">
+        <f>_xlfn.CONCAT( "Table of Trucking Hourly Cost [",VLOOKUP("currency",#REF!, 2, FALSE),"/", "hour","]")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -15446,9 +15160,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),")]")</f>
-        <v>Table of Disposal Capacity Expansion Cost [USD/(bbl/day)]</v>
+      <c r="A1" s="1" t="e">
+        <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Cost [",VLOOKUP("currency",#REF!, 2, FALSE),"/(", VLOOKUP("volume",#REF!, 2, FALSE),"/", VLOOKUP("time",#REF!, 2, FALSE),")]")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -15497,9 +15211,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Disposal Capacity Expansion Increments [bbl/day]</v>
+      <c r="A1" s="1" t="e">
+        <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Increments [",VLOOKUP("volume",#REF!, 2, FALSE),"/", VLOOKUP("time",#REF!, 2, FALSE),"]")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -15548,9 +15262,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Storage Capacity Expansion Cost [USD/bbl]</v>
+      <c r="A1" s="1" t="e">
+        <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Cost [",VLOOKUP("currency",#REF!, 2, FALSE),"/", VLOOKUP("volume",#REF!, 2, FALSE),"]")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -15605,9 +15319,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Storage Capacity Expansion Increments [bbl]</v>
+      <c r="A1" s="1" t="e">
+        <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Increments [",VLOOKUP("volume",#REF!, 2, FALSE),"]")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -15657,9 +15371,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),")]")</f>
-        <v>Table of Treatment Capacity Expansion Cost [USD/(bbl/day)]</v>
+      <c r="A1" s="1" t="e">
+        <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Cost [",VLOOKUP("currency",#REF!, 2, FALSE),"/(", VLOOKUP("volume",#REF!, 2, FALSE),"/", VLOOKUP("time",#REF!, 2, FALSE),")]")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -15778,9 +15492,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Treatment Capacity Expansion Increments [bbl/day]</v>
+      <c r="A1" s="1" t="e">
+        <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Increments [",VLOOKUP("volume",#REF!, 2, FALSE),"/", VLOOKUP("time",#REF!, 2, FALSE),"]")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -15858,9 +15572,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Pipeline Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/(", VLOOKUP("diameter", Units!$A$2:$B$11, 2, FALSE),"-", VLOOKUP("distance", Units!$A$2:$B$11, 2, FALSE),")]")</f>
-        <v>Pipeline Expansion Cost [USD/(inch-mile)]</v>
+      <c r="A1" s="1" t="e">
+        <f>_xlfn.CONCAT( "Pipeline Expansion Cost [",VLOOKUP("currency",#REF!, 2, FALSE),"/(", VLOOKUP("diameter",#REF!, 2, FALSE),"-", VLOOKUP("distance",#REF!, 2, FALSE),")]")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -15903,9 +15617,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Distances [",VLOOKUP("distance", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Pipeline Expansion Distances [mile]</v>
+      <c r="A1" s="1" t="e">
+        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Distances [",VLOOKUP("distance",#REF!, 2, FALSE),"]")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -16481,9 +16195,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Costs [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),")]")</f>
-        <v>Table of Pipeline Capacity Expansion Costs [USD/(bbl/day)]</v>
+      <c r="A1" s="1" t="e">
+        <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Costs [",VLOOKUP("currency",#REF!, 2, FALSE),"/(", VLOOKUP("volume",#REF!, 2, FALSE),"/", VLOOKUP("time",#REF!, 2, FALSE),")]")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -16541,9 +16255,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Pipeline Capacity Expansion Increments [bbl/day]</v>
+      <c r="A1" s="1" t="e">
+        <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Increments [",VLOOKUP("volume",#REF!, 2, FALSE),"/", VLOOKUP("time",#REF!, 2, FALSE),"]")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -16616,9 +16330,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pipeline Diameters [",VLOOKUP("diameter", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Pipeline Diameters [inch]</v>
+      <c r="A1" s="1" t="e">
+        <f>_xlfn.CONCAT( "Table of Pipeline Diameters [",VLOOKUP("diameter",#REF!, 2, FALSE),"]")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -16977,9 +16691,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table with credit received for sending water to beneficial reuse [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table with credit received for sending water to beneficial reuse [USD/bbl]</v>
+      <c r="A1" s="1" t="e">
+        <f>_xlfn.CONCAT( "Table with credit received for sending water to beneficial reuse [",VLOOKUP("currency",#REF!, 2, FALSE),"/", VLOOKUP("volume",#REF!, 2, FALSE),"]")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -17219,25 +16933,25 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Water Quality of External Water Sources [",VLOOKUP("concentration", [1]Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <f>_xlfn.CONCAT( "Table of Water Quality of External Water Sources [",VLOOKUP("concentration", Units!$A$2:$B$11, 2, FALSE),"]")</f>
         <v>Table of Water Quality of External Water Sources [mg/liter]</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="6" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="81"/>
-      <c r="B3" s="82"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="81"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="81"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17268,9 +16982,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
+      <c r="A1" s="1" t="e">
+        <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration",#REF!, 2, FALSE),"]")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -17324,9 +17038,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Initial Water Quality at Storage [", VLOOKUP("concentration", Units!A2:B9, 2, FALSE),,"]")</f>
-        <v>Table of Initial Water Quality at Storage [mg/liter]</v>
+      <c r="A1" s="1" t="e">
+        <f>_xlfn.CONCAT( "Table of Initial Water Quality at Storage [", VLOOKUP("concentration",#REF!, 2, FALSE),,"]")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -17373,9 +17087,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Initial Water Quality at Completions Pad Storage [",VLOOKUP("concentration", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Initial Water Quality at Completions Pad Storage [mg/liter]</v>
+      <c r="A1" s="1" t="e">
+        <f>_xlfn.CONCAT( "Table of Initial Water Quality at Completions Pad Storage [",VLOOKUP("concentration",#REF!, 2, FALSE),"]")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -17716,9 +17430,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Treatment Expansion Lead Time [",VLOOKUP("decision period", Units!$A$2:$B$11, 2, FALSE),"s]")</f>
-        <v>Table of Treatment Expansion Lead Time [weeks]</v>
+      <c r="A1" s="1" t="e">
+        <f>_xlfn.CONCAT( "Table of Treatment Expansion Lead Time [",VLOOKUP("decision period",#REF!, 2, FALSE),"s]")</f>
+        <v>#REF!</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -17843,9 +17557,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Disposal Expansion Lead Time [",VLOOKUP("decision period", Units!$A$2:$B$11, 2, FALSE),"s]")</f>
-        <v>Table of Disposal Expansion Lead Time [weeks]</v>
+      <c r="A1" s="1" t="e">
+        <f>_xlfn.CONCAT( "Table of Disposal Expansion Lead Time [",VLOOKUP("decision period",#REF!, 2, FALSE),"s]")</f>
+        <v>#REF!</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
